--- a/0_data/9_evaluation/distances/a1/a1_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/a1/a1_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.46045454545455</v>
+        <v>75.90379825653798</v>
       </c>
       <c r="C2" t="n">
-        <v>11.44678492239468</v>
+        <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.438015521064301</v>
+        <v>3.426064757160648</v>
       </c>
       <c r="E2" t="n">
-        <v>18.490022172949</v>
+        <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>6.054866962305987</v>
+        <v>6.020622665006226</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009257206208425722</v>
+        <v>0.008468244084682441</v>
       </c>
       <c r="H2" t="n">
-        <v>2.395388026607538</v>
+        <v>2.397770859277708</v>
       </c>
       <c r="I2" t="n">
-        <v>127.890243902439</v>
+        <v>5.936488169364882</v>
       </c>
       <c r="J2" t="n">
-        <v>340.1762749445676</v>
+        <v>337.4308841843089</v>
       </c>
       <c r="K2" t="n">
-        <v>5.705942350332594</v>
+        <v>5.658555417185553</v>
       </c>
       <c r="L2" t="n">
-        <v>2.997217294900222</v>
+        <v>3.006226650062267</v>
       </c>
       <c r="M2" t="n">
-        <v>4.840964523281596</v>
+        <v>4.87225404732254</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[80.48669623059867, 27.595343680709533, 121.6019955654102, 47.08647450110865, 12.882483370288249, 22.52549889135255, 0.19290465631929046, 14.120842572062084, 3.207317073170732, 4.327050997782705, 1.7427937915742793, 0.13968957871396895, 2.8348115299334813, 0.013303769401330377, 0.21175166297117518, 0.08980044345898004, 0.019955654101995565, 0.07095343680709534, 0.0, 0.008869179600886918, 0.0022172949002217295, 0.0022172949002217295, 0.0022172949002217295, 0.0033259423503325942, 0.0033259423503325942, 0.0, 0.0, 0.0011086474501108647, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[79.54794520547945, 26.615193026151932, 119.90037359900374, 47.342465753424655, 13.165628891656288, 22.998754669987548, 0.2129514321295143, 14.250311332503113, 3.25653798256538, 4.266500622665006, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[29.92239467849224, 25.120842572062084, 31.87139689578714, 27.211751662971174, 30.340354767184035, 28.62860310421286, 26.290465631929045, 32.25720620842572, 24.1119733924612, 30.137472283813747, 25.155210643015522, 29.12860310421286]</t>
+          <t>[61.74595267745953, 1.1718555417185554, 58.93648816936488, 1.0087173100871731, 65.3175591531756, 13.176836861768368, 1.5031133250311333, 53.34620174346202, 1.4333748443337484, 57.05230386052304, 0.8194271481942715, 21.919053549190537]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[9.335920177383592, 79.12749445676275, 146.44678492239467, 24.61419068736142, 40.33924611973392, 3.1651884700665187, 9.497782705099779, 2.3669623059866964, 8.431263858093127, 1.1186252771618626, 2.5121951219512195, 0.6263858093126385, 3.42350332594235, 0.5133037694013304, 1.6851441241685143, 0.42350332594235035, 3.1751662971175167, 0.22838137472283815, 0.7217294900221729, 0.14855875831485588, 0.45454545454545453, 0.06541019955654102, 0.17960088691796008, 0.03547671840354767, 0.28159645232815966, 0.02328159645232816, 0.06430155210643015, 0.012195121951219513, 0.10421286031042129, 0.013303769401330377, 0.03215077605321508, 0.008869179600886918]</t>
+          <t>[11.666251556662516, 71.21793275217932, 148.82814445828146, 24.763387297633873, 40.52926525529265, 3.1805728518057284, 9.570361145703611, 2.2577833125778333, 8.5093399750934, 1.1095890410958904, 2.4420921544209215, 0.6313823163138231, 3.4221668742216687, 0.5255292652552926, 1.7036114570361145, 0.42092154420921546, 3.24906600249066, 0.24283935242839352, 0.6973848069738481, 0.1581569115815691, 0.45828144458281445, 0.0759651307596513, 0.17683686176836863, 0.031133250311332503, 0.3026151930261519, 0.0224159402241594, 0.0647571606475716, 0.014943960149439602, 0.10211706102117062, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[7.342572062084257, 121.57427937915743, 50.505543237250556, 76.99223946784923, 13.736141906873614, 18.03880266075388, 0.005543237250554324, 21.264966740576497, 0.0033259423503325942, 4.835920177383592, 2.5266075388026605, 4.746119733924612, 1.7450110864745012, 1.9478935698447895, 0.0033259423503325942, 4.111973392461198, 0.0011086474501108647, 1.2594235033259424, 0.6175166297117517, 1.475609756097561, 0.6374722838137472, 0.7350332594235033, 0.0011086474501108647, 1.6075388026607538, 0.0, 0.5631929046563193, 0.27605321507760533, 0.5953436807095344, 0.2516629711751663, 0.32261640798226165, 0.0, 0.79490022172949, 0.0, 0.1917960088691796, 0.08980044345898004, 0.2793791574279379, 0.03991130820399113, 0.07982261640798226, 0.0, 0.2139689578713969, 0.0, 0.052106430155210645, 0.03991130820399113, 0.09977827050997783, 0.02771618625277162, 0.026607538802660754, 0.0, 0.12195121951219512, 0.0, 0.02771618625277162, 0.025498891352549888, 0.04656319290465632, 0.008869179600886918, 0.011086474501108648, 0.0, 0.04878048780487805, 0.0, 0.011086474501108648, 0.009977827050997782, 0.026607538802660754, 0.0066518847006651885, 0.008869179600886918, 0.0, 0.1629711751662971]</t>
+          <t>[4.204234122042341, 113.33001245330013, 59.40722291407223, 77.02366127023662, 13.826899128268991, 17.907845579078455, 0.0, 21.01120797011208, 0.0, 4.919053549190536, 2.4782067247820674, 4.731008717310087, 1.775840597758406, 1.86799501867995, 0.0, 4.171855541718555, 0.0, 1.273972602739726, 0.6376089663760897, 1.4408468244084682, 0.635118306351183, 0.7447073474470735, 0.0, 1.5865504358655043, 0.0, 0.5491905354919053, 0.28268991282689915, 0.6052303860523038, 0.24533001245330013, 0.3125778331257783, 0.0, 0.797011207970112, 0.0062266500622665, 0.2054794520547945, 0.0859277708592777, 0.273972602739726, 0.038605230386052306, 0.08841843088418432, 0.0012453300124533001, 0.21419676214196762, 0.0049813200498132005, 0.048567870485678705, 0.0448318804483188, 0.09713574097135741, 0.029887920298879204, 0.0273972602739726, 0.0012453300124533001, 0.12577833125778332, 0.0, 0.026151930261519303, 0.0186799501867995, 0.0448318804483188, 0.009962640099626401, 0.012453300124533, 0.0012453300124533001, 0.047322540473225407, 0.0, 0.012453300124533, 0.008717310087173101, 0.0224159402241594, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.15317559153175592]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[6.957871396895787, 0.9190687361419069, 5.366962305986696, 2.1263858093126387, 0.7472283813747228, 1.492239467849224, 0.017738359201773836, 1.8891352549889135, 0.6940133037694013, 2.7982261640798227, 5.096452328159645, 1.7028824833702882], [1.106430155210643, 6.039911308203991, 1.1851441241685143, 4.590909090909091, 1.8082039911308203, 0.5509977827050998, 1.211751662971175, 0.013303769401330377, 1.2605321507760532, 0.6940133037694013, 1.8747228381374723, 4.700665188470066], [6.208425720620842, 1.4090909090909092, 7.786031042128603, 1.065410199556541, 5.590909090909091, 2.1674057649667406, 0.7594235033259423, 1.8725055432372506, 0.018847006651884702, 1.7206208425720622, 0.5964523281596452, 2.5920177383592016], [2.3015521064301554, 5.11529933481153, 1.270509977827051, 6.678492239467849, 1.1696230598669624, 4.7926829268292686, 1.8436807095343681, 0.6352549889135255, 1.3004434589800444, 0.018847006651884702, 1.328159645232816, 0.6796008869179601], [0.8037694013303769, 1.893569844789357, 6.595343680709535, 1.3713968957871396, 7.334811529933481, 1.1696230598669624, 4.519955654101995, 2.426829268292683, 0.6341463414634146, 1.7339246119733924, 0.015521064301552107, 1.762749445676275], [1.5110864745011086, 0.6895787139689579, 2.3968957871396896, 5.421286031042128, 1.4246119733924612, 7.124168514412417, 0.7815964523281597, 5.1618625277161865, 1.8492239467849223, 0.6197339246119734, 1.541019955654102, 0.017738359201773836], [0.019955654101995565, 1.3680709534368072, 0.9534368070953437, 2.057649667405765, 5.378048780487805, 0.9490022172949002, 6.6529933481153, 1.1906873614190687, 3.7095343680709534, 1.8337028824833703, 0.39800443458980045, 1.7084257206208426], [1.7361419068736141, 0.01662971175166297, 1.5099778270509978, 0.7394678492239468, 2.7937915742793793, 5.998891352549889, 1.5022172949002217, 8.401330376940132, 0.9878048780487805, 5.725055432372505, 1.941241685144124, 0.8070953436807096], [0.5443458980044346, 1.1319290465631928, 0.012195121951219513, 1.310421286031042, 0.6263858093126385, 2.169623059866962, 4.593126385809312, 1.1984478935698448, 5.7682926829268295, 0.8403547671840355, 4.073170731707317, 1.770509977827051], [2.6574279379157426, 0.5343680709534369, 1.7771618625277161, 0.013303769401330377, 1.8237250554323725, 0.7405764966740577, 2.1186252771618626, 6.383592017738359, 1.1208425720620843, 6.929046563192904, 0.9212860310421286, 5.041019955654102], [4.5798226164079825, 1.646341463414634, 0.5809312638580931, 1.23059866962306, 0.011086474501108648, 1.375831485587583, 0.6363636363636364, 2.074279379157428, 4.676274944567628, 1.1629711751662972, 6.2560975609756095, 0.8514412416851441], [1.417960088691796, 4.2849223946784925, 2.350332594235033, 0.5365853658536586, 1.541019955654102, 0.017738359201773836, 1.5886917960088691, 0.9135254988913526, 2.0144124168514415, 5.954545454545454, 1.033259423503326, 7.3957871396895785]]</t>
+          <t>[[15.838107098381071, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.24159402241594, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.26774595267745954, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 13.892901618929017, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19427148194271482, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.815691158156912, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 15.647571606475717, 4.443337484433375, 0.3586550435865504, 11.643835616438356, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3138231631382316], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.019925280199253, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.29514321295143214, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.564134495641344, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.386052303860523, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.14321295143213, 0.0448318804483188, 5.469489414694894], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.136986301369863, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.0759651307596513, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.773349937733499, 0.026151930261519303, 3.829389788293898]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t xml:space="preserve">[[0.20842572062084258, 2.8802660753880267, 1.370288248337029, 1.9645232815964524, 0.18403547671840353, 0.18736141906873613, 0.0, 0.33370288248337027, 0.0, 0.022172949002217297, 0.025498891352549888, 0.037694013303769404, 0.014412416851441241, 0.012195121951219513, 0.0, 0.024390243902439025, 0.0, 0.005543237250554324, 0.0022172949002217295, 0.012195121951219513, 0.007760532150776054, 0.0033259423503325942, 0.0, 0.007760532150776054, 0.0, 0.0, 0.0, 0.007760532150776054, 0.0022172949002217295, 0.0, 0.0, 0.011086474501108648, 0.0, 0.0011086474501108647, 0.0, 0.0033259423503325942, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0], [3.57649667405765, 65.6130820399113, 15.741685144124169, 16.891352549889135, 3.720620842572062, 5.888026607538802, 0.0, 3.2993348115299335, 0.0, 1.6141906873614191, 0.7117516629711752, 0.8747228381374723, 0.4490022172949002, 0.6629711751662971, 0.0, 0.7427937915742794, 0.0, 0.31042128603104213, 0.15964523281596452, 0.19401330376940132, 0.06651884700665188, 0.15853658536585366, 0.0, 0.2682926829268293, 0.0, 0.09312638580931264, 0.04878048780487805, 0.07206208425720621, 0.0598669623059867, 0.06762749445676275, 0.0, 0.12084257206208426, 0.0, 0.04434589800443459, 0.014412416851441241, 0.026607538802660754, 0.0033259423503325942, 0.02771618625277162, 0.0, 0.009977827050997782, 0.0, 0.007760532150776054, 0.0011086474501108647, 0.005543237250554324, 0.0022172949002217295, 0.0011086474501108647, 0.0, 0.0033259423503325942, 0.0, 0.0011086474501108647, 0.0033259423503325942, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0011086474501108647], [0.21175166297117518, 15.113082039911308, 14.240576496674057, 9.45011086474501, 2.270509977827051, 2.443458980044346, 0.0, 2.62860310421286, 0.0, 0.6718403547671841, 0.5066518847006651, 0.5532150776053215, 0.20842572062084258, 0.28824833702882485, 0.0, 0.5110864745011087, 0.0, 0.1951219512195122, 0.1130820399113082, 0.21729490022172948, 0.12084257206208426, 0.08758314855875832, 0.0, 0.19623059866962306, 0.0, 0.06984478935698447, 0.04878048780487805, 0.06651884700665188, 0.043237250554323724, 0.043237250554323724, 0.0, 0.0598669623059867, 0.0, 0.022172949002217297, 0.0066518847006651885, 0.03215077605321508, 0.0033259423503325942, 0.009977827050997782, 0.0, 0.005543237250554324, 0.0, 0.015521064301552107, 0.0022172949002217295, 0.014412416851441241, 0.0033259423503325942, 0.0, 0.0, 0.007760532150776054, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0022172949002217295, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004434589800443459], [2.4623059866962307, 16.274944567627493, 8.358093126385809, 27.509977827051, 3.2028824833702885, 3.5609756097560976, 0.0022172949002217295, 6.216186252771618, 0.0, 1.2095343680709534, 0.655210643015521, 1.729490022172949, 0.5354767184035477, 0.5376940133037694, 0.0011086474501108647, 1.3924611973392462, 0.0, 0.4079822616407982, 0.15188470066518847, 0.5232815964523282, 0.17405764966740578, 0.229490022172949, 0.0, 0.4700665188470067, 0.0, 0.16518847006651885, 0.07206208425720621, 0.23725055432372505, 0.06984478935698447, 0.08536585365853659, 0.0, 0.2660753880266075, 0.0, 0.052106430155210645, 0.037694013303769404, 0.11529933481152993, 0.005543237250554324, 0.007760532150776054, 0.0, 0.082039911308204, 0.0, 0.008869179600886918, 0.014412416851441241, 0.025498891352549888, 0.004434589800443459, 0.0066518847006651885, 0.0, 0.014412416851441241, 0.0, 0.007760532150776054, 0.004434589800443459, 0.018847006651884702, 0.0, 0.0, 0.0, 0.008869179600886918, 0.0, 0.0011086474501108647, 0.0033259423503325942, 0.009977827050997782, 0.0011086474501108647, 0.0, 0.0, 0.04767184035476718], [0.21286031042128603, 3.3048780487804876, 1.9268292682926829, 3.343680709534368, 1.5598669623059866, 0.8968957871396895, 0.0, 0.9379157427937915, 0.0, 0.24057649667405764, 0.11419068736141907, 0.24833702882483372, 0.10199556541019955, 0.08758314855875832, 0.0022172949002217295, 0.21507760532150777, 0.0, 0.0565410199556541, 0.03325942350332594, 0.06651884700665188, 0.037694013303769404, 0.04767184035476718, 0.0, 0.07538802660753881, 0.0, 0.028824833702882482, 0.015521064301552107, 0.024390243902439025, 0.012195121951219513, 0.01662971175166297, 0.0, 0.043237250554323724, 0.0, 0.022172949002217297, 0.0011086474501108647, 0.011086474501108648, 0.0033259423503325942, 0.005543237250554324, 0.0, 0.0033259423503325942, 0.0, 0.0022172949002217295, 0.0011086474501108647, 0.0022172949002217295, 0.005543237250554324, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0066518847006651885], [0.27605321507760533, 5.088691796008869, 2.3325942350332594, 3.590909090909091, 0.9401330376940134, 2.4212860310421287, 0.0011086474501108647, 1.1407982261640799, 0.0, 0.3425720620842572, 0.12971175166297116, 0.3082039911308204, 0.15521064301552107, 0.1385809312638581, 0.0, 0.30155210643015523, 0.0, 0.11197339246119734, 0.041019955654102, 0.10421286031042129, 0.06208425720620843, 0.06873614190687362, 0.0, 0.12749445676274945, 0.0, 0.06097560975609756, 0.025498891352549888, 0.04767184035476718, 0.008869179600886918, 0.03436807095343681, 0.0, 0.045454545454545456, 0.0, 0.01662971175166297, 0.009977827050997782, 0.018847006651884702, 0.007760532150776054, 0.004434589800443459, 0.0, 0.008869179600886918, 0.0, 0.0011086474501108647, 0.0033259423503325942, 0.004434589800443459, 0.0033259423503325942, 0.0033259423503325942, 0.0, 0.007760532150776054, 0.0, 0.0, 0.0022172949002217295, 0.0011086474501108647, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0022172949002217295, 0.0, 0.0022172949002217295, 0.0011086474501108647, 0.0, 0.0, 0.0033259423503325942], [0.0, 0.0011086474501108647, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0022172949002217295, 3.860310421286031, 1.9844789356984478, 5.280487804878049, 0.7594235033259423, 0.9722838137472284, 0.0, 4.355875831485587, 0.0, 0.2915742793791574, 0.18181818181818182, 0.6319290465631929, 0.14966740576496673, 0.1197339246119734, 0.0, 0.6541019955654102, 0.0, 0.1164079822616408, 0.08314855875831485, 0.2804878048780488, 0.1286031042128603, 0.0942350332594235, 0.0011086474501108647, 0.35365853658536583, 0.0, 0.11086474501108648, 0.04656319290465632, 0.11086474501108648, 0.03991130820399113, 0.041019955654102, 0.0, 0.18514412416851442, 0.0, 0.007760532150776054, 0.013303769401330377, 0.05321507760532151, 0.011086474501108648, 0.005543237250554324, 0.0, 0.082039911308204, 0.0, 0.011086474501108648, 0.013303769401330377, 0.028824833702882482, 0.004434589800443459, 0.007760532150776054, 0.0, 0.06873614190687362, 0.0, 0.007760532150776054, 0.007760532150776054, 0.009977827050997782, 0.0011086474501108647, 0.004434589800443459, 0.0, 0.012195121951219513, 0.0, 0.0, 0.0022172949002217295, 0.008869179600886918, 0.0033259423503325942, 0.0022172949002217295, 0.0, 0.041019955654102], [0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04656319290465632, 2.0199556541019956, 0.6385809312638581, 1.1563192904656319, 0.1385809312638581, 0.22505543237250555, 0.0, 0.25055432372505543, 0.0, 0.09201773835920177, 0.02328159645232816, 0.03991130820399113, 0.01662971175166297, 0.013303769401330377, 0.0, 0.019955654101995565, 0.0, 0.0066518847006651885, 0.005543237250554324, 0.0011086474501108647, 0.013303769401330377, 0.0066518847006651885, 0.0, 0.007760532150776054, 0.0, 0.007760532150776054, 0.0066518847006651885, 0.0033259423503325942, 0.0, 0.0022172949002217295, 0.0, 0.013303769401330377, 0.0, 0.0033259423503325942, 0.0033259423503325942, 0.0033259423503325942, 0.0022172949002217295, 0.012195121951219513, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0022172949002217295, 0.0022172949002217295, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0011086474501108647, 0.005543237250554324, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.011086474501108648], [0.005543237250554324, 0.8980044345898004, 0.5543237250554324, 0.5709534368070953, 0.10643015521064302, 0.10532150776053215, 0.0, 0.12638580931263857, 0.0, 0.007760532150776054, 0.015521064301552107, 0.031042128603104215, 0.008869179600886918, 0.013303769401330377, 0.0, 0.019955654101995565, 0.0, 0.004434589800443459, 0.0022172949002217295, 0.007760532150776054, 0.0, 0.0, 0.0, 0.005543237250554324, 0.0, 0.0033259423503325942, 0.0033259423503325942, 0.0033259423503325942, 0.0, 0.004434589800443459, 0.0, 0.004434589800443459, 0.0, 0.0022172949002217295, 0.0011086474501108647, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0033259423503325942], [0.1352549889135255, 1.3026607538802661, 0.6485587583148559, 1.5886917960088691, 0.13082039911308205, 0.18292682926829268, 0.0, 0.3237250554323725, 0.0, 0.0598669623059867, 0.013303769401330377, 0.10753880266075388, 0.019955654101995565, 0.015521064301552107, 0.0, 0.041019955654102, 0.0, 0.0022172949002217295, 0.004434589800443459, 0.025498891352549888, 0.0066518847006651885, 0.008869179600886918, 0.0, 0.015521064301552107, 0.0, 0.005543237250554324, 0.0, 0.012195121951219513, 0.005543237250554324, 0.004434589800443459, 0.0, 0.011086474501108648, 0.0, 0.005543237250554324, 0.0, 0.007760532150776054, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.009977827050997782, 0.0, 0.0011086474501108647, 0.0, 0.005543237250554324, 0.0, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0066518847006651885], [0.008869179600886918, 0.5920177383592018, 0.2771618625277162, 0.4312638580931264, 0.0565410199556541, 0.1352549889135255, 0.0, 0.08536585365853659, 0.0011086474501108647, 0.03991130820399113, 0.014412416851441241, 0.015521064301552107, 0.014412416851441241, 0.0033259423503325942, 0.0, 0.004434589800443459, 0.0, 0.0066518847006651885, 0.0033259423503325942, 0.005543237250554324, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.007760532150776054, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295], [0.03547671840354767, 0.7394678492239468, 0.29711751662971175, 0.45787139689578715, 0.06762749445676275, 0.15299334811529933, 0.0, 0.07649667405764966, 0.0, 0.011086474501108648, 0.017738359201773836, 0.015521064301552107, 0.0033259423503325942, 0.009977827050997782, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0033259423503325942, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0033259423503325942, 0.0011086474501108647, 0.005543237250554324, 0.0, 0.0011086474501108647, 0.0, 0.005543237250554324, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0033259423503325942], [0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0011086474501108647, 0.9356984478935698, 0.565410199556541, 1.4124168514412416, 0.13636363636363635, 0.2039911308203991, 0.0, 0.49889135254988914, 0.0, 0.026607538802660754, 0.024390243902439025, 0.045454545454545456, 0.013303769401330377, 0.007760532150776054, 0.0, 0.06651884700665188, 0.0, 0.005543237250554324, 0.0011086474501108647, 0.009977827050997782, 0.0, 0.007760532150776054, 0.0, 0.018847006651884702, 0.0, 0.005543237250554324, 0.0011086474501108647, 0.0011086474501108647, 0.0011086474501108647, 0.007760532150776054, 0.0, 0.015521064301552107, 0.0, 0.0033259423503325942, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0033259423503325942, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.009977827050997782, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007760532150776054, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295], [0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0022172949002217295, 0.458980044345898, 0.14855875831485588, 0.3436807095343681, 0.0565410199556541, 0.06873614190687362, 0.0011086474501108647, 0.057649667405764965, 0.0011086474501108647, 0.02328159645232816, 0.005543237250554324, 0.0066518847006651885, 0.0011086474501108647, 0.004434589800443459, 0.0, 0.007760532150776054, 0.0, 0.013303769401330377, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647], [0.0011086474501108647, 0.19401330376940132, 0.1197339246119734, 0.18514412416851442, 0.01662971175166297, 0.025498891352549888, 0.0, 0.024390243902439025, 0.0, 0.0066518847006651885, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0022172949002217295, 0.0033259423503325942, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0011086474501108647], [0.058758314855875834, 0.33148558758314856, 0.25055432372505543, 0.4623059866962306, 0.04988913525498891, 0.06762749445676275, 0.0, 0.13414634146341464, 0.0, 0.014412416851441241, 0.013303769401330377, 0.018847006651884702, 0.0011086474501108647, 0.0022172949002217295, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0011086474501108647, 0.0066518847006651885, 0.0, 0.0033259423503325942, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647], [0.0, 0.22062084257206208, 0.09090909090909091, 0.1662971175166297, 0.02771618625277162, 0.03547671840354767, 0.0, 0.024390243902439025, 0.0, 0.008869179600886918, 0.0033259423503325942, 0.005543237250554324, 0.0066518847006651885, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.004434589800443459, 0.0011086474501108647, 0.004434589800443459, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647], [0.012195121951219513, 0.2328159645232816, 0.11086474501108648, 0.1729490022172949, 0.02771618625277162, 0.050997782705099776, 0.0, 0.045454545454545456, 0.0, 0.007760532150776054, 0.0011086474501108647, 0.004434589800443459, 0.0033259423503325942, 0.005543237250554324, 0.0, 0.0033259423503325942, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0022172949002217295, 0.0022172949002217295, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0011086474501108647, 0.34811529933481156, 0.2006651884700665, 0.5631929046563193, 0.06208425720620843, 0.07538802660753881, 0.0, 0.15964523281596452, 0.0, 0.024390243902439025, 0.019955654101995565, 0.011086474501108648, 0.008869179600886918, 0.0066518847006651885, 0.0, 0.019955654101995565, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.011086474501108648, 0.0, 0.0, 0.0, 0.0, 0.0033259423503325942, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0033259423503325942], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0011086474501108647, 0.17405764966740578, 0.07317073170731707, 0.12305986696230599, 0.025498891352549888, 0.052106430155210645, 0.0, 0.03325942350332594, 0.0, 0.009977827050997782, 0.004434589800443459, 0.0066518847006651885, 0.004434589800443459, 0.0011086474501108647, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0022172949002217295, 0.06873614190687362, 0.03436807095343681, 0.058758314855875834, 0.01662971175166297, 0.013303769401330377, 0.0, 0.017738359201773836, 0.0, 0.017738359201773836, 0.0033259423503325942, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.005543237250554324, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03547671840354767, 0.11751662971175167, 0.07095343680709534, 0.1951219512195122, 0.02993348115299335, 0.036585365853658534, 0.0, 0.02993348115299335, 0.0, 0.02328159645232816, 0.0011086474501108647, 0.0033259423503325942, 0.0, 0.0011086474501108647, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0022172949002217295, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052106430155210645, 0.025498891352549888, 0.07095343680709534, 0.01662971175166297, 0.014412416851441241, 0.0, 0.025498891352549888, 0.0, 0.0066518847006651885, 0.008869179600886918, 0.0033259423503325942, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.004434589800443459, 0.057649667405764965, 0.04212860310421286, 0.04988913525498891, 0.007760532150776054, 0.03325942350332594, 0.0, 0.037694013303769404, 0.0, 0.01662971175166297, 0.0011086474501108647, 0.008869179600886918, 0.0022172949002217295, 0.0011086474501108647, 0.0, 0.004434589800443459, 0.0, 0.0022172949002217295, 0.0, 0.004434589800443459, 0.0, 0.0022172949002217295, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13414634146341464, 0.08758314855875832, 0.22062084257206208, 0.03325942350332594, 0.057649667405764965, 0.0, 0.10310421286031042, 0.0, 0.004434589800443459, 0.008869179600886918, 0.019955654101995565, 0.007760532150776054, 0.005543237250554324, 0.0, 0.015521064301552107, 0.0, 0.0022172949002217295, 0.0011086474501108647, 0.0022172949002217295, 0.0022172949002217295, 0.0022172949002217295, 0.0, 0.009977827050997782, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0022172949002217295, 0.0598669623059867, 0.022172949002217297, 0.02771618625277162, 0.0066518847006651885, 0.005543237250554324, 0.0, 0.012195121951219513, 0.0, 0.0033259423503325942, 0.0033259423503325942, 0.0022172949002217295, 0.0011086474501108647, 0.0033259423503325942, 0.0, 0.0066518847006651885, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0066518847006651885, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01662971175166297, 0.022172949002217297, 0.02771618625277162, 0.0033259423503325942, 0.005543237250554324, 0.0, 0.004434589800443459, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024390243902439025, 0.03991130820399113, 0.031042128603104215, 0.09977827050997783, 0.0066518847006651885, 0.0066518847006651885, 0.0, 0.03547671840354767, 0.0, 0.0, 0.0033259423503325942, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.004434589800443459, 0.004434589800443459, 0.005543237250554324, 0.0011086474501108647, 0.004434589800443459, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.005543237250554324, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647], [0.0, 0.024390243902439025, 0.009977827050997782, 0.014412416851441241, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0066518847006651885, 0.0, 0.004434589800443459, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0011086474501108647, 0.011086474501108648, 0.019955654101995565, 0.09090909090909091, 0.005543237250554324, 0.02328159645232816, 0.0, 0.028824833702882482, 0.0, 0.0033259423503325942, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.005543237250554324, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0033259423503325942, 0.0066518847006651885, 0.008869179600886918, 0.008869179600886918, 0.0011086474501108647, 0.0, 0.009977827050997782, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.005543237250554324, 0.0033259423503325942, 0.013303769401330377, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0022172949002217295, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.008869179600886918, 0.008869179600886918, 0.0066518847006651885, 0.038802660753880266, 0.0, 0.007760532150776054, 0.0, 0.0066518847006651885, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.004434589800443459, 0.0022172949002217295, 0.0022172949002217295, 0.0011086474501108647, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0011086474501108647, 0.0011086474501108647, 0.005543237250554324, 0.0, 0.0011086474501108647, 0.0, 0.0066518847006651885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0011086474501108647], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.004434589800443459, 0.009977827050997782, 0.026607538802660754, 0.004434589800443459, 0.0022172949002217295, 0.0, 0.05543237250554324, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0033259423503325942, 0.004434589800443459, 0.0, 0.004434589800443459, 0.0, 0.0066518847006651885, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0022172949002217295, 0.0022172949002217295, 0.008869179600886918, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0022172949002217295, 0.007760532150776054, 0.007760532150776054, 0.0033259423503325942, 0.0011086474501108647, 0.0, 0.008869179600886918, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, </t>
+          <t>[[0.0460772104607721, 0.9302615193026152, 0.6824408468244084, 1.7770859277708593, 0.11830635118306351, 0.14819427148194272, 0.0, 0.3163138231631382, 0.0, 0.014943960149439602, 0.026151930261519303, 0.029887920298879204, 0.008717310087173101, 0.012453300124533, 0.0, 0.021170610211706103, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.6562889165628891, 60.18804483188045, 16.866749688667497, 16.59526774595268, 3.4632627646326277, 5.72851805728518, 0.0, 3.1818181818181817, 0.0, 1.5790784557907847, 0.6662515566625156, 0.8418430884184309, 0.46077210460772106, 0.6201743462017435, 0.0, 0.7434620174346201, 0.0, 0.30635118306351183, 0.16189290161892902, 0.1780821917808219, 0.0647571606475716, 0.16687422166874222, 0.0, 0.2590286425902864, 0.0, 0.09464508094645081, 0.0410958904109589, 0.07970112079701121, 0.06351183063511831, 0.06351183063511831, 0.0, 0.10211706102117062, 0.0, 0.039850560398505604, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21544209215442092, 16.1706102117061, 20.91780821917808, 9.947696139476962, 2.6039850560398508, 2.5006226650062264, 0.0, 2.663760896637609, 0.0, 0.7285180572851806, 0.5417185554171855, 0.5691158156911582, 0.22042341220423411, 0.286425902864259, 0.0, 0.5541718555417185, 0.0, 0.20298879202988793, 0.11706102117061021, 0.2403486924034869, 0.13449564134495642, 0.09713574097135741, 0.0, 0.20921544209215442, 0.0, 0.062266500622665005, 0.0547945205479452, 0.05977584059775841, 0.0361145703611457, 0.04234122042341221, 0.0, 0.06102117061021171, 0.0049813200498132005, 0.0323785803237858, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4819427148194273, 15.643835616438356, 8.905354919053549, 27.576587795765878, 3.232876712328767, 3.5305105853051058, 0.0, 6.2640099626401, 0.0, 1.2627646326276463, 0.6413449564134496, 1.7334993773349938, 0.5442092154420921, 0.5242839352428393, 0.0, 1.3872976338729763, 0.0, 0.41344956413449563, 0.1581569115815691, 0.4931506849315068, 0.15940224159402241, 0.21419676214196762, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.074719800747198, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11083437110834371, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.014943960149439602, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.037359900373599], [0.1917808219178082, 2.983810709838107, 2.247820672478207, 3.3262764632627646, 1.6413449564134495, 0.9190535491905355, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2590286425902864, 0.11083437110834371, 0.08841843088418432, 0.0, 0.22914072229140722, 0.0, 0.05977584059775841, 0.037359900373599, 0.06724782067247821, 0.033623910336239106, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.21793275217932753, 4.850560398505604, 2.4919053549190537, 3.5541718555417185, 0.9315068493150684, 2.4259028642590286, 0.0, 1.1668742216687422, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.06724782067247821, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.6463262764632627, 2.220423412204234, 5.180572851805729, 0.7708592777085927, 1.0049813200498132, 0.0, 4.199252801992528, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6127023661270237, 0.14570361145703611, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11207970112079702, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.009962640099626401, 0.014943960149439602, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0049813200498132005, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.04234122042341221], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 1.933997509339975, 0.763387297633873, 1.211706102117061, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.009962640099626401], [0.0037359900373599006, 0.7658779576587795, 0.6811955168119551, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.14196762141967623, 1.2104607721046077, 0.6948941469489415, 1.6376089663760898, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29389788293897884, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11955168119551682, 0.021170610211706103, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.5828144458281445, 0.3125778331257783, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0, 0.0448318804483188, 0.014943960149439602, 0.009962640099626401, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6425902864259029, 0.3424657534246575, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9115815691158157, 0.6264009962640099, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.4396014943960149, 0.18306351183063513, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0, 0.062266500622665005, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.1930261519302615, 0.1357409713574097, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.05105853051058531, 0.31880448318804483, 0.273972602739726, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10211706102117062, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22042341220423411, 0.0921544209215442, 0.1643835616438356, 0.028642590286425903, 0.034869240348692404, 0.0, 0.021170610211706103, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2266500622665006, 0.1295143212951432, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.33499377334993774, 0.2054794520547945, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.16189290161892902, 0.0660024906600249, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06351183063511831, 0.039850560398505604, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.11830635118306351, 0.0647571606475716, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0037359900373599006, 0.053549190535491904, 0.0410958904109589, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13325031133250312, 0.07970112079701121, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09339975093399751, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.007471980074719801, 0.0024906600249066002, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.026151930261519303, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.019925280199252802, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0,</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.004673947753431</v>
+        <v>3.590809757418174</v>
       </c>
       <c r="C3" t="n">
-        <v>2.997956746217249</v>
+        <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5934550156793083</v>
+        <v>0.5906991495010002</v>
       </c>
       <c r="E3" t="n">
-        <v>3.621414841474782</v>
+        <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.393015653104956</v>
+        <v>1.382981190106598</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02116879496908281</v>
+        <v>0.02093743096043811</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4372857906897059</v>
+        <v>0.4295189899033051</v>
       </c>
       <c r="I3" t="n">
-        <v>107.7272472216468</v>
+        <v>15.22384905978332</v>
       </c>
       <c r="J3" t="n">
-        <v>90.52809447596864</v>
+        <v>81.5531434743672</v>
       </c>
       <c r="K3" t="n">
-        <v>1.767261887103261</v>
+        <v>1.539005082169607</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8720222155181631</v>
+        <v>0.8673466694570817</v>
       </c>
       <c r="M3" t="n">
-        <v>1.776938515752184</v>
+        <v>1.743405014990587</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[56.233963866948955, 26.557415950258658, 38.99025002362304, 24.876128928218325, 9.222642966012955, 12.716197464894327, 0.8213035106107344, 10.028110609396215, 4.5891310554430875, 5.388716958684494, 2.937699025600965, 0.7267452524464653, 3.8730387237426322, 0.16257474749289128, 0.9936357528199901, 0.6772565664881015, 0.20963699547979395, 0.4410466537966432, 0.0, 0.10491812119131683, 0.04703592779511438, 0.04703592779511405, 0.06655579166210117, 0.09983368749315122, 0.07437859475706973, 0.0, 0.0, 0.033277895831050446, 0.09983368749315122, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[43.96518638746081, 25.800607565347597, 38.07611878564085, 24.63620289428403, 9.277308741289549, 12.653983014070555, 0.8917675963837053, 10.195149838372064, 4.666612977517225, 5.338710445776931, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[32.430183711344476, 31.732351942807977, 33.02221724127314, 34.33357551075867, 33.97622931745735, 33.56983953536337, 33.48444881797362, 33.605714462318524, 31.97944341613076, 32.994673920742954, 30.98888060556926, 32.97524910079267]</t>
+          <t>[26.811276561682035, 4.202277140987607, 24.36955414520669, 3.7431446643987547, 22.738045383573084, 16.48883123885517, 5.317180291040652, 25.73264582035267, 4.525173197895207, 27.38603245536218, 3.265125152597835, 20.031100926674434]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[36.472740119507165, 81.51768772830378, 86.06303409582178, 32.145624482147426, 39.26650359443076, 5.081419887068149, 10.08772472887494, 4.318723157151123, 10.425069900875446, 2.5406467513244095, 4.364664332795902, 1.6471072599112304, 5.261901485100459, 1.3717696804795398, 2.921474305708975, 1.0697523023336415, 5.463274251659171, 0.8977388674138465, 2.023463831661903, 0.7416147110091272, 1.5191447747346303, 0.4093432063210007, 0.7983524167216144, 0.33769918161411794, 1.271587211600446, 0.15797739907714875, 0.33007173509407184, 0.11943071569758043, 0.41078043607732984, 0.1406366375512162, 0.2159587181707252, 0.12426746136764565]</t>
+          <t>[21.682888198281276, 72.77347495650994, 85.86715596282875, 32.414751565248764, 39.18357444052118, 5.031014264403113, 10.13745963811475, 4.112617473526721, 10.600563905098909, 2.530106678819317, 4.387809627990111, 1.7008126274108673, 5.283717019416239, 1.3777391600385327, 2.9671215210227353, 1.0737027088168662, 5.612673215326598, 0.9334294661166349, 1.957030468379365, 0.7754917069724199, 1.5660439598479532, 0.4384481393377636, 0.7976375185476675, 0.33519509521814744, 1.330485781046696, 0.15621819955732857, 0.3359576332150764, 0.131191837510562, 0.416990344842046, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[14.57685288214473, 96.87097118884739, 57.50005757525134, 60.17434891989931, 16.542199003293458, 16.939622856284718, 0.09973514712367786, 26.203994062385025, 0.07437859475707, 5.4371755770132415, 3.925986737305042, 6.201964982503552, 2.8333914377982348, 3.0393850392160786, 0.07437859475707005, 5.924290510849546, 0.033277895831050404, 2.230432256094399, 1.3521122660860605, 2.5529782213973413, 1.6149431891620012, 1.7197409143940945, 0.033277895831050494, 2.971234734816718, 0.0, 1.3434154129147793, 0.9300732807630926, 1.539322151715355, 1.0706073589370888, 1.0050419596524491, 0.0, 2.056587636409056, 0.0, 0.8168264330947206, 0.5821877122022397, 1.1599356069787563, 0.3271918971923217, 0.5096113597010882, 0.0, 1.0767158693629093, 0.0, 0.3469074615784253, 0.29885812417690266, 0.4836804066306958, 0.26700917077285685, 0.23862461374432978, 0.0, 0.6529698195197294, 0.0, 0.21139148155530865, 0.20092227898840254, 0.30159286277336217, 0.11500046545356923, 0.12408930004109037, 0.0, 0.30851489367496787, 0.0, 0.11480792431041666, 0.11963636495138665, 0.20352061807855995, 0.08128737374644553, 0.13288979213988195, 0.0, 0.787262255845884]</t>
+          <t>[10.239139713482235, 91.78844013187569, 68.24105539540207, 60.484269750223184, 16.852629823817313, 17.00425485442499, 0.0, 25.59437640424412, 0.0, 5.5202264198940165, 3.913505786863658, 6.218709756636351, 2.8897662234853323, 2.965137297495919, 0.0, 6.031495164290983, 0.0, 2.251255641720904, 1.384644578668003, 2.500296426799668, 1.627935480132149, 1.7065783665944962, 0.0, 2.9648700186569394, 0.0, 1.3113200852338929, 0.9461394257385434, 1.5852126572138443, 1.0614201274036805, 1.0133252683535194, 0.0, 2.0853258364601444, 0.14536794364889696, 0.8594184734990764, 0.5433521981379187, 1.1660013667634472, 0.31917397641484585, 0.5383456641009708, 0.03526725344584421, 1.1042531592621454, 0.08629696706884245, 0.3293562403611494, 0.3124363991146585, 0.47401127641350865, 0.2807273285898941, 0.24802397213202168, 0.03526725344584419, 0.6661130429448666, 0.0, 0.21305700411948367, 0.17545458036868317, 0.3043602855858842, 0.11114875584899048, 0.13145164696706488, 0.03526725344584421, 0.30805246003646064, 0.0, 0.1216095204556271, 0.11671605991392227, 0.1853827553268103, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7860548292405346]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[11.660211454664895, 3.7725070354214383, 9.457662426693714, 5.839462814507502, 2.7063135657858424, 3.888046049126405, 0.2394473178354557, 4.153233656627079, 2.445763718828406, 6.561940687757556, 9.034953598503261, 4.766658559189279], [4.13059842562421, 11.30226529856087, 4.379209211291096, 9.29797712154157, 5.169394335346067, 2.2224300292761505, 2.9666579239378845, 0.2302999941924394, 3.258244692335176, 2.6619491033165525, 5.3391458663083755, 8.382431977334559], [10.255970948365036, 4.779627574408951, 11.73684591773263, 3.9818241146024858, 9.502948862816067, 5.731203900402855, 2.624884096316042, 4.062747606300056, 0.21752386235774515, 3.6498027848686383, 1.9724006576143813, 6.20705757810865], [5.962184772243455, 9.941180052215923, 4.45847999480661, 13.808909795649901, 4.421406262612484, 8.71692238220719, 5.605366349037617, 2.190738136435, 3.2768724987690625, 0.2799263462022353, 3.118300311840362, 2.4792720876521925], [2.804468082183547, 5.259115484749216, 10.199305465433769, 5.040917062757943, 13.734369746220475, 4.091937840472223, 8.035615068705141, 5.934291972115858, 2.3152986553109898, 3.755873730559164, 0.2659182832564216, 3.868290039355247], [3.892312785423765, 2.5599425835248364, 5.931978737199383, 9.839618056116176, 4.413290451575483, 13.652809832645085, 2.9266673760910384, 9.089257326552387, 5.441636970916044, 2.455494932101562, 3.6861312351803166, 0.22512914808600096], [0.24836672296338191, 3.291425473048559, 2.934624772680152, 6.139996661173272, 9.379181867947374, 3.2866818031168754, 15.171246688163883, 3.994897212744583, 7.826832719957829, 5.34311163487747, 1.4321755612067257, 3.9213888389575615], [3.670944490474667, 0.21770460041492767, 3.3814103447652957, 2.4088194715978593, 6.179111980704342, 10.169680105558486, 4.540223722157287, 13.329140442141377, 3.6841582499545344, 9.946186343500292, 5.4249450332173055, 2.4671757756557704], [2.068592654423098, 2.8419763827189586, 0.17889118215778574, 3.1876080112843983, 2.209908150346818, 5.9013553698787495, 9.274196935942344, 4.164504989050399, 12.683096856271154, 3.4120256688081376, 8.050503746182809, 5.143990483965216], [6.486652271090916, 1.9789453253351126, 3.7310065241614088, 0.18788221875223884, 3.9945878413130975, 2.593975388299153, 5.754041007029766, 10.505477251694842, 4.1370410711570615, 12.044883677977756, 3.645823675820126, 8.997996960006406], [8.792366723875682, 4.863569141785515, 2.282584216853146, 2.8611697088414734, 0.14082877612594635, 3.3702745725594965, 2.3928772892538883, 5.2502796126148175, 8.984926542324605, 4.464325609261824, 11.448130467509687, 3.2316500776498707], [4.426466090143165, 8.14746127426867, 5.95337528406982, 2.04719609309896, 3.6055485483367486, 0.24403342582280704, 3.706290669668263, 2.5965299607231502, 5.711932955799859, 9.973975913601121, 3.648801130039773, 12.295407899803115]]</t>
+          <t>[[15.38889614094686, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374531838009012, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5102120706540463, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.351684682449697, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0932224401431487, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.709959651100379, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.293003373418633, 6.766720617459143, 1.5957241072502508, 9.437619601564657, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.622091358442047], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.232090773697233, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5491334734999171, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.651512150992408, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8057345299852554, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.575731134902835, 0.4151340798331694, 6.932336423044284], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.7992302545651963, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5309430588918022, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.256443839536551, 0.4091889883963065, 7.086691998962943]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[4.825424164176308, 7.277601997793952, 4.0317921338386284, 6.372131739866357, 0.9426163704292714, 0.8691152573586437, 0.0, 1.8147448045146095, 0.0, 0.21974723692784545, 0.32008439418393725, 0.3136198843680587, 0.15903198921302067, 0.15209495538288967, 0.0, 0.25240179894131204, 0.0, 0.09973514712367705, 0.04703592779511432, 0.17889118215778582, 0.128722515095067, 0.0743785947570697, 0.0, 0.12872251509506702, 0.0, 0.0, 0.0, 0.11980063018272492, 0.047035927795114736, 0.0, 0.0, 0.14849255565634625, 0.0, 0.03327789583105055, 0.0, 0.07437859475707014, 0.0, 0.03327789583105045, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105051, 0.06655579166210102, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105051, 0.0, 0.0], [8.618691447787336, 74.10615898854412, 20.34227116802276, 17.48953924125145, 5.577273775162338, 7.7889063960416545, 0.0, 4.662106001957562, 0.0, 3.0227772356576263, 1.8607437872137755, 1.8233651307129155, 1.2900583968956056, 1.8405217245882681, 0.0, 1.7518846866334357, 0.0, 1.0461003711871626, 0.6864309559517292, 0.8094834737533408, 0.42118098818807886, 0.8034910443916725, 0.0, 0.980448091329301, 0.0, 0.5138625779265984, 0.3457913872867804, 0.4851634288428598, 0.4525943740758382, 0.40898273406182906, 0.0, 0.6887021114214209, 0.0, 0.3558602893595204, 0.1787262104273362, 0.26082212480106015, 0.07437859475707047, 0.31641544048874803, 0.0, 0.10997983869127957, 0.0, 0.11015850440141375, 0.03327789583105051, 0.09973514712367923, 0.047035927795114986, 0.0332778958310504, 0.0, 0.05757499854810959, 0.0, 0.03327789583105056, 0.0575749985481099, 0.03327789583105026, 0.03327789583105042, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050494, 0.0, 0.06655579166210099, 0.0, 0.03327789583105051], [2.377498786403206, 20.19100768080235, 28.965244003802304, 15.21491474863093, 4.6671940374685015, 4.818043554136781, 0.0, 5.612049718223564, 0.0, 1.804424454189496, 1.5791954253525116, 1.5776099960508647, 0.9327830497361249, 1.0450259294953654, 0.0, 1.7414310752543274, 0.0, 0.7322614309860355, 0.619764664521291, 0.9078435008991276, 0.8113852814752731, 0.53282592980043, 0.0, 0.8773240810992179, 0.0, 0.48319862083155674, 0.5220776107409855, 0.45896933265133677, 0.3216396243080695, 0.40137478163282486, 0.0, 0.4115397296028043, 0.0, 0.31859680748988417, 0.10508200098512258, 0.3124675193664802, 0.07437859475707073, 0.16618251779327373, 0.0, 0.08791930772907786, 0.0, 0.23960126036544985, 0.04703592779511484, 0.1787262104273361, 0.07437859475706987, 0.0, 0.0, 0.12872251509506702, 0.0, 0.0, 0.0, 0.06655579166210099, 0.06655579166210103, 0.0, 0.0, 0.0743785947570702, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08143843757076454], [7.647747839108151, 16.942442465720365, 14.236805301354286, 42.20136253986639, 5.634258579446795, 4.998242079160283, 0.06655579166210104, 10.236171445147214, 0.0, 2.603808826321446, 1.829110051611601, 3.792277654186426, 1.5540394203391177, 1.5061656002787505, 0.03327789583105051, 3.4317980806971273, 0.0, 1.3141994974035691, 0.61772757506389, 1.5123332901746243, 0.7487409602134475, 0.9260312555546298, 0.0, 1.5462893844039136, 0.0, 0.7159777074470058, 0.42420653010181564, 1.0451176645660407, 0.6072362769853629, 0.5141315943475082, 0.0, 1.2134418562258618, 0.0, 0.4322772650804568, 0.39777430054872004, 0.834410229720946, 0.08791930772907727, 0.09958715374853608, 0.0, 0.7140722405360846, 0.0, 0.13288979213988195, 0.1724116103790401, 0.2630486568997757, 0.09407185559022868, 0.10508200098512321, 0.0, 0.15903198921302378, 0.0, 0.12872251509506702, 0.0814384375707648, 0.17198334655790953, 0.0, 0.0, 0.0, 0.11500046545356922, 0.0, 0.03327789583105054, 0.07437859475706986, 0.14479207339991387, 0.03327789583105053, 0.0, 0.0, 0.2920796880920534], [1.2166303381060068, 4.831203838420113, 4.347842793054067, 5.736978795367561, 5.744781415145383, 2.3344074650939883, 0.0, 2.5258142375767467, 0.0, 0.9689153765410604, 0.6114560057834186, 0.8608074546579687, 0.5537780018819496, 0.46386132578694167, 0.06655579166210096, 0.9180832634778132, 0.0, 0.3768765434819473, 0.31763088036024834, 0.4050798136290674, 0.27196909377463074, 0.33783927820611964, 0.0, 0.4275356265424778, 0.0, 0.26480665733530123, 0.17550277822886834, 0.26525186674079354, 0.1592173682521629, 0.2372013335601442, 0.0, 0.26493890696103584, 0.0, 0.19854387055896416, 0.033277895831050265, 0.14849255565634956, 0.05757499854810949, 0.09973514712367923, 0.0, 0.05757499854810868, 0.0, 0.04703592779511407, 0.03327789583105038, 0.04703592779511484, 0.13717244319712638, 0.0332778958310503, 0.0, 0.04703592779511444, 0.0, 0.05757499854810955, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050584, 0.0, 0.0, 0.0, 0.0, 0.0939411093761195], [1.9255150920399806, 7.22975073068555, 4.818228245439936, 5.502674763285011, 2.391959736115287, 5.57034348184826, 0.033277895831050244, 2.7604103749665527, 0.0, 1.0968333945323656, 0.7077522311390504, 1.1697969627236078, 0.7447305722558826, 0.6804828919879421, 0.0, 1.1505218265852224, 0.0, 0.675588506990491, 0.29684643622101514, 0.5073779288387978, 0.4002816103989316, 0.4019607696186088, 0.0, 0.6033334392214671, 0.0, 0.3389797223680737, 0.20092227898840231, 0.3600783834117038, 0.12426746136764563, 0.24902156604450545, 0.0, 0.31786490394164246, 0.0, 0.17853355074123017, 0.15937168606716073, 0.23703546210623944, 0.128722515095067, 0.08143843757076359, 0.0, 0.12426746136764563, 0.0, 0.033277895831050404, 0.07437859475707065, 0.08143843757076466, 0.07437859475707098, 0.057574998548109546, 0.0, 0.12872251509506702, 0.0, 0.0, 0.04703592779511487, 0.03327789583105033, 0.03327789583105044, 0.03327789583105058, 0.0, 0.04703592779511449, 0.0, 0.047035927795114674, 0.0, 0.06655579166210109, 0.03327789583105049, 0.0, 0.0, 0.057574998548108804], [0.0, 0.033277895831050244, 0.0, 0.0, 0.06655579166210104, 0.0, 0.033277895831050244, 0.0, 0.0, 0.0, 0.0, 0.033277895831050286, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.047035927795114195, 4.634585005601744, 4.0242864023056715, 9.409272481505946, 2.0013285222332517, 2.306913136856659, 0.0, 13.177147281778725, 0.0, 1.0718717514599998, 0.9335943809014648, 2.5137758905243257, 0.7554641311544147, 0.6185140050449143, 0.0, 2.8205925968022805, 0.0, 0.5963461935425535, 0.4991832110077632, 1.191263739234289, 0.6848713928434842, 0.5776606448347092, 0.033277895831050494, 1.5975948270816334, 0.0, 0.5600458540568076, 0.3617589847948858, 0.616579439855783, 0.3437164704948244, 0.2854223572119921, 0.0, 0.9008993604839931, 0.0, 0.1449278292559538, 0.16925673818964787, 0.44102993281091235, 0.21550007653778377, 0.11029231374852705, 0.0, 0.6210721780049449, 0.0, 0.12408930004109268, 0.187882218752239, 0.2383669363979942, 0.06644489606994097, 0.14492782925595307, 0.0, 0.4890580556745207, 0.0, 0.11015850440141375, 0.11015850440141375, 0.12856964929174639, 0.03327789583105053, 0.08143843757076463, 0.0, 0.12837831106638709, 0.0, 0.0, 0.06655579166210052, 0.1049181211913168, 0.05757499854810864, 0.047035927795115, 0.0, 0.3219299162840754], [0.0, 0.0332778958310505, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0332778958310505, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105035, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4825610101220703, 3.270109336954751, 1.895313798352713, 2.479843125904489, 0.640188947641982, 0.925922412516525, 0.0, 1.2103465277000087, 0.0, 0.6536292402584392, 0.24128050506103182, 0.3975579458310572, 0.22766177290504186, 0.16925673818964782, 0.0, 0.1931211670768647, 0.0, 0.14875718951414185, 0.08791930772907698, 0.033277895831050265, 0.1993346882098226, 0.08128737374644553, 0.0, 0.08775138911443416, 0.0, 0.09958715374853608, 0.09394110937611946, 0.09983368749315352, 0.0, 0.047035927795114285, 0.0, 0.30487603305118344, 0.0, 0.057574998548109844, 0.07437859475707047, 0.07437859475707018, 0.04703592779511438, 0.272269458731645, 0.0, 0.03327789583105022, 0.0, 0.0, 0.03327789583105035, 0.047035927795114035, 0.06655579166210045, 0.06655579166210102, 0.0, 0.0, 0.0, 0.06644489606994097, 0.0332778958310506, 0.08791930772907795, 0.0, 0.07437859475706995, 0.0, 0.0, 0.0, 0.033277895831050425, 0.0, 0.0, 0.0, 0.03327789583105051, 0.0, 0.11480792431041535], [0.11992368144876527, 1.9353796696287384, 1.657087893096195, 1.896127159248642, 0.6191535466274137, 0.6130459526754425, 0.0, 0.7091358359695737, 0.0, 0.11015850440141375, 0.29365557660564484, 0.4603223834152262, 0.10491812119131683, 0.1625747474928908, 0.0, 0.22494344750283496, 0.0, 0.1051989016787274, 0.047035927795114944, 0.1449278292559514, 0.0, 0.0, 0.0, 0.11029231374852598, 0.0, 0.05757499854810978, 0.09983368749315105, 0.07437859475707076, 0.0, 0.10519890167872692, 0.0, 0.10519890167872727, 0.0, 0.0470359277951142, 0.033277895831050355, 0.04703592779511427, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105051, 0.033277895831050355, 0.0, 0.0, 0.0, 0.0470359277951149, 0.0, 0.0, 0.03327789583105053, 0.0, 0.033277895831050494, 0.0, 0.0, 0.05757499854810973], [0.8485666089046027, 2.3102906811164594, 1.8555343975926324, 3.9663781890118877, 0.6234187917575682, 0.7495875238045118, 0.0, 1.351468070869011, 0.0, 0.4426877995203932, 0.17568476975202124, 0.9420979184576497, 0.2933875814992999, 0.1817099889006465, 0.0, 0.35469961939772204, 0.0, 0.047035927795114466, 0.08143843757076426, 0.23641240765967755, 0.199667374986303, 0.12426746136764565, 0.0, 0.1554005806468758, 0.0, 0.08791930772907713, 0.0, 0.1908838517377874, 0.1371724431971264, 0.0814384375707637, 0.0, 0.14082877612594755, 0.0, 0.0879193077290775, 0.0, 0.11980063018272494, 0.0, 0.0, 0.0, 0.03327789583105051, 0.0, 0.0, 0.0, 0.152256492208603, 0.0, 0.03327789583105058, 0.0, 0.11992368144876643, 0.0, 0.0, 0.03327789583105051, 0.03327789583105058, 0.033277895831050536, 0.0, 0.0, 0.08143843757076259, 0.0, 0.07437859475707052, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08128737374644553], [0.11500046545356925, 1.4289773248051614, 1.019058701337512, 1.2900946007706813, 0.402481779871951, 1.0463212355129372, 0.0, 0.6161417297325656, 0.03327789583105035, 0.37753311906620585, 0.17241161037903957, 0.19917430749707216, 0.22289328723739224, 0.07437859475707097, 0.0, 0.08143843757076363, 0.0, 0.1487571895141417, 0.05757499854811003, 0.1199236814487646, 0.033277895831050244, 0.0, 0.0, 0.03327789583105041, 0.0, 0.23294527081735455, 0.0, 0.0, 0.07437859475707079, 0.0, 0.0, 0.057574998548109435, 0.0, 0.0332778958310504, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1051989016787279, 0.0, 0.033277895831050265, 0.03327789583105053, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050494, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105051, 0.0, 0.047035927795114646], [0.3808974479646053, 1.8674997646365328, 1.0372082741321502, 1.41182019651051, 0.41703568367869037, 0.8336645507062904, 0.0, 0.49130096705872806, 0.0, 0.14082877612594488, 0.187515516734953, 0.21522613565179172, 0.057574998548109754, 0.268258321817881, 0.0, 0.03327789583105052, 0.0, 0.03327789583105041, 0.0, 0.0, 0.033277895831050536, 0.05757499854811011, 0.0, 0.03327789583105042, 0.0, 0.03327789583105049, 0.0, 0.07437859475706995, 0.033277895831050446, 0.13717244319712676, 0.0, 0.03327789583105035, 0.0, 0.13717244319712682, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050446, 0.0, 0.033277895831050494, 0.03327789583105037, 0.0, 0.0, 0.033277895831050355, 0.0, 0.0, 0.0, 0.03327789583105035, 0.03327789583105038, 0.0, 0.033277895831050355, 0.0, 0.0, 0.06655579166210115, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.057574998548109144], [0.0, 0.06655579166210096, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105051, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03327789583105053, 1.869426827384967, 1.6660297077024135, 3.4523331439268747, 0.815745325083816, 0.8685600081319793, 0.0, 2.688049204720433, 0.0, 0.2386246137443299, 0.22939091875595632, 0.32476558770638303, 0.14831034597064952, 0.15238559837814275, 0.0, 0.6011895720398728, 0.0, 0.09973514712367766, 0.033277895831050446, 0.13692132638572024, 0.0, 0.1449278292559538, 0.0, 0.24621210387867262, 0.0, 0.08791930772907702, 0.033277895831050404, 0.033277895831050563, 0.03327789583105029, 0.15238559837814275, 0.0, 0.2898556585119009, 0.0, 0.05757499854810956, 0.033277895831050314, 0.0, 0.03327789583105034, 0.0998336874931506, 0.0, 0.07437859475707002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210052, 0.0, 0.21296710643169225, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11980063018272492, 0.0, 0.033277895831050536, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04703592779511459], [0.0, 0.0, 0.033277895831050404, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06655579166210099, 1.3936752372800345, 0.6542485460992303, 1.0837741908364618, 0.3709465449717168, 0.4439022175163513, 0.033277895831050286, 0.35394861217536283, 0.0332778958310505, 0.3060931239444183, 0.08791930772907708, 0.1696484191874814, 0.03327789583105046, 0.08143843757076462, 0.0, 0.14492782925595382, 0.0, 0.2048209286765611, 0.06655579166210053, 0.0, 0.0, 0.0, 0.0, 0.06655579166210099, 0.0, 0.0332778958310502, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04703592779511504, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105044, 0.0, 0.0, 0.03327789583105021, 0.0, 0.0, 0.0, 0.0, 0.0332778958310504, 0.0, 0.0, 0.0, 0.0, 0.03327789583105026], [0.033277895831050584, 0.6928904654866088, 0.632691025413251, 0.7401091572153943, 0.1905487300947311, 0.21167038525579543, 0.0, 0.24797050874769025, 0.0, 0.10508200098512357, 0.08143843757076337, 0.0, 0.0, 0.0, 0.0, 0.033277895831050446, 0.0, 0.0, 0.06655579166210047, 0.09983368749315272, 0.07437859475707076, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050563, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050244, 0.0, 0.0, 0.0, 0.03327789583105049], [0.5408847655600044, 1.0602084310163054, 0.9806185674181074, 1.4567749833273682, 0.33421813467394307, 0.43269218950968347, 0.0, 0.8309214642147787, 0.0, 0.17872621042733358, 0.18188576971011922, 0.2370354621062383, 0.033277895831050584, 0.04703592779511445, 0.0, 0.07437859475707077, 0.0, 0.0, 0.03327789583105029, 0.1050820009851241, 0.0, 0.07437859475707083, 0.0, 0.057574998548109914, 0.0, 0.0, 0.0, 0.03327789583105057, 0.0, 0.03327789583105021, 0.0, 0.0, 0.0, 0.03327789583105027, 0.0, 0.047035927795114243, 0.0, 0.0332778958310504, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04703592779511457, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0332778958310504], [0.0, 0.9598921620003971, 0.5142594772265797, 0.7318047371819729, 0.25424793524460304, 0.26816437898914197, 0.0, 0.23417405600946364, 0.0, 0.1628768751415266, 0.05757499854810973, 0.09973514712367683, 0.14110778338534213, 0.033277895831050563, 0.0, 0.033277895831050563, 0.0, 0.0, 0.09407185559022847, 0.03327789583105021, 0.09407185559022847, 0.06655579166210053, 0.0, 0.0332778958310503, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105056, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050536], [0.24209418385510806, 0.8791175828328159, 0.6255051399900562, 0.8612242843238945, 0.25857166796918485, 0.3323872230854739, 0.0, 0.3446396035855463, 0.0, 0.11015850440141374, 0.03327789583105054, 0.08143843757076304, 0.07437859475707072, 0.1371724431971268, 0.0, 0.0743785947570707, 0.0, 0.03327789583105038, 0.0332778958310502, 0.06655579166210053, 0.06655579166210053, 0.0470359277951149, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050515, 0.0, 0.03327789583105019, 0.0, 0.03327789583105031, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105049, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.033277895831050494, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.033277895831050355, 1.0761946365769546, 0.8775846216561166, 1.8787816275526819, 0.4002816103989315, 0.5189038572526866, 0.0, 1.0060851916924858, 0.0, 0.2037982313627691, 0.29714233605837803, 0.148492555656348, 0.18814371118045692, 0.0939411093761195, 0.0, 0.29714233605837415, 0.0, 0.0, 0.03327789583105029, 0.0, 0.0, 0.03327789583105031, 0.0, 0.1627409871108005, 0.0, 0.0, 0.0, 0.0, 0.0998336874931506, 0.03327789583105037, 0.0, 0.03327789583105022, 0.0, 0.0, 0.0, 0.0, 0.03327789583105022, 0.0, 0.0, 0.0332778958310502, 0.0, 0.0332778958310504, 0.0, 0.03327789583105051, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0332778958310503, 0.0, 0.0, 0.0, 0.0, 0.057574998548109914], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0332778958310502, 0.707634130886415, 0.5276928948259557, 0.5818202520784088, 0.25008540780323607, 0.3775152128073846, 0.0, 0.2642862984630903, 0.0, 0.13692132638571997, 0.09407185559022938, 0.19966737498630144, 0.06644489606994097, 0.033277895831050355, 0.0, 0.09983368749315068, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105053, 0.0, 0.047035927795114334, 0.0, 0.0332778958310503, 0.0, 0.03327789583105034, 0.0, 0.033277895831050286, 0.0, 0.03327789583105057, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0332778958310506, 0.0, 0.03327789583105027, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06655579166210092, 0.37632008478207635, 0.319253893569442, 0.4636280924481828, 0.19054873009473153, 0.1406366375512154, 0.0, 0.19333743537297213, 0.0, 0.2615750227366948, 0.07437859475707098, 0.0470359277951141, 0.0, 0.0, 0.0, 0.13717244319712682, 0.0, 0.0, 0.0, 0.03327789583105029, 0.0, 0.033277895831050314, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.375031033469906, 0.6026026674176713, 0.43599032216870653, 0.9739731283515961, 0.27089364308431757, 0.34247158738677397, 0.0, 0.2262971870379212, 0.0, 0.31677260807512686, 0.033277895831050466, 0.07437859475706984, 0.0, 0.033277895831050355, 0.0, 0.08143843757076452, 0.0, 0.0, 0.0, 0.03327789583105023, 0.06655579166210099, 0.0, 0.0, 0.0940718555902281, 0.0, 0.0, 0.033277895831050196, 0.0, 0.0, 0.047035927795114056, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105034, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050563, 0.0, 0.0, 0.033277895831050446, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3775152128073871, 0.22683967178384334, 0.5506083916324569, 0.17853355074123067, 0.1848251963178666, 0.0, 0.3336513135010649, 0.0, 0.14875718951414058, 0.21039780335745412, 0.05757499854810955, 0.09407185559022818, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.047035927795114056, 0.03327789583105019, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.08143843757076459, 0.37523417270074894, 0.29481685299411936, 0.29548522406795735, 0.11015850440141374, 0.2725469452328626, 0.0, 0.368851521855074, 0.0, 0.20726963897633552, 0.033277895831050425, 0.11500046545356923, 0.0665557916621004, 0.03327789583105029, 0.0, 0.08143843757076369, 0.0, 0.04703592779511504, 0.0, 0.13311158332420103, 0.0, 0.0665557916621012, 0.0, 0.06655579166210052, 0.0, 0.0, 0.03327789583105029, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050446, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050286, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105053], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.618244683407801, 0.5451671678201248, 1.1277080991572273, 0.3105717088821532, 0.4994478295811079, 0.0, 0.604318630258953, 0.0, 0.06644489606994097, 0.13288979213988195, 0.21486033783370836, 0.08775138911443414, 0.08791930772907688, 0.0, 0.1755027782288683, 0.0, 0.04703592779511422, 0.03327789583105035, 0.04703592779511486, 0.06655579166210099, 0.06655579166210052, 0.0, 0.1593716860671619, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210097, 0.0, 0.047035927795114875, 0.0, 0.0, 0.0, 0.03327789583105022, 0.0, 0.03327789583105019, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050494], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06655579166210093, 0.4376504290455642, 0.32887050710486576, 0.24537200894906802, 0.10508200098512274, 0.09973514712367912, 0.0, 0.12837831106638695, 0.0, 0.07437859475707048, 0.05757499854810974, 0.06655579166210111, 0.033277895831050314, 0.09983368749315151, 0.0, 0.12440585489228798, 0.0, 0.06655579166210078, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19966737498630235, 0.0, 0.03327789583105055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105034, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105049, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105047, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.21770460041492787, 0.2654464110505919, 0.2983827348868898, 0.09983368749315315, 0.09973514712367854, 0.0, 0.08143843757076417, 0.0, 0.033277895831050244, 0.0, 0.0, 0.0, 0.0, 0.0, 0.066555791662101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4435587470923261, 0.3532603810082368, 0.2687138216748547, 0.6896606990996393, 0.11514999709621868, 0.09394110937611952, 0.0, 0.3067329182869837, 0.0, 0.0, 0.07437859475707012, 0.03327789583105058, 0.0, 0.0, 0.0, 0.0665557916621012, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105045, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105057, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0332778958310505, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06644489606994097, 0.10519890167872699, 0.08791930772907713, 0.0332778958310505, 0.09407185559022857, 0.0, 0.0743785947570705, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0470359277951149, 0.0, 0.16638947915525348, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210052, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105026], [0.0, 0.3149339399181327, 0.14479207339991462, 0.22781288900260327, 0.0332778958310503, 0.03327789583105019, 0.0, 0.08128737374644553, 0.0, 0.10519890167872692, 0.0, 0.03327789583105054, 0.0332778958310503, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105051, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0332778958310503, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03327789583105053, 0.15577976115521497, 0.21486033783370914, 0.6972749098738006, 0.08791930772907704, 0.3715358643933113, 0.0, 0.28497199909852416, 0.0, 0.07437859475706989, 0.0, 0.047035927795114896, 0.0, 0.0, 0.0, 0.1371724431971286, 0.0, 0.0, 0.0, 0.03327789583105053, 0.0, 0.0, 0.0, 0.03327789583105051, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105029, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07437859475707077, 0.12440585489228566, 0.1049181211913168, 0.20506082209291113, 0.03327789583105051, 0.0, 0.14479207339991473, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105057, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09973514712367797, 0.07437859475707108, 0.16925673818964787, 0.0, 0.03327789583105051, 0.0, 0.0, 0.0, 0.0998336874931506, 0.0, 0.0, 0.0665557916621006, 0.0332778958310503, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105035, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105057, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13288979213988195, 0.13288979213988195, 0.12440585489228616, 0.32220468848070444, 0.0, 0.09958715374853609, 0.0, 0.09394110937611953, 0.0, 0.03327789583105035, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210103, 0.0, 0.0, 0.0, 0.0, 0.13311158332420103, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0814384375707648, 0.04703592779511414, 0.0470359277951149, 0.03327789583105053, 0.0, 0.0, 0.074378594757071, 0.0, 0.0, 0.0, 0.0, 0.1331115833242012, 0.0332778958310503, 0.0, 0.0, 0.0, 0.0, 0.03327789583105025, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0332778958310505, 0.03327789583105031, 0.11029231374852613, 0.0, 0.03327789583105025, 0.0, 0.14875718951414132, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105057, 0.0, 0.06655579166210052, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0332778958310504, 0.0, 0.0, 0.0, 0.033277895831050494], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08143843757076412, 0.14479207339991426, 0.21413834729800804, 0.08143843757076459, 0.06655579166210106, 0.0, 0.5106714650387297, 0.0, 0.03327789583105021, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09407185559023, 0.0, 0.0, 0.0, 0.03327789583105051, 0.0665557916621006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105053], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07437859475707065, 0.08143843757076459, 0.0, 0.08143843757076477, 0.0, 0.08128737374644551, 0.0, 0.033277895831050494, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105049, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04703592779511411, 0.06655579166210097, 0.14098578564949052, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210052, 0.0, 0.0, 0.03327789583105053, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06655579166210074, 0.11980063018272492, 0.09958715374853609, 0.057574998548108776, 0.03327789583105058, 0.0, 0.16287687514152926, 0.0, 0.0, 0.0, 0.06655579166210115, 0.0, 0.0, 0.0, 0.03327789583105049, 0.0, 0.03327789583105051, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105049, 0.0, 0.0, 0.0, 0.03327789583105057, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050355, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210106, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03327789583105053, 0.0, 0.04703592779511468, 0.04703592779511472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03327789583105058, 0.0, 0.03327789583105052, 0.0, 0.0, 0.0, 0.07437859475706995, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210102, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03327789583105024, 0.04703592779511488, 0.19585442541337153, 0.0, 0.0, 0.0, 0.17889118215778593, 0.0, 0.03327789583105053, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210039, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105023, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.047035927795114674, 0.0, 0.03327789583105035, 0</t>
+          <t>[[0.5981448522516661, 3.45295632807422, 2.5270694923376387, 6.300793440821469, 0.6876973477766123, 0.7447323369277237, 0.0, 1.8497942697753542, 0.0, 0.1793188734596477, 0.30855548528992865, 0.2717103475530585, 0.10550819217920393, 0.15732614393378672, 0.0, 0.24611577737616433, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.08629696706884259, 0.07053450689168851, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.03526725344584417, 0.0, 0.0, 0.15732614393378422, 0.0, 0.04984432402537798, 0.0, 0.07053450689168823, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0788206346124355], [2.738302585049167, 70.71128224090144, 22.655213696129486, 17.54046955616787, 5.3896337763833975, 7.711873795015497, 0.0, 4.532084945639117, 0.0, 3.0507799705099856, 1.820238860923577, 1.7725294392443114, 1.3220584356286411, 1.754252323622065, 0.0, 1.761336939708725, 0.0, 1.068417673472907, 0.703092194246869, 0.783972582067646, 0.42439999056073824, 0.8407720865311248, 0.0, 0.974214274417964, 0.0, 0.5000709462095569, 0.314933102102731, 0.5124831841471554, 0.475764962637261, 0.3925852250797812, 0.0, 0.5837423826999588, 0.0, 0.3324028188158522, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.10550819217920393, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07053450689168847, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.509193188726742, 22.259469178774047, 38.1841669335804, 15.81004154788268, 5.343967776035741, 4.87818608580641, 0.0, 5.57516457849677, 0.0, 1.9137104253621324, 1.6428843619202245, 1.629779711534943, 0.9599612487248417, 1.050482924194363, 0.0, 1.787737922503338, 0.0, 0.7401598788104239, 0.6342215239818803, 0.9719687063300225, 0.8611400757459441, 0.5606696452134722, 0.0, 0.9126561387276729, 0.0, 0.4693423964887469, 0.5507710446105903, 0.42804947231461904, 0.2951510946817137, 0.4123866665783569, 0.0, 0.41756270010404206, 0.1410690137833764, 0.38843517999213123, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.09315867601128378, 0.03526725344584425, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.12201692367537861, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07882063461243524, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.79025224872956, 16.69416259475453, 14.748738552296453, 42.25260630469924, 5.733545089744422, 4.985908223211347, 0.0, 10.172364455479032, 0.0, 2.673041621445877, 1.8501480360303018, 3.8478162309141517, 1.5873019523659646, 1.4814235619636973, 0.0, 3.502454296199748, 0.0, 1.3074814632420106, 0.6262363335760979, 1.4621468413816456, 0.719412823630801, 0.7852613028241368, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.434382818857992, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.8433578596399137, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.15710912864667462, 0.0, 0.0, 0.0, 0.09315867601128383, 0.0, 0.03526725344584421, 0.0705345068916884, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27078411805582514], [1.1545921920934599, 4.523467181433315, 4.87089657888184, 5.818178619559349, 6.038142290935837, 2.3782269106892384, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8830224067293442, 0.5810795777519577, 0.4770215439931948, 0.0, 0.9572676110035493, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40906389761668716, 0.268968220034349, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3189214849254736, 7.081632816464265, 4.957942341338154, 5.435274475407721, 2.437572460004789, 5.480219294185036, 0.0, 2.7969114023594153, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4210652116157133, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.485143132576206, 4.33210164671944, 9.218316336798773, 2.0339087224555223, 2.35725215070793, 0.0, 12.58961003710107, 0.0, 1.0896658957459893, 0.827813864855967, 2.512868607277693, 0.7401934026317223, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5861761886654182, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12183885238988838, 0.19270853231927834, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.08629696706884352, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3320947487899453], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.2884381535021165, 2.0820778210694506, 2.5613299108819803, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.11114875584899048], [0.10580176033753269, 1.8042378009538727, 1.8926304125042663, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.03526725344584425, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.06100846183768812], [0.8968019082899605, 2.2472986771569854, 1.8740706508790705, 4.05926583446298, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2032749518486976, 0.0, 0.4192306890890823, 0.18285583903340205, 1.0009478935914595, 0.3089372367037806, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.11134392501747215, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.04984432402537779, 0.0, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4383308262770131, 1.1039062104189568, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.0, 0.3998537283987718, 0.17931887345964864, 0.1493877037322834, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7624926493418738, 1.1515444811923943, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.07040246089714865, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.8682382573058716, 1.7424165162679763, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.373934851779479, 0.7284382240640416, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.0, 0.368238841371977, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.6888915297703234, 0.6899060832018447, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5408661936315918, 1.0144571714995214, 1.022612352827793, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7072180787806787, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.994370866289755, 0.5271939544122967, 0.7078121007311813, 0.2601398714280752, 0.2711160947356388, 0.0, 0.21936197425475198, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.8692546216985796, 0.6937997157399078, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.0778458955511716, 0.8752127586281268, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6685926212108927, 0.42858896755180403, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.352470195409574, 0.3398131162956131, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6190830972029179, 0.4273242469283259, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537851], [0.07882063461243573, 0.36451811415950947, 0.29869753715158565, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5849313875394228, 0.5362327985890728, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.035267253445844256, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.14536794364889696, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6676989898681324, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11134392501747085, 0.04984432402537791, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.09953295742310306, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.20102727913036317, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.03526725344584415, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920085, 0.06100846183768903, 0.0, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.035267253445844075, 0.06100846183768882, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.03526725344584415, 0.18566696948481257, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916884, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0,</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.111</v>
+        <v>76.2972</v>
       </c>
       <c r="C4" t="n">
-        <v>14.9</v>
+        <v>13.87</v>
       </c>
       <c r="D4" t="n">
-        <v>3.4104</v>
+        <v>3.4351</v>
       </c>
       <c r="E4" t="n">
-        <v>22.73</v>
+        <v>21.67</v>
       </c>
       <c r="F4" t="n">
-        <v>5.913899999999999</v>
+        <v>5.994300000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0148</v>
+        <v>0.0172</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3326</v>
+        <v>2.3987</v>
       </c>
       <c r="I4" t="n">
-        <v>126.05</v>
+        <v>5.3</v>
       </c>
       <c r="J4" t="n">
-        <v>322.59</v>
+        <v>322.05</v>
       </c>
       <c r="K4" t="n">
-        <v>6.1814</v>
+        <v>5.929499999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>2.752600000000001</v>
+        <v>2.8369</v>
       </c>
       <c r="M4" t="n">
-        <v>4.482699999999999</v>
+        <v>4.5751</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[81.05, 21.25, 113.74, 46.67, 13.42, 21.26, 0.47, 12.88, 2.32, 3.66, 2.19, 0.16, 1.81, 0.06, 0.43, 0.09, 0.03, 0.02, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[77.59, 26.26, 107.12, 45.27, 14.68, 24.05, 0.83, 13.82, 2.8, 3.94, 1.82, 0.26, 1.86, 0.03, 0.34, 0.12, 0.08, 0.1, 0.01, 0.04, 0.0, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[27.48, 26.4, 27.59, 29.45, 25.18, 25.04, 25.92, 34.53, 19.13, 27.78, 25.15, 28.94]</t>
+          <t>[59.78, 0.82, 53.39, 0.77, 63.51, 13.24, 2.41, 51.91, 0.89, 53.69, 0.41, 21.23]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[5.28, 84.72, 145.67, 20.18, 31.96, 3.7, 8.37, 2.4, 6.0, 1.13, 2.44, 0.69, 2.82, 0.64, 1.44, 0.46, 1.79, 0.26, 0.66, 0.08, 0.53, 0.13, 0.16, 0.06, 0.17, 0.04, 0.1, 0.0, 0.04, 0.01, 0.02, 0.0]</t>
+          <t>[9.82, 71.96, 139.05, 25.51, 38.55, 3.75, 8.83, 2.8, 7.4, 1.11, 2.66, 0.67, 2.51, 0.57, 1.74, 0.5, 2.13, 0.22, 0.73, 0.13, 0.28, 0.01, 0.08, 0.01, 0.16, 0.02, 0.06, 0.01, 0.04, 0.0, 0.03, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[6.57, 125.03, 44.83, 74.31, 11.22, 17.46, 0.0, 17.02, 0.01, 4.05, 2.17, 4.53, 1.24, 1.6, 0.01, 3.47, 0.0, 1.1, 0.41, 1.15, 0.34, 0.61, 0.0, 1.2, 0.0, 0.52, 0.15, 0.69, 0.15, 0.27, 0.0, 0.58, 0.0, 0.14, 0.06, 0.35, 0.02, 0.11, 0.0, 0.22, 0.0, 0.05, 0.05, 0.14, 0.02, 0.01, 0.0, 0.09, 0.0, 0.01, 0.03, 0.06, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.17]</t>
+          <t>[4.22, 113.32, 64.25, 64.38, 14.97, 17.28, 0.0, 16.11, 0.0, 4.61, 2.74, 3.31, 1.86, 1.61, 0.0, 3.12, 0.0, 1.14, 0.58, 1.08, 0.44, 0.87, 0.0, 1.54, 0.0, 0.46, 0.27, 0.53, 0.26, 0.42, 0.0, 0.78, 0.0, 0.27, 0.08, 0.3, 0.06, 0.07, 0.0, 0.16, 0.0, 0.07, 0.08, 0.07, 0.03, 0.03, 0.0, 0.03, 0.0, 0.03, 0.03, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.17]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[6.77, 0.52, 4.62, 2.32, 0.69, 0.98, 0.07, 2.15, 0.38, 2.62, 5.05, 1.25], [0.39, 7.34, 1.07, 4.08, 2.54, 0.26, 1.15, 0.05, 1.13, 0.88, 1.42, 6.01], [5.75, 1.13, 6.21, 1.37, 4.23, 2.11, 0.63, 1.73, 0.04, 1.38, 0.93, 1.99], [2.28, 4.23, 1.88, 9.87, 0.61, 4.64, 1.98, 1.04, 1.16, 0.01, 1.24, 0.43], [0.79, 2.34, 4.76, 0.79, 5.28, 0.56, 4.53, 2.5, 0.44, 1.57, 0.07, 1.41], [1.21, 0.52, 2.42, 5.05, 0.6, 5.55, 0.78, 5.8, 1.16, 0.52, 1.37, 0.03], [0.04, 1.43, 0.93, 1.87, 5.13, 0.95, 6.89, 1.08, 3.13, 1.98, 0.46, 1.93], [2.07, 0.0, 1.68, 1.17, 2.67, 6.48, 1.38, 9.27, 0.6, 5.11, 3.11, 0.85], [0.27, 0.85, 0.02, 1.33, 0.34, 1.24, 4.01, 0.76, 5.32, 0.61, 2.83, 1.53], [2.14, 0.85, 1.27, 0.06, 1.75, 0.77, 2.24, 5.89, 0.74, 5.96, 0.73, 5.34], [4.56, 1.19, 0.87, 1.08, 0.02, 1.34, 0.5, 3.36, 3.37, 1.18, 6.99, 0.58], [1.09, 5.93, 1.83, 0.4, 1.28, 0.06, 1.69, 0.85, 1.6, 5.86, 0.82, 7.42]]</t>
+          <t>[[16.39, 0.11, 13.98, 0.04, 5.47, 0.96, 0.06, 4.54, 0.1, 10.01, 0.03, 7.97], [0.05, 0.12, 0.12, 0.08, 0.08, 0.03, 0.07, 0.07, 0.05, 0.08, 0.03, 0.03], [14.98, 0.18, 12.23, 0.05, 16.1, 1.05, 0.23, 3.38, 0.05, 3.06, 0.07, 1.85], [0.06, 0.08, 0.08, 0.07, 0.11, 0.1, 0.13, 0.05, 0.03, 0.03, 0.01, 0.01], [6.11, 0.07, 17.86, 0.21, 16.48, 4.41, 0.52, 10.86, 0.04, 5.46, 0.04, 1.21], [0.66, 0.03, 1.1, 0.12, 5.12, 2.91, 0.05, 2.22, 0.19, 0.69, 0.04, 0.1], [0.14, 0.04, 0.31, 0.05, 0.45, 0.1, 0.59, 0.42, 0.02, 0.23, 0.02, 0.03], [4.59, 0.04, 3.9, 0.04, 11.95, 2.65, 0.41, 12.88, 0.1, 13.97, 0.01, 1.17], [0.05, 0.0, 0.05, 0.05, 0.08, 0.19, 0.02, 0.1, 0.13, 0.07, 0.07, 0.07], [9.93, 0.07, 2.61, 0.03, 6.32, 0.61, 0.27, 14.95, 0.11, 13.77, 0.02, 4.85], [0.02, 0.05, 0.05, 0.02, 0.05, 0.03, 0.02, 0.02, 0.04, 0.06, 0.03, 0.02], [6.65, 0.03, 1.06, 0.01, 0.91, 0.18, 0.04, 2.22, 0.03, 6.11, 0.04, 3.87]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.07, 3.16, 0.84, 1.93, 0.07, 0.12, 0.0, 0.23, 0.0, 0.03, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [3.54, 72.68, 17.4, 15.15, 3.2, 5.42, 0.0, 2.15, 0.0, 1.3, 0.58, 0.73, 0.31, 0.48, 0.0, 0.46, 0.0, 0.22, 0.13, 0.11, 0.04, 0.12, 0.0, 0.11, 0.0, 0.12, 0.05, 0.06, 0.04, 0.04, 0.0, 0.09, 0.0, 0.05, 0.02, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.08, 16.53, 12.2, 7.1, 1.82, 2.28, 0.0, 1.56, 0.0, 0.5, 0.5, 0.46, 0.21, 0.22, 0.0, 0.3, 0.0, 0.15, 0.08, 0.14, 0.07, 0.08, 0.0, 0.07, 0.0, 0.1, 0.04, 0.05, 0.01, 0.04, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [2.41, 14.96, 6.13, 30.63, 2.58, 3.07, 0.0, 5.97, 0.01, 1.13, 0.61, 1.53, 0.36, 0.38, 0.0, 1.44, 0.0, 0.37, 0.08, 0.41, 0.07, 0.21, 0.0, 0.4, 0.0, 0.12, 0.01, 0.26, 0.03, 0.05, 0.0, 0.24, 0.0, 0.06, 0.02, 0.22, 0.01, 0.01, 0.0, 0.1, 0.0, 0.01, 0.01, 0.04, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.01, 0.04, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.07], [0.03, 2.9, 1.64, 2.43, 1.15, 1.11, 0.0, 0.72, 0.0, 0.18, 0.1, 0.17, 0.07, 0.08, 0.01, 0.2, 0.0, 0.07, 0.01, 0.05, 0.04, 0.04, 0.0, 0.03, 0.0, 0.02, 0.02, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14, 4.81, 2.21, 3.33, 0.85, 3.11, 0.0, 1.01, 0.0, 0.34, 0.08, 0.33, 0.12, 0.16, 0.0, 0.2, 0.0, 0.1, 0.01, 0.04, 0.04, 0.04, 0.0, 0.14, 0.0, 0.03, 0.02, 0.03, 0.0, 0.06, 0.0, 0.04, 0.0, 0.0, 0.0, 0.02, 0.01, 0.04, 0.0, 0.0, 0.0, 0.03, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 2.69, 1.24, 5.39, 0.48, 0.92, 0.0, 3.11, 0.0, 0.2, 0.12, 0.67, 0.1, 0.07, 0.0, 0.44, 0.0, 0.07, 0.08, 0.28, 0.05, 0.06, 0.0, 0.31, 0.0, 0.08, 0.0, 0.13, 0.02, 0.03, 0.0, 0.13, 0.0, 0.01, 0.02, 0.03, 0.0, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.05, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 1.63, 0.59, 0.93, 0.14, 0.26, 0.0, 0.19, 0.0, 0.07, 0.0, 0.04, 0.01, 0.04, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.62, 0.42, 0.5, 0.14, 0.05, 0.0, 0.16, 0.0, 0.07, 0.0, 0.06, 0.02, 0.0, 0.0, 0.07, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 1.12, 0.43, 1.61, 0.12, 0.17, 0.0, 0.46, 0.0, 0.02, 0.06, 0.15, 0.01, 0.02, 0.0, 0.08, 0.0, 0.04, 0.0, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.03, 0.0, 0.05, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0], [0.0, 0.36, 0.24, 0.29, 0.07, 0.1, 0.0, 0.06, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.64, 0.19, 0.39, 0.06, 0.1, 0.0, 0.07, 0.0, 0.01, 0.01, 0.02, 0.0, 0.03, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 0.72, 0.25, 1.35, 0.12, 0.11, 0.0, 0.45, 0.0, 0.03, 0.04, 0.08, 0.01, 0.03, 0.0, 0.07, 0.0, 0.01, 0.01, 0.02, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.37, 0.2, 0.26, 0.07, 0.03, 0.0, 0.07, 0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14, 0.11, 0.08, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.17, 0.1, 0.49, 0.02, 0.11, 0.0, 0.12, 0.0, 0.01, 0.01, 0.03, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.06, 0.11, 0.02, 0.04, 0.0, 0.02, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.19, 0.09, 0.15, 0.03, 0.04, 0.0, 0.03, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2, 0.09, 0.46, 0.07, 0.08, 0.0, 0.19, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17, 0.04, 0.12, 0.04, 0.03, 0.0, 0.04, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.02, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09, 0.06, 0.3, 0.01, 0.04, 0.0, 0.07, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.05, 0.0, 0.03, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.05, 0.04, 0.0, 0.02, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.01, 0.32, 0.01, 0.03, 0.0, 0.06, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.01, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.02, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.04, 0.03, 0.17, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.02, 0.01, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.11, 0.01, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.02, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.05, 0.01, 0.01, 0.0, 0.08, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.08, 0.73, 0.88, 1.77, 0.11, 0.13, 0.0, 0.28, 0.0, 0.02, 0.02, 0.03, 0.02, 0.0, 0.0, 0.03, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.57, 63.92, 17.06, 14.92, 2.9, 4.37, 0.0, 2.61, 0.0, 1.59, 0.7, 0.81, 0.47, 0.52, 0.0, 0.67, 0.0, 0.32, 0.12, 0.2, 0.07, 0.24, 0.0, 0.26, 0.0, 0.08, 0.05, 0.07, 0.05, 0.11, 0.0, 0.13, 0.0, 0.05, 0.0, 0.02, 0.01, 0.02, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01], [0.42, 16.31, 23.15, 10.75, 2.81, 2.73, 0.0, 3.31, 0.0, 0.7, 0.55, 0.45, 0.33, 0.29, 0.0, 0.46, 0.0, 0.14, 0.16, 0.26, 0.1, 0.09, 0.0, 0.31, 0.0, 0.12, 0.04, 0.05, 0.03, 0.04, 0.0, 0.13, 0.0, 0.05, 0.03, 0.07, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.01, 0.03, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.05], [2.28, 14.14, 10.2, 20.86, 3.31, 3.2, 0.0, 4.06, 0.0, 0.8, 0.73, 0.81, 0.34, 0.38, 0.0, 0.78, 0.0, 0.23, 0.13, 0.28, 0.07, 0.19, 0.0, 0.32, 0.0, 0.04, 0.04, 0.18, 0.07, 0.09, 0.0, 0.23, 0.0, 0.04, 0.03, 0.05, 0.02, 0.01, 0.0, 0.04, 0.0, 0.02, 0.05, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06], [0.11, 2.63, 2.6, 3.31, 2.31, 1.2, 0.0, 0.96, 0.0, 0.25, 0.1, 0.18, 0.19, 0.07, 0.0, 0.34, 0.0, 0.06, 0.03, 0.04, 0.05, 0.06, 0.0, 0.1, 0.0, 0.06, 0.03, 0.02, 0.02, 0.02, 0.0, 0.08, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.23, 4.4, 2.6, 2.77, 1.26, 2.25, 0.0, 1.3, 0.0, 0.45, 0.23, 0.14, 0.2, 0.13, 0.0, 0.25, 0.0, 0.13, 0.02, 0.04, 0.04, 0.1, 0.0, 0.15, 0.0, 0.05, 0.05, 0.08, 0.03, 0.05, 0.0, 0.07, 0.0, 0.05, 0.0, 0.02, 0.02, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13, 3.04, 2.56, 3.88, 0.85, 1.26, 0.0, 1.99, 0.0, 0.34, 0.19, 0.37, 0.12, 0.03, 0.0, 0.27, 0.0, 0.07, 0.06, 0.13, 0.02, 0.07, 0.0, 0.22, 0.0, 0.03, 0.02, 0.09, 0.04, 0.03, 0.0, 0.07, 0.0, 0.01, 0.01, 0.07, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 1.7, 0.69, 0.73, 0.28, 0.46, 0.0, 0.17, 0.0, 0.08, 0.07, 0.03, 0.05, 0.01, 0.0, 0.07, 0.0, 0.02, 0.0, 0.01, 0.03, 0.02, 0.0, 0.03, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.72, 0.74, 0.59, 0.15, 0.15, 0.0, 0.14, 0.0, 0.03, 0.0, 0.03, 0.02, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.02, 0.02, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07, 0.93, 0.68, 0.73, 0.11, 0.25, 0.0, 0.11, 0.0, 0.07, 0.0, 0.1, 0.02, 0.02, 0.0, 0.06, 0.0, 0.0, 0.0, 0.03, 0.02, 0.03, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.57, 0.36, 0.35, 0.16, 0.18, 0.0, 0.1, 0.0, 0.04, 0.02, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.48, 0.25, 0.36, 0.05, 0.15, 0.0, 0.07, 0.0, 0.03, 0.0, 0.03, 0.03, 0.01, 0.0, 0.03, 0.0, 0.02, 0.01, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.81, 0.68, 0.83, 0.1, 0.14, 0.0, 0.27, 0.0, 0.02, 0.02, 0.07, 0.0, 0.0, 0.0, 0.03, 0.0, 0.02, 0.02, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.39, 0.22, 0.21, 0.07, 0.07, 0.0, 0.05, 0.0, 0.03, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.16, 0.17, 0.11, 0.02, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.26, 0.25, 0.32, 0.03, 0.05, 0.0, 0.04, 0.0, 0.0, 0.01, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.14, 0.06, 0.09, 0.04, 0.04, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.28, 0.13, 0.16, 0.03, 0.08, 0.0, 0.07, 0.0, 0.02, 0.01, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.37, 0.24, 0.4, 0.07, 0.11, 0.0, 0.11, 0.0, 0.04, 0.05, 0.03, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16, 0.08, 0.07, 0.03, 0.0, 0.0, 0.06, 0.0, 0.01, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.07, 0.07, 0.05, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.11, 0.07, 0.16, 0.04, 0.04, 0.0, 0.05, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.01, 0.1, 0.01, 0.05, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11, 0.06, 0.07, 0.04, 0.06, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.18, 0.07, 0.2, 0.04, 0.09, 0.0, 0.05, 0.0, 0.02, 0.01, 0.05, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1, 0.03, 0.03, 0.04, 0.02, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.04, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.03, 0.04, 0.08, 0.0, 0.02, 0.0, 0.05, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.02, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.03, 0.02, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.02, 0.02, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.01, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.02, 0.02, 0.05, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.162622492493519</v>
+        <v>3.666321066137007</v>
       </c>
       <c r="C5" t="n">
-        <v>2.206807649071391</v>
+        <v>3.106943835990603</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5472475125571609</v>
+        <v>0.5555726685142097</v>
       </c>
       <c r="E5" t="n">
-        <v>3.449217302519515</v>
+        <v>3.010166108373423</v>
       </c>
       <c r="F5" t="n">
-        <v>1.136263961410376</v>
+        <v>1.151275166934473</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01962039754948915</v>
+        <v>0.02168317319951118</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2704981330804337</v>
+        <v>0.1682299319384039</v>
       </c>
       <c r="I5" t="n">
-        <v>91.40211977848216</v>
+        <v>16.89467371688486</v>
       </c>
       <c r="J5" t="n">
-        <v>5.209788863284192</v>
+        <v>4.938370176485355</v>
       </c>
       <c r="K5" t="n">
-        <v>1.669941328310668</v>
+        <v>1.490045217434693</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8358559923814627</v>
+        <v>0.7891561252375857</v>
       </c>
       <c r="M5" t="n">
-        <v>1.821876974441469</v>
+        <v>1.556809875996424</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[17.79964887294129, 13.746545020476963, 16.10690535143235, 11.136476103328196, 6.011954756982125, 6.481697308575895, 0.8538735269347566, 4.652483207922411, 1.7371240600486764, 1.9658077220318368, 1.659487872808958, 0.3666060555964675, 1.553673067282819, 0.2374868417407581, 0.7649182962905249, 0.28618176042508386, 0.17058722109231989, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[10.81119327364006, 19.14346886016221, 12.76579805574254, 11.15513782971775, 6.011455730519857, 5.6980259739667725, 1.9290152928372544, 4.210415656440585, 1.8165902124584945, 2.2037241206648353, 1.4027116596079183, 0.5219195340279948, 1.5493224325491444, 0.1705872210923199, 0.6514598989960935, 0.32496153618543866, 0.3059411708155671, 0.3605551275463987, 0.09949874371066195, 0.24166091947189117, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[29.405944977164058, 34.03997649822927, 25.40672942352086, 38.7010012790367, 27.192418060922776, 27.64558554272273, 29.59347225318448, 32.00857853763581, 25.77427205567598, 28.03875175538313, 28.662301024167622, 32.14026135550239]</t>
+          <t>[14.775371399731378, 2.977851574541622, 13.240011329300293, 3.071986328094576, 12.722024210006834, 15.159894458735524, 9.613630947774109, 15.630159947997974, 2.972860575270896, 21.981216981777877, 1.3571661652133822, 17.158586771642934]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[11.030031731595333, 73.60422270495083, 68.47423676098916, 20.132749439656767, 28.543973094157728, 3.576310948449535, 6.919038950605786, 3.865229618017537, 5.087238936790762, 1.553415591527265, 2.21503950303375, 1.0648474069086153, 2.7618110000505114, 1.1001818031580048, 1.538310761842353, 0.7269112738154496, 2.542813402513052, 0.5936328831862329, 0.9820386957752728, 0.30594117081556704, 0.8994998610338972, 0.4160528812542942, 0.39293765408777037, 0.23748684174075807, 0.4255584566190644, 0.19595917942265428, 0.3316624790355398, 0.0, 0.19595917942265415, 0.09949874371066199, 0.13999999999999987, 0.0]</t>
+          <t>[8.106022452473223, 60.73943035623564, 66.05775881756813, 27.356350268264958, 29.060755323976007, 3.8765319552404054, 5.29349600925513, 2.9427877939124327, 5.721887800367987, 1.6118002357612438, 2.530691605075577, 0.9492628719169415, 2.5435998112910756, 0.839702328209229, 2.1148049555455466, 0.8660254037844386, 2.5909650711655674, 0.5211525688318158, 1.4131878855976658, 0.3912799509302768, 0.5491812087098387, 0.09949874371066199, 0.30594117081556693, 0.09949874371066197, 0.4409081537009725, 0.1399999999999999, 0.23748684174075815, 0.09949874371066199, 0.19595917942265412, 0.0, 0.17058722109231975, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[10.53304799191573, 85.30796621652634, 49.927558522323125, 63.86637534728271, 12.38997982242102, 20.791546359037373, 0.0, 21.69376869057104, 0.09949874371066196, 3.5563323804166567, 3.3557562485973262, 6.080222035419431, 1.6438978070427612, 1.9949937343260014, 0.09949874371066199, 4.577018680320192, 0.0, 1.292284798332009, 0.6647555941848107, 1.7168284713389395, 0.6514598989960935, 1.028542658327792, 0.0, 1.8275666882497061, 0.0, 0.8772684879784521, 0.40926763859362303, 1.3468110483657318, 0.5172040216394305, 0.6301587101675254, 0.0, 1.2097933707869286, 0.0, 0.5102940328869233, 0.23748684174075801, 0.9733961166965893, 0.13999999999999987, 0.421781934179263, 0.0, 0.7560423268574324, 0.0, 0.2598076211353321, 0.2598076211353318, 0.4694677837722203, 0.13999999999999987, 0.09949874371066197, 0.0, 0.3491418050019219, 0.0, 0.09949874371066197, 0.17058722109231972, 0.2764054992217047, 0.0, 0.0, 0.0, 0.35707142142714193, 0.0, 0.0, 0.13999999999999993, 0.09949874371066199, 0.0, 0.0, 0.0, 0.6333245613427605]</t>
+          <t>[9.22559483177101, 84.91205803653564, 61.84082389489972, 52.157220017941896, 19.340866061270372, 16.978268462949927, 0.0, 14.046989001205919, 0.0, 4.286945299394431, 2.352105439813445, 3.0779701103162114, 2.1024747323095228, 1.870267360566397, 0.0, 2.6991850621993314, 0.0, 1.3039938650162426, 0.8623224454924038, 1.3466996695625941, 0.7787168933572719, 1.285729364990938, 0.0, 2.002098898656108, 0.0, 0.9941830817309261, 0.5975784467331463, 0.8655056325639947, 0.6264183905346327, 0.6808817812219683, 0.0, 1.3680643259730145, 0.0, 0.7190966555338718, 0.3059411708155672, 0.943398113205661, 0.2374868417407583, 0.32419130154894643, 0.0, 0.39293765408777054, 0.0, 0.2551470164434616, 0.27129319932501084, 0.35369478367654733, 0.17058722109231977, 0.17058722109231977, 0.0, 0.17058722109231972, 0.0, 0.17058722109232, 0.17058722109231989, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.0, 0.19899748742132392, 0.0, 0.09949874371066199, 0.0, 0.0, 0.5109794516416488]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[9.540288255603185, 1.87872297053078, 6.701910175464901, 5.276134948994385, 2.0430124816065103, 1.6123275101541863, 0.2917190429162965, 2.783433131943355, 0.9672641831475, 5.454869384320762, 7.870673414645023, 3.6969582091227378], [1.4414922823241192, 13.129523982231794, 2.9197773887747, 7.840510187481417, 6.226427547157355, 1.0547037498748169, 1.8131464364468737, 0.21794494717703405, 1.9982742554514388, 2.316376480626586, 3.1533474277345315, 9.652455646103745], [7.746450800205214, 3.2207297309771272, 7.881998477543622, 3.477513479485016, 6.868558800796564, 4.014710450331379, 1.6103105290595336, 2.4366165065516574, 0.195959179422654, 2.4198347050986784, 1.8014161096204284, 3.9433361510274527], [5.036030182594223, 8.159479150043827, 4.436845726414207, 17.919628902407553, 1.7714118662806775, 7.369559009872976, 4.617315237234727, 2.7163210414087646, 2.3440136518373773, 0.09949874371066195, 2.2096153511414602, 1.0793979803575693], [2.3207541877587983, 5.488569941250641, 7.410964849464602, 2.2463080821650445, 7.066937101743578, 1.4164744967700629, 7.6084886804147995, 5.275414675643991, 1.0031948963187571, 2.205697168697462, 0.29171904291629625, 2.2631615055050736], [1.7849089612638511, 1.4797297050475127, 4.671573610679809, 8.066442834360135, 1.3190905958272932, 8.478649656637547, 2.4354876308452074, 8.59767410408187, 3.5657257325823593, 1.5904716281656828, 2.0768004237287707, 0.17058722109231975], [0.19595917942265415, 2.031034219307986, 2.442355420490637, 4.227658926640134, 8.095251694666445, 2.971110903349116, 10.161589442601986, 2.802427519134077, 5.76655009516088, 4.0668907042112625, 1.4725488107359972, 3.191410346539601], [2.8818570401739216, 0.0, 2.353210572813237, 2.683486538069458, 5.562472471841999, 9.263347127253734, 3.472117509532185, 10.498433216437581, 1.7029386365926418, 8.08194902235841, 5.8015428982297435, 2.3595550427993817], [0.9039358384310252, 1.7909494688572323, 0.13999999999999993, 2.319719810666795, 0.8151073548925934, 4.020248748522907, 7.309575911090877, 1.960204071008934, 8.534494712635299, 1.3556917053666726, 5.203950422515573, 3.3954528416692784], [4.858024289770484, 2.2511108368980874, 1.901867503271457, 0.23748684174075807, 2.754541704167864, 1.9992748685460915, 4.4252005604266085, 8.944154515659939, 1.6408534364774923, 8.227903742752464, 1.821290751088359, 8.296047251552991], [7.426062213582647, 2.7917557199726484, 1.8849668432097142, 2.028201173453956, 0.13999999999999987, 2.1597222043586997, 0.99498743710662, 5.989190262464536, 5.9693466979226475, 3.060653524984491, 10.46278643574454, 1.7503142574977804], [3.2896656365047225, 9.846070282097317, 3.7763871623550433, 1.1747340124470722, 1.8712562625145692, 0.23748684174075815, 2.8414608918653075, 2.151162476429899, 3.655133376499409, 8.71552637538319, 2.0018990983563563, 10.638778125329987]]</t>
+          <t>[[8.43788480603996, 0.5271622141238882, 5.095056427557991, 0.24166091947189117, 2.507807807628008, 1.6788091017146665, 0.34117444218464016, 2.64733828590152, 0.4358898943540672, 4.76339164881495, 0.17058722109231975, 6.005755572781829], [0.2958039891549811, 0.6823488843692797, 0.4955804677345538, 0.4399999999999994, 0.30594117081556693, 0.17058722109231972, 0.45287967496896947, 0.2917190429162959, 0.3278719262151, 0.3059411708155668, 0.22158519806160343, 0.1705872210923198], [5.556941604875833, 0.7263607918933964, 5.994756041741814, 0.3278719262150994, 5.316954015223377, 1.451723114095797, 0.8349251463454667, 1.9014731131414935, 0.21794494717703378, 1.9940912717325658, 0.35369478367654716, 1.8834808201837374], [0.2374868417407581, 0.41665333311999253, 0.3655133376499405, 0.49507575177946195, 0.6307931515164044, 0.4582575694955851, 0.7830070242341378, 0.2598076211353322, 0.2984962311319856, 0.17058722109231964, 0.09949874371066196, 0.09949874371066196], [2.7709023800920867, 0.2917190429162961, 5.742856432125045, 0.6371028174478591, 7.149097845182984, 5.372327242452754, 2.1188676221038434, 4.87241213363566, 0.19595917942265428, 3.0640496079535002, 0.24166091947189117, 1.5185190153567385], [1.0603772913449243, 0.1705872210923198, 1.5329709716755895, 0.6368673331236273, 6.286938841757567, 4.409296996120811, 0.2958039891549806, 2.954928087111428, 0.7575618786607471, 1.0362914647916392, 0.2416609194718912, 0.3605551275463987], [0.7351190379795628, 0.19595917942265417, 1.2304064369142436, 0.2598076211353321, 1.6874537030686179, 0.5744562646538034, 2.7279846040621325, 1.4911740341086952, 0.1989974874213239, 1.0183810681665266, 0.13999999999999987, 0.17058722109231977], [2.5538010885736573, 0.19595917942265392, 2.179449471770337, 0.19595917942265392, 4.452808102759426, 3.2783379935571006, 1.5237781990827948, 7.673695328849066, 0.3872983346207415, 7.14206552756274, 0.09949874371066195, 1.3642213896578503], [0.29580398915498096, 0.0, 0.2598076211353315, 0.2179449471770336, 0.36551333764994137, 0.6276145313805285, 0.13999999999999985, 0.38729833462074154, 0.832526275861609, 0.25514701644346166, 0.353694783676548, 0.32419130154894665], [4.9137663762128545, 0.3241913015489466, 1.7429572570777512, 0.22158519806160287, 3.3641640863667748, 0.9153687781435424, 1.0474254150057667, 7.714110447744445, 0.34336569426778807, 10.092427854584841, 0.13999999999999996, 4.418993097980579], [0.13999999999999999, 0.2598076211353315, 0.2179449471770336, 0.13999999999999987, 0.21794494717703358, 0.17058722109231966, 0.19899748742132398, 0.13999999999999987, 0.27999999999999975, 0.2764054992217045, 0.2215851980616033, 0.13999999999999987], [5.53601842482483, 0.17058722109231997, 1.287012043455694, 0.09949874371066195, 1.209090567327362, 0.43312815655415426, 0.19595917942265428, 2.520238083991273, 0.17058722109231989, 4.961642873081456, 0.19595917942265415, 4.963174387425856]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.2917190429162961, 6.036091450599468, 2.30529824534701, 5.062124060115474, 0.2551470164434615, 0.35440090293338716, 0.0, 0.6760917097554148, 0.0, 0.17058722109231994, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [7.1392156431921805, 70.5784499688113, 19.68857536745612, 13.917884178279397, 3.813135192987524, 6.406527920800783, 0.0, 2.2017038856304, 0.0, 1.9052558883257644, 0.850646812725469, 1.3027279071241245, 0.6587108622149782, 0.7807688518377263, 0.0, 0.7670723564306039, 0.0, 0.4600000000000003, 0.36482872693909374, 0.34336569426778807, 0.19595917942265428, 0.40693979898751603, 0.0, 0.34336569426778807, 0.0, 0.38157568056677843, 0.2179449471770339, 0.23748684174075835, 0.24166091947189136, 0.19595917942265392, 0.0, 0.4023679907746147, 0.0, 0.2179449471770336, 0.13999999999999987, 0.13999999999999999, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.27129319932501095, 18.597018578256034, 26.25338073467871, 10.317460927960907, 3.1124909638423066, 3.490214893097559, 0.0, 2.6012304780622553, 0.0, 0.8888194417315589, 1.014889156509222, 0.8296987405076613, 0.6212084996198942, 0.6569627082262741, 0.0, 0.7416198487095673, 0.0, 0.4555216789572154, 0.27129319932501095, 0.4004996878900158, 0.29171904291629647, 0.3370459909270543, 0.0, 0.2551470164434615, 0.0, 0.4123105625617663, 0.2416609194718912, 0.2598076211353318, 0.09949874371066199, 0.19595917942265392, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.298496231131986, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [5.637543791404199, 12.920464387939003, 10.55524040465209, 46.96267773455855, 3.990438572387752, 3.461950317378919, 0.0, 9.697891523418894, 0.09949874371066196, 1.3975335416368375, 1.2640806936267959, 2.551293789433118, 0.671118469422501, 0.7846018098373204, 0.0, 2.6545056036859296, 0.0, 0.6427285585688565, 0.271293199325011, 0.7495998932764072, 0.2551470164434616, 0.5156549233741495, 0.0, 0.8485281374238561, 0.0, 0.40693979898751614, 0.09949874371066199, 0.6421837743200924, 0.1705872210923197, 0.2598076211353319, 0.0, 0.6343500610861486, 0.0, 0.27640549922170476, 0.13999999999999993, 0.6867313885355764, 0.09949874371066197, 0.09949874371066197, 0.0, 0.4582575694955852, 0.0, 0.09949874371066193, 0.09949874371066199, 0.19595917942265412, 0.0, 0.0, 0.0, 0.22158519806160334, 0.0, 0.0, 0.09949874371066197, 0.19595917942265403, 0.0, 0.0, 0.0, 0.31368774282716216, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.2917190429162962], [0.1705872210923199, 3.5735136770411264, 2.7148480620469355, 3.287111193738355, 2.4181604578687486, 2.5333574560254988, 0.0, 1.2253978945632318, 0.0, 0.5173006862551025, 0.5196152422706631, 0.44844174649557345, 0.2551470164434616, 0.33704599092705406, 0.09949874371066199, 0.6164414002968971, 0.0, 0.25514701644346155, 0.09949874371066199, 0.2598076211353315, 0.19595917942265403, 0.19595917942265406, 0.0, 0.1705872210923196, 0.0, 0.13999999999999987, 0.13999999999999996, 0.13999999999999993, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.42473521163190603, 5.529367052384929, 3.586906745372675, 4.259237020875924, 1.807622748252523, 7.570858603883704, 0.0, 2.3129850842580026, 0.0, 0.8272847151978575, 0.30594117081556715, 0.7490660852020997, 0.5528109984434092, 0.5425863986500218, 0.0, 0.5099019513592781, 0.0, 0.3316624790355398, 0.09949874371066199, 0.19595917942265417, 0.19595917942265412, 0.195959179422654, 0.0, 0.4903060268852508, 0.0, 0.17058722109231975, 0.13999999999999987, 0.17058722109232002, 0.0, 0.2374868417407582, 0.0, 0.19595917942265415, 0.0, 0.0, 0.0, 0.13999999999999996, 0.09949874371066195, 0.24166091947189147, 0.0, 0.0, 0.0, 0.22158519806160343, 0.09949874371066199, 0.09949874371066197, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999993, 2.7154925888317187, 2.0981896959045425, 8.772565189270468, 1.228657804272614, 1.6228370220080632, 0.0, 8.92064459554353, 0.0, 0.6633249580710796, 0.4534313619501854, 2.3497021087788967, 0.3872983346207415, 0.25514701644346155, 0.0, 1.4582180906846551, 0.0, 0.29171904291629597, 0.30594117081556693, 0.9389355675444404, 0.2598076211353318, 0.2764054992217047, 0.0, 0.7442445834535847, 0.0, 0.3655133376499411, 0.0, 0.46162755550335155, 0.1399999999999999, 0.17058722109231994, 0.0, 0.46162755550335155, 0.0, 0.09949874371066195, 0.13999999999999987, 0.2215851980616032, 0.0, 0.09949874371066197, 0.0, 0.19595917942265403, 0.0, 0.0, 0.0, 0.2598076211353317, 0.0, 0.09949874371066197, 0.0, 0.17058722109231986, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21794494717703392], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1705872210923198, 2.0816099538578308, 0.9705153270299245, 1.401820245252579, 0.5102940328869232, 0.6421837743200924, 0.0, 0.5421254467371923, 0.0, 0.2551470164434615, 0.0, 0.19595917942265415, 0.09949874371066199, 0.24166091947189128, 0.0, 0.13999999999999987, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066193, 1.0562196741208714, 0.9075241043630744, 1.0816653826391966, 0.735119037979564, 0.29580398915498096, 0.0, 0.6590902821313632, 0.0, 0.3536947836765471, 0.0, 0.2764054992217051, 0.13999999999999993, 0.0, 0.0, 0.25514701644346155, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.22158519806160348, 1.557433786714543, 0.8277076778670109, 3.133352836818732, 0.3544009029333872, 0.5840376700179537, 0.0, 1.6273905493150673, 0.0, 0.13999999999999993, 0.42, 0.6982120021884473, 0.09949874371066197, 0.13999999999999987, 0.0, 0.5230678732248806, 0.0, 0.24166091947189128, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.19899748742132398, 0.0, 0.17058722109231983, 0.0, 0.21794494717703378, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7282856582413254, 0.6343500610861483, 0.6048966853934642, 0.2551470164434615, 0.4582575694955851, 0.0, 0.31048349392520064, 0.0, 0.1705872210923198, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231975, 1.072567014223353, 0.5778408085277464, 0.8932524839036282, 0.23748684174075813, 0.3316624790355398, 0.0, 0.2917190429162962, 0.0, 0.09949874371066195, 0.09949874371066199, 0.1399999999999999, 0.0, 0.17058722109231983, 0.0, 0.17058722109231989, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19595917942265428, 1.0007996802557446, 0.5361902647381804, 2.57050578680539, 0.38157568056677843, 0.37134889255254305, 0.0, 1.4924811556599287, 0.0, 0.17058722109231989, 0.2416609194718915, 0.27129319932501084, 0.09949874371066199, 0.17058722109231994, 0.0, 0.3809199390948178, 0.0, 0.09949874371066196, 0.09949874371066196, 0.13999999999999987, 0.09949874371066199, 0.09949874371066197, 0.0, 0.13999999999999993, 0.0, 0.0, 0.09949874371066195, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.09949874371066193, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.7301369734508723, 0.5291502622129179, 0.5936328831862326, 0.29171904291629636, 0.17058722109232, 0.0, 0.2551470164434615, 0.0, 0.17058722109231977, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3469870314579495, 0.371348892552543, 0.30594117081556665, 0.09949874371066195, 0.09949874371066199, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231966, 0.47021271782035, 0.2999999999999998, 1.1532129031536198, 0.1399999999999999, 0.39736632972611075, 0.0, 0.40693979898751614, 0.0, 0.09949874371066195, 0.09949874371066197, 0.22158519806160343, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.23748684174075835, 0.3104834939252006, 0.3433656942677881, 0.13999999999999993, 0.19595917942265415, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 0.5421254467371921, 0.37669616403674755, 0.45552167895721535, 0.17058722109231972, 0.19595917942265412, 0.0, 0.221585198061603, 0.0, 0.09949874371066195, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5099019513592781, 0.3192177939902473, 0.9941830817309255, 0.2551470164434616, 0.3370459909270536, 0.0, 0.6433506042586729, 0.0, 0.09949874371066195, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.47021271782035, 0.24166091947189136, 0.38157568056677843, 0.19595917942265415, 0.17058722109232008, 0.0, 0.19595917942265406, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2764054992217046, 0.13999999999999987, 0.1399999999999999, 0.0, 0.17058722109231986, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.31921779399024763, 0.2374868417407581, 0.7000000000000007, 0.09949874371066195, 0.19595917942265417, 0.0, 0.35369478367654755, 0.0, 0.0, 0.0, 0.2598076211353318, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1399999999999999, 0.25980762113533185, 0.0, 0.17058722109231983, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3370459909270542, 0.2179449471770337, 0.19595917942265392, 0.0, 0.13999999999999987, 0.0, 0.13999999999999993, 0.0, 0.17058722109231983, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.30594117081556715, 0.09949874371066197, 0.7984985911070867, 0.09949874371066195, 0.1705872210923199, 0.0, 0.2764054992217047, 0.0, 0.0, 0.0, 0.19899748742132395, 0.0, 0.09949874371066195, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.35369478367654705, 0.09949874371066196, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.13999999999999996, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.13999999999999987, 0.13999999999999987, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 0.27999999999999975, 0.22158519806160326, 0.5840376700179537, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.2416609194718913, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1989974874213239, 0.13999999999999987, 0.09949874371066199, 0.17058722109231972, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.5638262143604181, 0.09949874371066197, 0.13999999999999993, 0.0, 0.22158519806160343, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.13999999999999987, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.13999999999999996, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.34914180500192216, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.17058722109231975, 0.09949874371066195, 0.0, 0.0, 0.17058722109231983, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.17058722109231983, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.2984962311319856, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.25980762113533196, 0.09949874371066196, 0.09949874371066199, 0.0, 0.365513337649941, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.6273754856543245, 0.9471536306217695, 1.451068571777365, 5.547711239781684, 0.3433656942677881, 0.4616275555033515, 0.0, 0.8494704232638125, 0.0, 0.1399999999999999, 0.13999999999999987, 0.17058722109231994, 0.13999999999999993, 0.0, 0.0, 0.1705872210923197, 0.0, 0.1399999999999999, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.9407975340103732, 70.94444023318529, 18.50773892186725, 14.175810382479023, 3.057776970284131, 4.274704668161297, 0.0, 2.034182882633712, 0.0, 2.182177811270199, 0.9848857801796104, 1.154945886178223, 0.9214662229295225, 0.9108238029388559, 0.0, 1.0775435026020987, 0.0, 0.7467261881037799, 0.35440090293338716, 0.5291502622129175, 0.2551470164434616, 0.5122499389946283, 0.0, 0.6264183905346328, 0.0, 0.2712931993250109, 0.25980762113533173, 0.2551470164434615, 0.21794494717703383, 0.3433656942677882, 0.0, 0.43943145085439655, 0.0, 0.2598076211353321, 0.0, 0.13999999999999987, 0.09949874371066199, 0.13999999999999985, 0.0, 0.19595917942265428, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197], [0.7372923436466706, 18.43458434573452, 36.36382130634788, 12.106506515093443, 3.9514427744812393, 3.2306500893782966, 0.0, 4.5026547724647985, 0.0, 1.2529964086141678, 0.9526279441628822, 0.8170067319184101, 0.6173329733620255, 0.5881326381013043, 0.0, 0.8175573374387874, 0.0, 0.374699879903904, 0.4409081537009724, 0.5765414122159827, 0.29999999999999977, 0.2861817604250839, 0.0, 0.7168681887209113, 0.0, 0.35440090293338716, 0.19595917942265415, 0.2179449471770336, 0.17058722109231977, 0.19595917942265398, 0.0, 0.5030904491242106, 0.0, 0.25980762113533173, 0.1705872210923196, 0.3536947836765474, 0.0, 0.09949874371066199, 0.0, 0.17058722109231986, 0.0, 0.0, 0.09949874371066196, 0.22158519806160298, 0.09949874371066199, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.25980762113533196], [6.6679532091939615, 13.713511585294267, 11.722627691776282, 35.14228791641206, 5.043203347080108, 3.190611226708764, 0.0, 5.277916255493261, 0.0, 1.0954451150103326, 0.8701149349367586, 1.4191194452899312, 0.5517245689653492, 0.6749814812274476, 0.0, 1.2536347155371843, 0.0, 0.507050293363489, 0.39127995093027684, 0.5491812087098386, 0.2551470164434616, 0.44034077712608, 0.0, 0.7467261881037794, 0.0, 0.24166091947189114, 0.24166091947189114, 0.49759421218498884, 0.2917190429162961, 0.28618176042508386, 0.0, 0.7050531894828933, 0.0, 0.19595917942265423, 0.17058722109232, 0.2598076211353322, 0.13999999999999996, 0.09949874371066197, 0.0, 0.195959179422654, 0.0, 0.13999999999999987, 0.2179449471770337, 0.13999999999999985, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2764054992217046], [0.31288975694324045, 2.6707864010437072, 3.6796738985948196, 4.930912694420781, 7.2300691559624815, 2.8530685235374227, 0.0, 1.642680735870486, 0.0, 0.6383572667401852, 0.2999999999999998, 0.4556314299957806, 0.4836320915737501, 0.2551470164434615, 0.0, 0.6666333324999587, 0.0, 0.2374868417407583, 0.1705872210923198, 0.19595917942265398, 0.21794494717703397, 0.23748684174075815, 0.0, 0.5000000000000002, 0.0, 0.3693237062523879, 0.17058722109231972, 0.13999999999999987, 0.13999999999999987, 0.13999999999999987, 0.0, 0.27129319932501084, 0.0, 0.13999999999999987, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.46593991028886955, 4.149698784249286, 3.1622776601683786, 2.996180902415606, 3.1547424617549993, 5.016722037346698, 0.0, 2.5159491250818267, 0.0, 1.3518505834595762, 0.5806031346797916, 0.6636264009214818, 0.5291502622129179, 0.3648287269390938, 0.0, 0.6689544080129826, 0.0, 0.43943145085439655, 0.13999999999999987, 0.19595917942265412, 0.27999999999999975, 0.3316624790355398, 0.0, 0.4555216789572152, 0.0, 0.2179449471770336, 0.21794494717703364, 0.30594117081556704, 0.17058722109231983, 0.21794494717703375, 0.0, 0.2917190429162965, 0.0, 0.21794494717703378, 0.0, 0.13999999999999993, 0.13999999999999987, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.13999999999999996, 0.0, 0.09949874371066197, 0.09949874371066193, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.5030904491242105, 2.3405982141324473, 3.5730099356145084, 5.165810681780741, 1.6515144564913746, 2.3605931458004363, 0.0, 4.14848164995339, 0.0, 0.7901898506055366, 0.4836320915737501, 0.7437069315261217, 0.4069397989875157, 0.1705872210923198, 0.0, 0.7050531894828921, 0.0, 0.29171904291629647, 0.23748684174075835, 0.4828043081829324, 0.13999999999999996, 0.3241913015489462, 0.0, 0.5929586832149442, 0.0, 0.1705872210923199, 0.13999999999999993, 0.37669616403674744, 0.19595917942265428, 0.17058722109231977, 0.0, 0.29171904291629636, 0.0, 0.09949874371066196, 0.09949874371066199, 0.35369478367654733, 0.09949874371066199, 0.0, 0.0, 0.17058722109231964, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19595917942265415, 2.0024984394500778, 1.1286717857729949, 0.9680392554023828, 0.6337191807101946, 1.1438531374263048, 0.0, 0.5109794516416488, 0.0, 0.39191835884530785, 0.2551470164434615, 0.22158519806160315, 0.2598076211353318, 0.09949874371066199, 0.0, 0.2917190429162964, 0.0, 0.13999999999999985, 0.0, 0.09949874371066199, 0.17058722109231972, 0.1399999999999999, 0.0, 0.17058722109231989, 0.0, 0.1705872210923199, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 1.0961751684835779, 1.1542963224406464, 0.8377947242612599, 0.43301270189221963, 0.43301270189221963, 0.0, 0.374699879903904, 0.0, 0.17058722109231989, 0.0, 0.1705872210923199, 0.13999999999999985, 0.13999999999999987, 0.0, 0.0, 0.0, 0.17058722109231972, 0.0, 0.13999999999999987, 0.13999999999999993, 0.0, 0.0, 0.17058722109231989, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.35369478367654733, 1.4370455803487938, 1.0571660229122017, 1.3103816238027763, 0.34336569426778807, 0.6689544080129826, 0.0, 0.3128897569432405, 0.0, 0.2917190429162963, 0.0, 0.3316624790355398, 0.13999999999999993, 0.13999999999999993, 0.0, 0.23748684174075818, 0.0, 0.0, 0.0, 0.1705872210923198, 0.1399999999999999, 0.1705872210923198, 0.0, 0.09949874371066193, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.9407975340103734, 0.7418894796396571, 0.7533259586659683, 0.48414873747640846, 0.45563142999578077, 0.0, 0.36055512754639885, 0.0, 0.19595917942265423, 0.13999999999999996, 0.09949874371066199, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231983, 0.9217374897442341, 0.6689544080129826, 0.7144228439796707, 0.29580398915498085, 0.5545268253204712, 0.0, 0.2917190429162961, 0.0, 0.1705872210923199, 0.0, 0.17058722109231997, 0.1705872210923198, 0.09949874371066196, 0.0, 0.17058722109231972, 0.0, 0.13999999999999987, 0.09949874371066199, 0.1399999999999999, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 1.2545517127643642, 1.1989995829857496, 1.2965724044572275, 0.33166247903553986, 0.44766058571198786, 0.0, 0.6611353870426234, 0.0, 0.13999999999999987, 0.13999999999999996, 0.29171904291629597, 0.0, 0.0, 0.0, 0.17058722109231958, 0.0, 0.13999999999999985, 0.13999999999999987, 0.13999999999999987, 0.0, 0.1399999999999999, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.8233468284993877, 0.46000000000000035, 0.475289385532646, 0.2551470164434616, 0.2917190429162963, 0.0, 0.2598076211353317, 0.0, 0.1705872210923198, 0.09949874371066193, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.4409081537009724, 0.44844174649557345, 0.31288975694324045, 0.13999999999999987, 0.09949874371066199, 0.0, 0.21794494717703397, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231975, 0.5407402333838304, 0.5361902647381804, 0.6764613810115103, 0.17058722109231994, 0.25980762113533173, 0.0, 0.19595917942265412, 0.0, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.09949874371066193, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.400499687890016, 0.23748684174075815, 0.2861817604250836, 0.1959591794226542, 0.19595917942265412, 0.0, 0.22158519806160312, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1399999999999999, 0.5844655678480982, 0.3912799509302767, 0.3666060555964675, 0.1705872210923198, 0.39191835884530823, 0.0, 0.2917190429162961, 0.0, 0.13999999999999987, 0.09949874371066196, 0.17058722109231977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 0.6878226515607057, 0.5678027826631359, 0.938083151964685, 0.2551470164434616, 0.371348892552543, 0.0, 0.39736632972611063, 0.0, 0.19595917942265428, 0.21794494717703403, 0.17058722109231986, 0.09949874371066196, 0.09949874371066199, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4176122603564221, 0.2712931993250109, 0.32419130154894665, 0.17058722109231989, 0.0, 0.0, 0.27640549922170493, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.29171904291629636, 0.25514701644346144, 0.2179449471770336, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.3128897569432405, 0.2551470164434615, 0.4630334761116096, 0.1959591794226542, 0.19595917942265406, 0.0, 0.2179449471770337, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2764054992217045, 0.09949874371066199, 0.45825756949558494, 0.09949874371066199, 0.25980762113533196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3433656942677881, 0.2374868417407581, 0.2917190429162962, 0.19595917942265428, 0.23748684174075813, 0.0, 0.13999999999999993, 0.0, 0.13999999999999999, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19899748742132392, 0.4770744176750626, 0.3241913015489465, 0.509901951359278, 0.19595917942265417, 0.4023679907746143, 0.0, 0.21794494717703364, 0.0, 0.1399999999999999, 0.09949874371066199, 0.2179449471770336, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3605551275463987, 0.17058722109231983, 0.17058722109232002, 0.19595917942265423, 0.13999999999999993, 0.0, 0.13999999999999996, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999987, 0.0, 0.195959179422654, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2984962311319857, 0.17058722109231958, 0.1959591794226541, 0.391918358845308, 0.0, 0.13999999999999996, 0.0, 0.25980762113533157, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.13999999999999985, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.17058722109231966, 0.13999999999999987, 0.19595917942265428, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.09949874371066196, 0.09949874371066195, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.13999999999999999, 0.1399999999999999, 0.0, 0.13999999999999996, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999985, 0.09949874371066197, 0.17058722109231997, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066197, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999985, 0.13999999999999987, 0.13999999999999987, 0.2179449471770336, 0.09949874371066197, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -824,62 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001554301942999803</v>
+        <v>0.003592068329482615</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6084626602242098</v>
+        <v>0.4570201492471664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002169935415449523</v>
+        <v>0.007107206980824418</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2295845139252252</v>
+        <v>0.4192129792824002</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001205859021286469</v>
+        <v>0.003973046350181876</v>
       </c>
       <c r="G6" t="n">
-        <v>1.18319951178019</v>
+        <v>1.012547116951429</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02029661602965149</v>
+        <v>0.006224721138237195</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009657779077148425</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1679709379144444</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1013714247635429</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01037559252384625</v>
+        <v>0.005343379098504005</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01477330264130637</v>
+        <v>0.001340422709924132</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004362109198891564</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.006029514399875867</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1307407439633985</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02184479055637057</v>
+        <v>0.05626653023238871</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07527382698566033</v>
+        <v>0.04305564935408256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01890796656619307</v>
+        <v>0.01400977910663611</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5984704174581983</v>
+        <v>1.206792013391129</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0529767131342307</v>
+        <v>0.06567263087345154</v>
       </c>
     </row>
     <row r="7">
@@ -889,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9606181040491421</v>
+        <v>0.9673833476059283</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7030691095403754</v>
+        <v>0.6249906542293587</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9619485846555945</v>
+        <v>0.9692558267981292</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6966375019442272</v>
+        <v>0.610329575216361</v>
       </c>
       <c r="F7" t="n">
-        <v>0.938765081085096</v>
+        <v>0.945056652910238</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7601822073605831</v>
+        <v>0.737209099206193</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9017161415927221</v>
+        <v>0.8529518215948129</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9430673144069982</v>
+        <v>0.5868327485478714</v>
       </c>
       <c r="J7" t="n">
-        <v>0.81879929600517</v>
+        <v>0.8220922467121253</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9399721853784915</v>
+        <v>0.9631527351819421</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9682204585948496</v>
+        <v>0.9633766452791851</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9483503152235352</v>
+        <v>0.9442273276906734</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7464971794658668</v>
+        <v>0.73917148173574</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9538663022429038</v>
+        <v>0.8302856376717395</v>
       </c>
       <c r="P7" t="n">
-        <v>0.933999780697135</v>
+        <v>0.9217480391709291</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9737930998622798</v>
+        <v>0.9664247196104807</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8649065720816841</v>
+        <v>0.6793454580365015</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9551718871449179</v>
+        <v>0.9590492084348077</v>
       </c>
     </row>
     <row r="8">
@@ -950,62 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1077335486971356</v>
+        <v>0.007570944026549953</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1207819904917612</v>
+        <v>0.03887515617958706</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005910472594911903</v>
+        <v>0.02253002749981804</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06079665266254239</v>
+        <v>0.05777777663264507</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007290303942907882</v>
+        <v>0.007912158651397178</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8486669612886558</v>
+        <v>0.5368534102810084</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1809216313653708</v>
+        <v>0.03867216139413264</v>
       </c>
       <c r="I8" t="n">
-        <v>1.378454490800598</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.0884524694364342</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.501754797778003</v>
       </c>
       <c r="K8" t="n">
-        <v>45.79491541735143</v>
+        <v>0.00842035577356989</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2629617442956506</v>
+        <v>0.1971751490149068</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2554015968362139</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.7029165729727394</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.903483946430302</v>
       </c>
       <c r="O8" t="n">
-        <v>3.092925780750117</v>
+        <v>2.059480567100904</v>
       </c>
       <c r="P8" t="n">
-        <v>8.697081929147114</v>
+        <v>1.288013048912124</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.025209375313839</v>
+        <v>0.4077761756771002</v>
       </c>
       <c r="R8" t="n">
-        <v>6.886778417040811</v>
+        <v>2.820077681384272</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5101754925878121</v>
+        <v>0.3731170967509581</v>
       </c>
     </row>
     <row r="9">
@@ -1015,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.935346547748714</v>
+        <v>0.9540608714664528</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6640086928399966</v>
+        <v>0.8636416977487422</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9502158797695299</v>
+        <v>0.9573860529015675</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7274911785303002</v>
+        <v>0.808724365506049</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9255191200997077</v>
+        <v>0.9333940340448287</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7613898466867182</v>
+        <v>0.7718912977464674</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8517066965475979</v>
+        <v>0.6904442014689913</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9233367736601723</v>
+        <v>0.6104073001295092</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1736438603623282</v>
+        <v>0.1574863488123593</v>
       </c>
       <c r="K9" t="n">
-        <v>0.952167420439749</v>
+        <v>0.9518462123258515</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9368831585398887</v>
+        <v>0.9469434781040197</v>
       </c>
       <c r="M9" t="n">
-        <v>0.941204334825856</v>
+        <v>0.9408927444322394</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4671358269744945</v>
+        <v>0.461880656433918</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8950883968198456</v>
+        <v>0.7877863223970136</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9090698581084435</v>
+        <v>0.8907522853462693</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9436324757071857</v>
+        <v>0.9376838561833662</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8012584351868178</v>
+        <v>0.5485781578937583</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9515860152876988</v>
+        <v>0.9398266308972536</v>
       </c>
     </row>
   </sheetData>

--- a/0_data/9_evaluation/distances/a1/a1_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/a1/a1_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.90379825653798</v>
+        <v>72.32002490660024</v>
       </c>
       <c r="C2" t="n">
         <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.426064757160648</v>
+        <v>3.427384806973848</v>
       </c>
       <c r="E2" t="n">
         <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>6.020622665006226</v>
+        <v>6.023723536737235</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008468244084682441</v>
+        <v>0.008455790784557908</v>
       </c>
       <c r="H2" t="n">
-        <v>2.397770859277708</v>
+        <v>2.388418430884184</v>
       </c>
       <c r="I2" t="n">
-        <v>5.936488169364882</v>
+        <v>124.4831880448319</v>
       </c>
       <c r="J2" t="n">
-        <v>337.4308841843089</v>
+        <v>337.398505603985</v>
       </c>
       <c r="K2" t="n">
-        <v>5.658555417185553</v>
+        <v>5.661469489414695</v>
       </c>
       <c r="L2" t="n">
-        <v>3.006226650062267</v>
+        <v>3.005217932752179</v>
       </c>
       <c r="M2" t="n">
-        <v>4.87225404732254</v>
+        <v>4.837895392278954</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[79.54794520547945, 26.615193026151932, 119.90037359900374, 47.342465753424655, 13.165628891656288, 22.998754669987548, 0.2129514321295143, 14.250311332503113, 3.25653798256538, 4.266500622665006, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[79.03113325031133, 26.998754669987548, 121.60398505603985, 47.21793275217933, 12.58530510585305, 22.265255292652554, 0.1917808219178082, 14.12826899128269, 3.2391033623910337, 4.247820672478206, 1.6874221668742218, 0.12702366127023662, 2.7148194271481945, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[61.74595267745953, 1.1718555417185554, 58.93648816936488, 1.0087173100871731, 65.3175591531756, 13.176836861768368, 1.5031133250311333, 53.34620174346202, 1.4333748443337484, 57.05230386052304, 0.8194271481942715, 21.919053549190537]</t>
+          <t>[30.14819427148194, 24.541718555417187, 32.04607721046077, 26.201743462017436, 30.27895392278954, 28.179327521793276, 25.910336239103362, 32.47571606475716, 22.805728518057286, 30.58156911581569, 25.023661270236612, 29.205479452054796]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[11.666251556662516, 71.21793275217932, 148.82814445828146, 24.763387297633873, 40.52926525529265, 3.1805728518057284, 9.570361145703611, 2.2577833125778333, 8.5093399750934, 1.1095890410958904, 2.4420921544209215, 0.6313823163138231, 3.4221668742216687, 0.5255292652552926, 1.7036114570361145, 0.42092154420921546, 3.24906600249066, 0.24283935242839352, 0.6973848069738481, 0.1581569115815691, 0.45828144458281445, 0.0759651307596513, 0.17683686176836863, 0.031133250311332503, 0.3026151930261519, 0.0224159402241594, 0.0647571606475716, 0.014943960149439602, 0.10211706102117062, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
+          <t>[7.661270236612703, 78.26276463262765, 146.58779576587796, 24.058530510585307, 40.43586550435865, 3.1892901618929015, 9.550435865504358, 2.2552926525529267, 8.511830635118306, 1.108343711083437, 2.4458281444582815, 0.6301369863013698, 3.4221668742216687, 0.5255292652552926, 1.706102117061021, 0.41967621419676215, 3.2428393524283936, 0.23661270236612703, 0.6961394769613948, 0.1569115815691158, 0.45828144458281445, 0.06973848069738481, 0.17683686176836863, 0.031133250311332503, 0.3001245330012453, 0.0224159402241594, 0.0647571606475716, 0.012453300124533, 0.10336239103362391, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[4.204234122042341, 113.33001245330013, 59.40722291407223, 77.02366127023662, 13.826899128268991, 17.907845579078455, 0.0, 21.01120797011208, 0.0, 4.919053549190536, 2.4782067247820674, 4.731008717310087, 1.775840597758406, 1.86799501867995, 0.0, 4.171855541718555, 0.0, 1.273972602739726, 0.6376089663760897, 1.4408468244084682, 0.635118306351183, 0.7447073474470735, 0.0, 1.5865504358655043, 0.0, 0.5491905354919053, 0.28268991282689915, 0.6052303860523038, 0.24533001245330013, 0.3125778331257783, 0.0, 0.797011207970112, 0.0062266500622665, 0.2054794520547945, 0.0859277708592777, 0.273972602739726, 0.038605230386052306, 0.08841843088418432, 0.0012453300124533001, 0.21419676214196762, 0.0049813200498132005, 0.048567870485678705, 0.0448318804483188, 0.09713574097135741, 0.029887920298879204, 0.0273972602739726, 0.0012453300124533001, 0.12577833125778332, 0.0, 0.026151930261519303, 0.0186799501867995, 0.0448318804483188, 0.009962640099626401, 0.012453300124533, 0.0012453300124533001, 0.047322540473225407, 0.0, 0.012453300124533, 0.008717310087173101, 0.0224159402241594, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.15317559153175592]</t>
+          <t>[7.043586550435865, 119.93399750933997, 49.99003735990038, 76.98505603985056, 13.828144458281445, 17.90535491905355, 0.0062266500622665, 21.001245330012452, 0.0012453300124533001, 4.914072229140722, 2.476961394769614, 4.7272727272727275, 1.7795765877957659, 1.8655043586550435, 0.0037359900373599006, 4.168119551681196, 0.0012453300124533001, 1.273972602739726, 0.6363636363636364, 1.4371108343711083, 0.6376089663760897, 0.7447073474470735, 0.0, 1.5840597758405977, 0.0, 0.5491905354919053, 0.28144458281444584, 0.6052303860523038, 0.24408468244084683, 0.3125778331257783, 0.0, 0.7982565379825654, 0.0, 0.2054794520547945, 0.0859277708592777, 0.2777085927770859, 0.039850560398505604, 0.08841843088418432, 0.0, 0.21544209215442092, 0.0, 0.049813200498132, 0.04234122042341221, 0.099626400996264, 0.029887920298879204, 0.0273972602739726, 0.0, 0.1232876712328767, 0.0, 0.026151930261519303, 0.0224159402241594, 0.047322540473225407, 0.009962640099626401, 0.012453300124533, 0.0, 0.05105853051058531, 0.0, 0.012453300124533, 0.009962640099626401, 0.024906600249066, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.14694894146948942]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[15.838107098381071, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.24159402241594, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.26774595267745954, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 13.892901618929017, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19427148194271482, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.815691158156912, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 15.647571606475717, 4.443337484433375, 0.3586550435865504, 11.643835616438356, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3138231631382316], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.019925280199253, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.29514321295143214, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.564134495641344, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.386052303860523, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.14321295143213, 0.0448318804483188, 5.469489414694894], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.136986301369863, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.0759651307596513, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.773349937733499, 0.026151930261519303, 3.829389788293898]]</t>
+          <t>[[7.108343711083437, 0.8692403486924035, 5.4458281444582815, 2.1556662515566627, 0.7870485678704857, 1.4184308841843087, 0.019925280199252802, 1.887920298879203, 0.6313823163138231, 2.8617683686176836, 5.102117061021171, 1.7471980074719802], [1.0523038605230386, 5.906600249066003, 1.149439601494396, 4.331257783312578, 1.884184308841843, 0.5367372353673724, 1.1755915317559154, 0.0112079701120797, 1.211706102117061, 0.6973848069738481, 1.8032378580323787, 4.701120797011208], [6.3300124533001245, 1.3960149439601495, 7.851805728518057, 1.0062266500622665, 5.6313823163138235, 2.1257783312577834, 0.7858032378580324, 1.8854296388542964, 0.0136986301369863, 1.7447073474470736, 0.564134495641345, 2.6251556662515565], [2.232876712328767, 4.877957658779577, 1.2017434620174345, 6.325031133250311, 1.1220423412204235, 4.866749688667497, 1.7509339975093399, 0.6363636363636364, 1.1606475716064757, 0.0186799501867995, 1.290161892901619, 0.6413449564134496], [0.8194271481942715, 1.9066002490660026, 6.731008717310087, 1.3138231631382316, 7.037359900373599, 1.1232876712328768, 4.606475716064757, 2.4744707347447075, 0.5990037359900373, 1.7982565379825655, 0.0161892901618929, 1.775840597758406], [1.4383561643835616, 0.6438356164383562, 2.3935242839352426, 5.364881693648817, 1.3810709838107098, 6.8816936488169365, 0.7471980074719801, 5.2453300124533, 1.8480697384806974, 0.6089663760896638, 1.5205479452054795, 0.017434620174346202], [0.021170610211706103, 1.3549190535491906, 0.9551681195516812, 1.9414694894146949, 5.442092154420922, 0.9215442092154421, 6.273972602739726, 1.2714819427148194, 3.5541718555417185, 1.9825653798256537, 0.39352428393524286, 1.729763387297634], [1.7808219178082192, 0.0186799501867995, 1.526774595267746, 0.688667496886675, 2.8443337484433373, 6.057285180572852, 1.5703611457036115, 8.448318804483188, 0.8655043586550436, 5.74346201743462, 1.983810709838107, 0.8480697384806973], [0.5130759651307597, 1.0635118306351183, 0.012453300124533, 1.261519302615193, 0.5927770859277709, 2.019925280199253, 4.453300124533001, 1.082191780821918, 5.2640099626401, 0.7646326276463262, 3.980074719800747, 1.729763387297634], [2.712328767123288, 0.5616438356164384, 1.7783312577833126, 0.0136986301369863, 1.917808219178082, 0.7571606475716065, 2.24906600249066, 6.488169364881694, 1.0610211706102117, 6.9775840597758405, 0.9265255292652553, 5.057285180572852], [4.627646326276463, 1.6127023661270237, 0.5454545454545454, 1.2179327521793275, 0.008717310087173101, 1.3748443337484433, 0.6114570361145704, 2.032378580323786, 4.530510585305106, 1.2042341220423411, 6.306351183063512, 0.8754669987546699], [1.4346201743462017, 4.259028642590287, 2.368617683686177, 0.5105853051058531, 1.5342465753424657, 0.019925280199252802, 1.6002490660024906, 0.9115815691158157, 1.9975093399750934, 6.070983810709838, 1.049813200498132, 7.364881693648817]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[[0.0460772104607721, 0.9302615193026152, 0.6824408468244084, 1.7770859277708593, 0.11830635118306351, 0.14819427148194272, 0.0, 0.3163138231631382, 0.0, 0.014943960149439602, 0.026151930261519303, 0.029887920298879204, 0.008717310087173101, 0.012453300124533, 0.0, 0.021170610211706103, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.6562889165628891, 60.18804483188045, 16.866749688667497, 16.59526774595268, 3.4632627646326277, 5.72851805728518, 0.0, 3.1818181818181817, 0.0, 1.5790784557907847, 0.6662515566625156, 0.8418430884184309, 0.46077210460772106, 0.6201743462017435, 0.0, 0.7434620174346201, 0.0, 0.30635118306351183, 0.16189290161892902, 0.1780821917808219, 0.0647571606475716, 0.16687422166874222, 0.0, 0.2590286425902864, 0.0, 0.09464508094645081, 0.0410958904109589, 0.07970112079701121, 0.06351183063511831, 0.06351183063511831, 0.0, 0.10211706102117062, 0.0, 0.039850560398505604, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21544209215442092, 16.1706102117061, 20.91780821917808, 9.947696139476962, 2.6039850560398508, 2.5006226650062264, 0.0, 2.663760896637609, 0.0, 0.7285180572851806, 0.5417185554171855, 0.5691158156911582, 0.22042341220423411, 0.286425902864259, 0.0, 0.5541718555417185, 0.0, 0.20298879202988793, 0.11706102117061021, 0.2403486924034869, 0.13449564134495642, 0.09713574097135741, 0.0, 0.20921544209215442, 0.0, 0.062266500622665005, 0.0547945205479452, 0.05977584059775841, 0.0361145703611457, 0.04234122042341221, 0.0, 0.06102117061021171, 0.0049813200498132005, 0.0323785803237858, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4819427148194273, 15.643835616438356, 8.905354919053549, 27.576587795765878, 3.232876712328767, 3.5305105853051058, 0.0, 6.2640099626401, 0.0, 1.2627646326276463, 0.6413449564134496, 1.7334993773349938, 0.5442092154420921, 0.5242839352428393, 0.0, 1.3872976338729763, 0.0, 0.41344956413449563, 0.1581569115815691, 0.4931506849315068, 0.15940224159402241, 0.21419676214196762, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.074719800747198, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11083437110834371, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.014943960149439602, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.037359900373599], [0.1917808219178082, 2.983810709838107, 2.247820672478207, 3.3262764632627646, 1.6413449564134495, 0.9190535491905355, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2590286425902864, 0.11083437110834371, 0.08841843088418432, 0.0, 0.22914072229140722, 0.0, 0.05977584059775841, 0.037359900373599, 0.06724782067247821, 0.033623910336239106, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.21793275217932753, 4.850560398505604, 2.4919053549190537, 3.5541718555417185, 0.9315068493150684, 2.4259028642590286, 0.0, 1.1668742216687422, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.06724782067247821, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.6463262764632627, 2.220423412204234, 5.180572851805729, 0.7708592777085927, 1.0049813200498132, 0.0, 4.199252801992528, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6127023661270237, 0.14570361145703611, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11207970112079702, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.009962640099626401, 0.014943960149439602, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0049813200498132005, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.04234122042341221], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 1.933997509339975, 0.763387297633873, 1.211706102117061, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.009962640099626401], [0.0037359900373599006, 0.7658779576587795, 0.6811955168119551, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.14196762141967623, 1.2104607721046077, 0.6948941469489415, 1.6376089663760898, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29389788293897884, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11955168119551682, 0.021170610211706103, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.5828144458281445, 0.3125778331257783, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0, 0.0448318804483188, 0.014943960149439602, 0.009962640099626401, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6425902864259029, 0.3424657534246575, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9115815691158157, 0.6264009962640099, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.4396014943960149, 0.18306351183063513, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0, 0.062266500622665005, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.1930261519302615, 0.1357409713574097, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.05105853051058531, 0.31880448318804483, 0.273972602739726, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10211706102117062, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22042341220423411, 0.0921544209215442, 0.1643835616438356, 0.028642590286425903, 0.034869240348692404, 0.0, 0.021170610211706103, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2266500622665006, 0.1295143212951432, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.33499377334993774, 0.2054794520547945, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.16189290161892902, 0.0660024906600249, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06351183063511831, 0.039850560398505604, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.11830635118306351, 0.0647571606475716, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0037359900373599006, 0.053549190535491904, 0.0410958904109589, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13325031133250312, 0.07970112079701121, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09339975093399751, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.007471980074719801, 0.0024906600249066002, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.026151930261519303, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.019925280199252802, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0,</t>
+          <t>[[0.047322540473225407, 2.800747198007472, 1.2627646326276463, 2.019925280199253, 0.1780821917808219, 0.18057285180572852, 0.0, 0.33374844333748444, 0.0, 0.023661270236612703, 0.028642590286425903, 0.037359900373599, 0.0161892901618929, 0.012453300124533, 0.0, 0.026151930261519303, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0024906600249066002, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0], [3.5043586550435863, 64.20298879202988, 15.627646326276464, 16.869240348692404, 3.795765877957659, 5.833125778331258, 0.0, 3.2640099626401, 0.0, 1.63013698630137, 0.684931506849315, 0.8592777085927771, 0.46450809464508097, 0.6264009962640099, 0.0, 0.7584059775840598, 0.0, 0.3125778331257783, 0.16936488169364883, 0.20298879202988793, 0.0647571606475716, 0.16811955168119552, 0.0, 0.2714819427148194, 0.0, 0.09464508094645081, 0.048567870485678705, 0.07970112079701121, 0.0647571606475716, 0.06351183063511831, 0.0, 0.10460772104607721, 0.0, 0.048567870485678705, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.009962640099626401, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0037359900373599006, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21170610211706103, 14.932752179327522, 14.090909090909092, 9.455790784557907, 2.2141967621419676, 2.3636363636363638, 0.0, 2.564134495641345, 0.0, 0.6687422166874222, 0.5205479452054794, 0.5454545454545454, 0.20921544209215442, 0.28019925280199254, 0.0, 0.5342465753424658, 0.0, 0.19676214196762143, 0.1095890410958904, 0.21544209215442092, 0.1307596513075965, 0.09464508094645081, 0.0, 0.19676214196762143, 0.0, 0.062266500622665005, 0.047322540473225407, 0.05977584059775841, 0.033623910336239106, 0.04234122042341221, 0.0, 0.058530510585305104, 0.0, 0.023661270236612703, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0049813200498132005, 0.0, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4744707347447075, 16.201743462017436, 8.35865504358655, 27.530510585305105, 3.2353673723536738, 3.5305105853051058, 0.0024906600249066002, 6.261519302615193, 0.0, 1.2590286425902864, 0.6413449564134496, 1.7322540473225405, 0.5442092154420921, 0.523038605230386, 0.0012453300124533001, 1.3872976338729763, 0.0, 0.4122042341220423, 0.1569115815691158, 0.4919053549190536, 0.16064757160647572, 0.21419676214196762, 0.0, 0.47322540473225405, 0.0, 0.16811955168119552, 0.07347447073474471, 0.24533001245330013, 0.06724782067247821, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11457036114570361, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.017434620174346202, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.0410958904109589], [0.1917808219178082, 3.348692403486924, 1.8866749688667497, 3.328767123287671, 1.6363636363636365, 0.9202988792029888, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2577833125778331, 0.11207970112079702, 0.08841843088418432, 0.0024906600249066002, 0.2266500622665006, 0.0, 0.05977584059775841, 0.037359900373599, 0.0660024906600249, 0.034869240348692404, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.2191780821917808, 5.021170610211706, 2.3225404732254047, 3.551681195516812, 0.9302615193026152, 2.4246575342465753, 0.0012453300124533001, 1.1643835616438356, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.0660024906600249, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.911581569115816, 1.9601494396014945, 5.174346201743462, 0.7708592777085927, 1.0024906600249066, 0.0, 4.196762141967621, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6102117061021171, 0.14694894146948942, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11083437110834371, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.0112079701120797, 0.012453300124533, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0062266500622665, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0410958904109589], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 2.067247820672478, 0.6276463262764632, 1.2104607721046077, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.008717310087173101], [0.0062266500622665, 0.8841843088418431, 0.5616438356164384, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.14072229140722292, 1.2889165628891657, 0.6189290161892902, 1.6363636363636365, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29265255292652553, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11706102117061021, 0.0224159402241594, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.6301369863013698, 0.26650062266500624, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0012453300124533001, 0.0448318804483188, 0.014943960149439602, 0.0112079701120797, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6948941469489415, 0.2889165628891656, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9663760896637609, 0.5678704856787049, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.46450809464508097, 0.1569115815691158, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0012453300124533001, 0.06102117061021171, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.20921544209215442, 0.11955168119551682, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.049813200498132, 0.3287671232876712, 0.2627646326276463, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10087173100871731, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22914072229140722, 0.08841843088418432, 0.16189290161892902, 0.028642590286425903, 0.034869240348692404, 0.0, 0.0224159402241594, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2403486924034869, 0.11581569115815692, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.34620174346201743, 0.1930261519302615, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.1656288916562889, 0.062266500622665005, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.0647571606475716, 0.038605230386052306, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.12079701120797011, 0.062266500622665005, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0037359900373599006, 0.05105853051058531, 0.043586550435865505, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1320049813200498, 0.08094645080946451, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09713574097135741, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.008717310087173101, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.024906600249066, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0024906600249066002, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0024906600249066002, 0.021170610211706103, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.590809757418174</v>
+        <v>5.032195795070737</v>
       </c>
       <c r="C3" t="n">
         <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5906991495010002</v>
+        <v>0.5913263771405545</v>
       </c>
       <c r="E3" t="n">
         <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.382981190106598</v>
+        <v>1.384184357131292</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02093743096043811</v>
+        <v>0.02093949002023239</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4295189899033051</v>
+        <v>0.4294925781998982</v>
       </c>
       <c r="I3" t="n">
-        <v>15.22384905978332</v>
+        <v>105.6954465715101</v>
       </c>
       <c r="J3" t="n">
-        <v>81.5531434743672</v>
+        <v>81.54435932815957</v>
       </c>
       <c r="K3" t="n">
-        <v>1.539005082169607</v>
+        <v>1.542095687964101</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8673466694570817</v>
+        <v>0.8673732097594604</v>
       </c>
       <c r="M3" t="n">
-        <v>1.743405014990587</v>
+        <v>1.770096261819055</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[43.96518638746081, 25.800607565347597, 38.07611878564085, 24.63620289428403, 9.277308741289549, 12.653983014070555, 0.8917675963837053, 10.195149838372064, 4.666612977517225, 5.338710445776931, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[44.31909401412168, 26.16964957441461, 38.629479629527744, 24.973930661050826, 9.152159616948792, 12.128129803532726, 0.8339509360070744, 10.109721120688956, 4.695204643369049, 5.305332697048505, 2.8578926485945755, 0.6611846292908672, 3.7038053281541234, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[26.811276561682035, 4.202277140987607, 24.36955414520669, 3.7431446643987547, 22.738045383573084, 16.48883123885517, 5.317180291040652, 25.73264582035267, 4.525173197895207, 27.38603245536218, 3.265125152597835, 20.031100926674434]</t>
+          <t>[32.9334845118805, 31.647367285055548, 33.01332413646799, 33.830898018250146, 32.8732331454671, 32.68636911350421, 31.84374882124133, 33.801749246652605, 30.682435084683146, 33.00159261078117, 31.110667974394786, 33.098500037317635]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[21.682888198281276, 72.77347495650994, 85.86715596282875, 32.414751565248764, 39.18357444052118, 5.031014264403113, 10.13745963811475, 4.112617473526721, 10.600563905098909, 2.530106678819317, 4.387809627990111, 1.7008126274108673, 5.283717019416239, 1.3777391600385327, 2.9671215210227353, 1.0737027088168662, 5.612673215326598, 0.9334294661166349, 1.957030468379365, 0.7754917069724199, 1.5660439598479532, 0.4384481393377636, 0.7976375185476675, 0.33519509521814744, 1.330485781046696, 0.15621819955732857, 0.3359576332150764, 0.131191837510562, 0.416990344842046, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
+          <t>[19.200192814527096, 79.9311001297264, 86.71882793720533, 32.26698726378019, 39.236255489009736, 5.076896598584383, 10.126639427099418, 4.112470026799988, 10.600443939631395, 2.530406397086378, 4.3926795103390734, 1.7009083665490732, 5.2858378220952815, 1.3786427576165583, 2.9682084905495536, 1.07361026379461, 5.608395939485978, 0.923637016457183, 1.9571556713165779, 0.7749415602618336, 1.5660439598479532, 0.42653961853269734, 0.7976375185476675, 0.33519509521814744, 1.330113894853949, 0.15621819955732857, 0.3359576332150764, 0.12160952045562655, 0.418175068572185, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[10.239139713482235, 91.78844013187569, 68.24105539540207, 60.484269750223184, 16.852629823817313, 17.00425485442499, 0.0, 25.59437640424412, 0.0, 5.5202264198940165, 3.913505786863658, 6.218709756636351, 2.8897662234853323, 2.965137297495919, 0.0, 6.031495164290983, 0.0, 2.251255641720904, 1.384644578668003, 2.500296426799668, 1.627935480132149, 1.7065783665944962, 0.0, 2.9648700186569394, 0.0, 1.3113200852338929, 0.9461394257385434, 1.5852126572138443, 1.0614201274036805, 1.0133252683535194, 0.0, 2.0853258364601444, 0.14536794364889696, 0.8594184734990764, 0.5433521981379187, 1.1660013667634472, 0.31917397641484585, 0.5383456641009708, 0.03526725344584421, 1.1042531592621454, 0.08629696706884245, 0.3293562403611494, 0.3124363991146585, 0.47401127641350865, 0.2807273285898941, 0.24802397213202168, 0.03526725344584419, 0.6661130429448666, 0.0, 0.21305700411948367, 0.17545458036868317, 0.3043602855858842, 0.11114875584899048, 0.13145164696706488, 0.03526725344584421, 0.30805246003646064, 0.0, 0.1216095204556271, 0.11671605991392227, 0.1853827553268103, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7860548292405346]</t>
+          <t>[12.82798711365942, 94.103421431507, 57.92075920232701, 60.494370750456966, 16.839890816418453, 17.003801749609853, 0.10568443093039571, 25.597638598346183, 0.035267253445844, 5.519699915116759, 3.914771302825827, 6.208024446702059, 2.8881138850900765, 2.9646053313264136, 0.07882063461243541, 6.030671280240247, 0.03526725344584406, 2.251255641720904, 1.3847677767551712, 2.498710526015691, 1.627726837204949, 1.7065783665944962, 0.0, 2.96494167894833, 0.0, 1.3113200852338929, 0.9432156150600347, 1.5852126572138443, 1.0599463097857305, 1.0133252683535194, 0.0, 2.0911119385789925, 0.0, 0.8565154946302311, 0.5433521981379187, 1.1784020375726163, 0.32863501628982855, 0.5383456641009708, 0.0, 1.1045747270298638, 0.0, 0.33105640935787717, 0.30877655679214755, 0.4864667744977927, 0.2807273285898941, 0.24802397213202168, 0.0, 0.6647076535532884, 0.0, 0.21305700411948367, 0.1919828794384192, 0.3080524600364604, 0.12183885238988879, 0.13145164696706488, 0.0, 0.3174199387179689, 0.0, 0.1216095204556271, 0.12183885238988881, 0.19806620525101934, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7752876981015855]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[15.38889614094686, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374531838009012, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5102120706540463, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.351684682449697, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0932224401431487, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.709959651100379, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.293003373418633, 6.766720617459143, 1.5957241072502508, 9.437619601564657, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.622091358442047], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.232090773697233, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5491334734999171, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.651512150992408, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8057345299852554, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.575731134902835, 0.4151340798331694, 6.932336423044284], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.7992302545651963, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5309430588918022, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.256443839536551, 0.4091889883963065, 7.086691998962943]]</t>
+          <t>[[11.997590776060392, 3.7471899370295105, 9.535696422227993, 5.96163969422672, 2.825031613595803, 3.354780834787427, 0.2536930110518476, 4.155734357899146, 2.35167441622695, 6.649530764530581, 9.177753871632449, 4.828010993805787], [4.109916210230541, 11.286487530248806, 4.13593239751184, 8.800676798781469, 5.323908004394504, 2.21161494432541, 2.9100764507086976, 0.22009600607836, 3.2809518488422014, 2.732914662142555, 5.241480257962126, 8.523666341982336], [10.390480046243162, 4.654978621048339, 11.901492988048744, 3.9326472831270105, 9.503547817936589, 5.6434421092121445, 2.719597746268516, 4.0730349075811025, 0.1759136090349544, 3.680019933047869, 1.900857469707438, 6.299120484135102], [5.991842945740374, 9.820052162358055, 4.322796814888, 13.176177930249414, 4.425956475496443, 8.927600187157102, 5.488149442956291, 2.195835008506002, 3.050483591342437, 0.288250186982405, 3.0948863698903106, 2.41382159226022], [2.9110552657514206, 5.295501394300301, 10.326542586797165, 4.995005795068068, 11.50747654536291, 3.989212496146608, 8.139478866734196, 6.055186907170964, 2.246036831466679, 3.7707198541025755, 0.2796313603096256, 3.897767555257129], [3.4951841320925556, 2.5137571633593283, 5.906878689156752, 9.98430210369429, 4.339771226123096, 11.89104547596133, 2.9180763541012356, 9.288021047470993, 5.5172619985159, 2.44114161942571, 3.6113166116899946, 0.22803485378865546], [0.2608542810616591, 3.2733209778195937, 2.946679760229277, 6.125528829789802, 9.532147696483332, 3.3209507568226506, 11.716011015117244, 4.189891312560363, 7.672661234297638, 5.605076412341876, 1.4131768818773534, 3.9738182144881278], [3.7538564077068273, 0.23065179382894777, 3.4450271605950467, 2.286504582491696, 6.293322254932407, 10.334105167650279, 4.724643877579283, 13.234196865053613, 3.4488748631383483, 9.883830410375344, 5.525981826087712, 2.5529180208223328], [2.05909358190352, 2.828374486769145, 0.186317352022567, 3.1836836803303847, 2.1102366015316294, 5.8386014373397215, 9.135822963137295, 3.9014279313405766, 10.688737213666343, 3.2436383885688, 8.08251970467646, 5.114426480599669], [6.539329043581681, 2.069676288191982, 3.657596364143476, 0.19600402526076519, 4.10396875958609, 2.6637285842323375, 6.001264582333904, 10.639960721058248, 4.1111593663820996, 11.504160085338109, 3.6606801398387883, 9.028898179918144], [8.95871715234031, 4.868961654332907, 2.227723796040667, 2.8762049872580566, 0.1269381686756833, 3.418900629405698, 2.3495248970648266, 5.148983161039355, 8.970131875637394, 4.561808210776914, 11.45072488468592, 3.3339542862655613], [4.400458138601073, 8.136760827568724, 5.9301548206012775, 2.03477244679101, 3.5939287776404627, 0.2585552240459651, 3.7946478580178638, 2.6182428992952764, 5.710316527364313, 10.182210081580614, 3.720296636491089, 12.277513878157253]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[0.5981448522516661, 3.45295632807422, 2.5270694923376387, 6.300793440821469, 0.6876973477766123, 0.7447323369277237, 0.0, 1.8497942697753542, 0.0, 0.1793188734596477, 0.30855548528992865, 0.2717103475530585, 0.10550819217920393, 0.15732614393378672, 0.0, 0.24611577737616433, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.08629696706884259, 0.07053450689168851, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.03526725344584417, 0.0, 0.0, 0.15732614393378422, 0.0, 0.04984432402537798, 0.0, 0.07053450689168823, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0788206346124355], [2.738302585049167, 70.71128224090144, 22.655213696129486, 17.54046955616787, 5.3896337763833975, 7.711873795015497, 0.0, 4.532084945639117, 0.0, 3.0507799705099856, 1.820238860923577, 1.7725294392443114, 1.3220584356286411, 1.754252323622065, 0.0, 1.761336939708725, 0.0, 1.068417673472907, 0.703092194246869, 0.783972582067646, 0.42439999056073824, 0.8407720865311248, 0.0, 0.974214274417964, 0.0, 0.5000709462095569, 0.314933102102731, 0.5124831841471554, 0.475764962637261, 0.3925852250797812, 0.0, 0.5837423826999588, 0.0, 0.3324028188158522, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.10550819217920393, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07053450689168847, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.509193188726742, 22.259469178774047, 38.1841669335804, 15.81004154788268, 5.343967776035741, 4.87818608580641, 0.0, 5.57516457849677, 0.0, 1.9137104253621324, 1.6428843619202245, 1.629779711534943, 0.9599612487248417, 1.050482924194363, 0.0, 1.787737922503338, 0.0, 0.7401598788104239, 0.6342215239818803, 0.9719687063300225, 0.8611400757459441, 0.5606696452134722, 0.0, 0.9126561387276729, 0.0, 0.4693423964887469, 0.5507710446105903, 0.42804947231461904, 0.2951510946817137, 0.4123866665783569, 0.0, 0.41756270010404206, 0.1410690137833764, 0.38843517999213123, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.09315867601128378, 0.03526725344584425, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.12201692367537861, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07882063461243524, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.79025224872956, 16.69416259475453, 14.748738552296453, 42.25260630469924, 5.733545089744422, 4.985908223211347, 0.0, 10.172364455479032, 0.0, 2.673041621445877, 1.8501480360303018, 3.8478162309141517, 1.5873019523659646, 1.4814235619636973, 0.0, 3.502454296199748, 0.0, 1.3074814632420106, 0.6262363335760979, 1.4621468413816456, 0.719412823630801, 0.7852613028241368, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.434382818857992, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.8433578596399137, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.15710912864667462, 0.0, 0.0, 0.0, 0.09315867601128383, 0.0, 0.03526725344584421, 0.0705345068916884, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27078411805582514], [1.1545921920934599, 4.523467181433315, 4.87089657888184, 5.818178619559349, 6.038142290935837, 2.3782269106892384, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8830224067293442, 0.5810795777519577, 0.4770215439931948, 0.0, 0.9572676110035493, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40906389761668716, 0.268968220034349, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3189214849254736, 7.081632816464265, 4.957942341338154, 5.435274475407721, 2.437572460004789, 5.480219294185036, 0.0, 2.7969114023594153, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4210652116157133, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.485143132576206, 4.33210164671944, 9.218316336798773, 2.0339087224555223, 2.35725215070793, 0.0, 12.58961003710107, 0.0, 1.0896658957459893, 0.827813864855967, 2.512868607277693, 0.7401934026317223, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5861761886654182, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12183885238988838, 0.19270853231927834, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.08629696706884352, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3320947487899453], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.2884381535021165, 2.0820778210694506, 2.5613299108819803, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.11114875584899048], [0.10580176033753269, 1.8042378009538727, 1.8926304125042663, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.03526725344584425, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.06100846183768812], [0.8968019082899605, 2.2472986771569854, 1.8740706508790705, 4.05926583446298, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2032749518486976, 0.0, 0.4192306890890823, 0.18285583903340205, 1.0009478935914595, 0.3089372367037806, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.11134392501747215, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.04984432402537779, 0.0, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4383308262770131, 1.1039062104189568, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.0, 0.3998537283987718, 0.17931887345964864, 0.1493877037322834, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7624926493418738, 1.1515444811923943, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.07040246089714865, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.8682382573058716, 1.7424165162679763, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.373934851779479, 0.7284382240640416, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.0, 0.368238841371977, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.6888915297703234, 0.6899060832018447, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5408661936315918, 1.0144571714995214, 1.022612352827793, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7072180787806787, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.994370866289755, 0.5271939544122967, 0.7078121007311813, 0.2601398714280752, 0.2711160947356388, 0.0, 0.21936197425475198, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.8692546216985796, 0.6937997157399078, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.0778458955511716, 0.8752127586281268, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6685926212108927, 0.42858896755180403, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.352470195409574, 0.3398131162956131, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6190830972029179, 0.4273242469283259, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537851], [0.07882063461243573, 0.36451811415950947, 0.29869753715158565, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5849313875394228, 0.5362327985890728, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.035267253445844256, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.14536794364889696, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6676989898681324, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11134392501747085, 0.04984432402537791, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.09953295742310306, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.20102727913036317, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.03526725344584415, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920085, 0.06100846183768903, 0.0, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.035267253445844075, 0.06100846183768882, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.03526725344584415, 0.18566696948481257, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916884, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0,</t>
+          <t>[[0.6032309680582033, 6.975327409365649, 3.720221183872154, 6.527619373807764, 0.9158451897975939, 0.8431224481801997, 0.0, 1.8615047065037715, 0.0, 0.23019412422188812, 0.33910955925753683, 0.31341767474144994, 0.16846512152513995, 0.15732614393378672, 0.0, 0.26514125905531577, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.13639632946543412, 0.07882063461243609, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.049844324025378015, 0.0, 0.0, 0.15732614393378422, 0.0, 0.035267253445844214, 0.0, 0.0788206346124355, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0], [8.405709879967649, 72.05959475702427, 20.568194935471578, 17.376902773029723, 5.627775983506235, 7.722590533674874, 0.0, 4.551357670791479, 0.0, 3.0669472177602466, 1.8510162370652141, 1.7907672375179229, 1.313659666513322, 1.7609010411749433, 0.0, 1.774010084635276, 0.0, 1.0706912630068763, 0.7171327786948001, 0.8439313999635857, 0.42439999056073824, 0.8412644374406971, 0.0, 0.9848269417596358, 0.0, 0.5000709462095569, 0.347748232474827, 0.5124831841471554, 0.47690448987316164, 0.3925852250797812, 0.0, 0.5875556214174019, 0.0, 0.37530536019169786, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.11114875584899017, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07882063461243506, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0352672534458441, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.5072770707759893, 20.358320931630743, 29.010247762871934, 15.594055632661258, 4.656996792399891, 4.6978199259931985, 0.0, 5.479208643976557, 0.0, 1.8172706224216741, 1.6219274847410945, 1.589618761554814, 0.9435181016441375, 1.0408560324790945, 0.0, 1.7756510809048176, 0.0, 0.7359405174955117, 0.6216879008447389, 0.9159772616077364, 0.855187260823239, 0.5588715879927961, 0.0, 0.8947832630765055, 0.0, 0.4693423964887469, 0.5307502425835738, 0.42804947231461904, 0.29119959394370315, 0.4123866665783569, 0.0, 0.41191631560504277, 0.0, 0.3358052641398605, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.08629696706884234, 0.0, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.11687539931905186, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07053450689168836, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.785913986188617, 16.74559913410358, 14.604572346834846, 42.254639373165254, 5.742124995183023, 4.985908223211347, 0.07053450689168837, 10.17291846865618, 0.0, 2.6722414326549044, 1.8514937416250146, 3.848215225741559, 1.5873019523659646, 1.481443452218515, 0.035267253445844166, 3.502454296199748, 0.0, 1.3064455588117678, 0.6255549374186772, 1.4612885120931256, 0.7200010924846098, 0.7852613028241368, 0.0, 1.5853368991127177, 0.0, 0.7371175564715419, 0.43316007904758697, 1.0823329281260705, 0.592994194049528, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.853867858493989, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.16460040793797942, 0.0, 0.0, 0.0, 0.09953295742310303, 0.0, 0.03526725344584421, 0.07882063461243571, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27706843662872715], [1.1545921920934599, 4.910198060166919, 4.338809114918467, 5.819322548060996, 6.02297574618445, 2.3795776827057114, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8826816199582865, 0.5819116806771465, 0.4770215439931948, 0.07053450689168829, 0.9500276516048531, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40774242228737384, 0.27111609473563836, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3201308746463474, 7.132672627004393, 4.846518825823255, 5.433236266421455, 2.4377925842423576, 5.4799750684389394, 0.03526725344584389, 2.7970588916157735, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4197815182120356, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.07053450689168841, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.03526725344584389, 0.0, 0.0, 0.07053450689168837, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.03526725344584393, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.599085172365692, 4.066496587754081, 9.22093505304629, 2.0339087224555223, 2.3572560981317405, 0.0, 12.590044871443677, 0.0, 1.0896658957459893, 0.827813864855967, 2.510996057446287, 0.7407881980057558, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5853501479714571, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12674254048211195, 0.1863173520225677, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.09315867601128312, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3303717586290905], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.3255059105720943, 1.8871216729886218, 2.561189434509863, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.08611706908901777, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.03526725344584386, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.10550819217920301], [0.1270846921973476, 1.9206646903364448, 1.6945075106891834, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.04984432402537849], [0.8879281585710084, 2.2856342079966128, 1.801269885163065, 4.059307859862757, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2030609829080134, 0.0, 0.4192306890890823, 0.18285583903340205, 0.9950038730376165, 0.3108589175095745, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.10568443093039416, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.03526725344584425, 0.03526725344584419, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4834708573047934, 0.9823909550073742, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.035267253445844, 0.3998537283987718, 0.17931887345964864, 0.15341333593459056, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7953340195064404, 1.0414637638293092, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.0610084618376882, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.07053450689168829, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.9082609148330942, 1.645042765943019, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.03526725344584406, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.3847319384421342, 0.6826703307425074, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.03526725344584393, 0.3667533886955593, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.7222248434137256, 0.6512016276906024, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5375182489648086, 1.081490069960067, 0.9991008800479312, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7065160075870341, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.9967806879392012, 0.5242824562264862, 0.7048611874942385, 0.2601398714280752, 0.2711160947356388, 0.0, 0.2220601858100623, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.9070175438570212, 0.6509205481874648, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.085254912820109, 0.8651844557832804, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6723236758014889, 0.421830611405086, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.3540068240020386, 0.3381202853201767, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6226151910334707, 0.41886800390275897, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07882063461243573, 0.3579841864799267, 0.30657890269881094, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5841487212116812, 0.5372065571572824, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.04984432402537853, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6810213304722661, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.10568443093039584, 0.035267253445844256, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.10550819217920367, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.1980662052510194, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0352672534458441, 0.0705345068916883, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920135, 0.06100846183768903, 0.03526725344584425, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.04984432402537808, 0.04984432402537803, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.04984432402537787, 0.19533825956355105, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07882063461243571, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.2972</v>
+        <v>71.81439999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>13.87</v>
+        <v>15.58</v>
       </c>
       <c r="D4" t="n">
-        <v>3.4351</v>
+        <v>3.6153</v>
       </c>
       <c r="E4" t="n">
-        <v>21.67</v>
+        <v>25.06</v>
       </c>
       <c r="F4" t="n">
-        <v>5.994300000000001</v>
+        <v>6.535899999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0172</v>
+        <v>0.0194</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3987</v>
+        <v>2.4816</v>
       </c>
       <c r="I4" t="n">
-        <v>5.3</v>
+        <v>119.55</v>
       </c>
       <c r="J4" t="n">
-        <v>322.05</v>
+        <v>323.41</v>
       </c>
       <c r="K4" t="n">
-        <v>5.929499999999999</v>
+        <v>6.401400000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>2.8369</v>
+        <v>2.6126</v>
       </c>
       <c r="M4" t="n">
-        <v>4.5751</v>
+        <v>4.2491</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[77.59, 26.26, 107.12, 45.27, 14.68, 24.05, 0.83, 13.82, 2.8, 3.94, 1.82, 0.26, 1.86, 0.03, 0.34, 0.12, 0.08, 0.1, 0.01, 0.04, 0.0, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[81.78, 17.98, 102.56, 47.44, 18.83, 29.97, 1.01, 13.57, 2.17, 2.96, 1.57, 0.13, 1.04, 0.04, 0.34, 0.14, 0.05, 0.07, 0.0, 0.03, 0.03, 0.0, 0.01, 0.0, 0.01, 0.01, 0.03, 0.01, 0.02, 0.05, 0.02, 0.06, 0.02, 0.13, 0.06, 0.01, 0.08, 0.04, 0.05, 0.02, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[59.78, 0.82, 53.39, 0.77, 63.51, 13.24, 2.41, 51.91, 0.89, 53.69, 0.41, 21.23]</t>
+          <t>[28.24, 23.33, 27.49, 28.3, 30.42, 29.61, 21.88, 32.58, 20.87, 29.23, 25.17, 26.29]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[9.82, 71.96, 139.05, 25.51, 38.55, 3.75, 8.83, 2.8, 7.4, 1.11, 2.66, 0.67, 2.51, 0.57, 1.74, 0.5, 2.13, 0.22, 0.73, 0.13, 0.28, 0.01, 0.08, 0.01, 0.16, 0.02, 0.06, 0.01, 0.04, 0.0, 0.03, 0.0]</t>
+          <t>[7.34, 90.81, 142.74, 21.14, 28.99, 4.48, 6.78, 2.7, 5.35, 1.21, 2.14, 0.98, 2.52, 0.87, 1.24, 0.68, 1.52, 0.28, 0.43, 0.13, 0.26, 0.03, 0.09, 0.04, 0.08, 0.04, 0.03, 0.02, 0.04, 0.01, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[4.22, 113.32, 64.25, 64.38, 14.97, 17.28, 0.0, 16.11, 0.0, 4.61, 2.74, 3.31, 1.86, 1.61, 0.0, 3.12, 0.0, 1.14, 0.58, 1.08, 0.44, 0.87, 0.0, 1.54, 0.0, 0.46, 0.27, 0.53, 0.26, 0.42, 0.0, 0.78, 0.0, 0.27, 0.08, 0.3, 0.06, 0.07, 0.0, 0.16, 0.0, 0.07, 0.08, 0.07, 0.03, 0.03, 0.0, 0.03, 0.0, 0.03, 0.03, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.17]</t>
+          <t>[8.26, 129.38, 48.13, 71.21, 11.59, 15.21, 0.01, 16.39, 0.0, 3.29, 1.99, 3.37, 1.59, 1.74, 0.0, 3.22, 0.0, 1.03, 0.43, 1.01, 0.47, 0.57, 0.0, 1.27, 0.0, 0.42, 0.2, 0.35, 0.17, 0.23, 0.0, 0.46, 0.0, 0.1, 0.12, 0.23, 0.02, 0.05, 0.0, 0.13, 0.0, 0.02, 0.03, 0.04, 0.02, 0.03, 0.0, 0.1, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.11]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[16.39, 0.11, 13.98, 0.04, 5.47, 0.96, 0.06, 4.54, 0.1, 10.01, 0.03, 7.97], [0.05, 0.12, 0.12, 0.08, 0.08, 0.03, 0.07, 0.07, 0.05, 0.08, 0.03, 0.03], [14.98, 0.18, 12.23, 0.05, 16.1, 1.05, 0.23, 3.38, 0.05, 3.06, 0.07, 1.85], [0.06, 0.08, 0.08, 0.07, 0.11, 0.1, 0.13, 0.05, 0.03, 0.03, 0.01, 0.01], [6.11, 0.07, 17.86, 0.21, 16.48, 4.41, 0.52, 10.86, 0.04, 5.46, 0.04, 1.21], [0.66, 0.03, 1.1, 0.12, 5.12, 2.91, 0.05, 2.22, 0.19, 0.69, 0.04, 0.1], [0.14, 0.04, 0.31, 0.05, 0.45, 0.1, 0.59, 0.42, 0.02, 0.23, 0.02, 0.03], [4.59, 0.04, 3.9, 0.04, 11.95, 2.65, 0.41, 12.88, 0.1, 13.97, 0.01, 1.17], [0.05, 0.0, 0.05, 0.05, 0.08, 0.19, 0.02, 0.1, 0.13, 0.07, 0.07, 0.07], [9.93, 0.07, 2.61, 0.03, 6.32, 0.61, 0.27, 14.95, 0.11, 13.77, 0.02, 4.85], [0.02, 0.05, 0.05, 0.02, 0.05, 0.03, 0.02, 0.02, 0.04, 0.06, 0.03, 0.02], [6.65, 0.03, 1.06, 0.01, 0.91, 0.18, 0.04, 2.22, 0.03, 6.11, 0.04, 3.87]]</t>
+          <t>[[7.02, 0.44, 4.51, 1.87, 1.04, 1.73, 0.1, 2.32, 0.87, 2.99, 4.23, 1.06], [0.53, 5.84, 0.34, 4.17, 2.11, 0.73, 1.33, 0.11, 1.41, 0.92, 1.92, 3.86], [5.53, 0.32, 6.48, 0.49, 4.42, 2.46, 0.93, 2.26, 0.09, 1.96, 0.56, 1.91], [1.89, 4.4, 0.66, 7.24, 2.1, 4.56, 2.06, 0.84, 1.58, 0.06, 1.67, 1.16], [1.02, 2.01, 5.01, 1.99, 8.18, 0.57, 3.35, 2.81, 1.16, 2.1, 0.11, 1.99], [1.87, 0.87, 2.67, 4.71, 0.69, 8.49, 0.68, 4.97, 1.58, 0.86, 2.06, 0.1], [0.1, 1.79, 0.81, 2.36, 4.15, 0.7, 4.97, 0.55, 2.68, 1.64, 0.62, 1.42], [2.12, 0.04, 2.3, 0.83, 2.78, 5.82, 0.77, 8.84, 0.53, 5.12, 2.1, 1.17], [0.52, 1.36, 0.02, 1.5, 0.98, 1.67, 3.77, 0.68, 4.78, 0.42, 3.18, 1.95], [2.54, 0.87, 2.3, 0.05, 2.03, 0.87, 1.91, 5.73, 0.65, 7.36, 0.57, 4.29], [3.98, 1.66, 0.58, 1.82, 0.16, 1.87, 0.63, 2.25, 3.61, 0.8, 7.06, 0.68], [0.99, 3.67, 1.7, 1.16, 1.73, 0.09, 1.28, 1.13, 1.86, 4.9, 1.01, 6.65]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.08, 0.73, 0.88, 1.77, 0.11, 0.13, 0.0, 0.28, 0.0, 0.02, 0.02, 0.03, 0.02, 0.0, 0.0, 0.03, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.57, 63.92, 17.06, 14.92, 2.9, 4.37, 0.0, 2.61, 0.0, 1.59, 0.7, 0.81, 0.47, 0.52, 0.0, 0.67, 0.0, 0.32, 0.12, 0.2, 0.07, 0.24, 0.0, 0.26, 0.0, 0.08, 0.05, 0.07, 0.05, 0.11, 0.0, 0.13, 0.0, 0.05, 0.0, 0.02, 0.01, 0.02, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01], [0.42, 16.31, 23.15, 10.75, 2.81, 2.73, 0.0, 3.31, 0.0, 0.7, 0.55, 0.45, 0.33, 0.29, 0.0, 0.46, 0.0, 0.14, 0.16, 0.26, 0.1, 0.09, 0.0, 0.31, 0.0, 0.12, 0.04, 0.05, 0.03, 0.04, 0.0, 0.13, 0.0, 0.05, 0.03, 0.07, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.01, 0.03, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.05], [2.28, 14.14, 10.2, 20.86, 3.31, 3.2, 0.0, 4.06, 0.0, 0.8, 0.73, 0.81, 0.34, 0.38, 0.0, 0.78, 0.0, 0.23, 0.13, 0.28, 0.07, 0.19, 0.0, 0.32, 0.0, 0.04, 0.04, 0.18, 0.07, 0.09, 0.0, 0.23, 0.0, 0.04, 0.03, 0.05, 0.02, 0.01, 0.0, 0.04, 0.0, 0.02, 0.05, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06], [0.11, 2.63, 2.6, 3.31, 2.31, 1.2, 0.0, 0.96, 0.0, 0.25, 0.1, 0.18, 0.19, 0.07, 0.0, 0.34, 0.0, 0.06, 0.03, 0.04, 0.05, 0.06, 0.0, 0.1, 0.0, 0.06, 0.03, 0.02, 0.02, 0.02, 0.0, 0.08, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.23, 4.4, 2.6, 2.77, 1.26, 2.25, 0.0, 1.3, 0.0, 0.45, 0.23, 0.14, 0.2, 0.13, 0.0, 0.25, 0.0, 0.13, 0.02, 0.04, 0.04, 0.1, 0.0, 0.15, 0.0, 0.05, 0.05, 0.08, 0.03, 0.05, 0.0, 0.07, 0.0, 0.05, 0.0, 0.02, 0.02, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13, 3.04, 2.56, 3.88, 0.85, 1.26, 0.0, 1.99, 0.0, 0.34, 0.19, 0.37, 0.12, 0.03, 0.0, 0.27, 0.0, 0.07, 0.06, 0.13, 0.02, 0.07, 0.0, 0.22, 0.0, 0.03, 0.02, 0.09, 0.04, 0.03, 0.0, 0.07, 0.0, 0.01, 0.01, 0.07, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 1.7, 0.69, 0.73, 0.28, 0.46, 0.0, 0.17, 0.0, 0.08, 0.07, 0.03, 0.05, 0.01, 0.0, 0.07, 0.0, 0.02, 0.0, 0.01, 0.03, 0.02, 0.0, 0.03, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.72, 0.74, 0.59, 0.15, 0.15, 0.0, 0.14, 0.0, 0.03, 0.0, 0.03, 0.02, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.02, 0.02, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07, 0.93, 0.68, 0.73, 0.11, 0.25, 0.0, 0.11, 0.0, 0.07, 0.0, 0.1, 0.02, 0.02, 0.0, 0.06, 0.0, 0.0, 0.0, 0.03, 0.02, 0.03, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.57, 0.36, 0.35, 0.16, 0.18, 0.0, 0.1, 0.0, 0.04, 0.02, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.48, 0.25, 0.36, 0.05, 0.15, 0.0, 0.07, 0.0, 0.03, 0.0, 0.03, 0.03, 0.01, 0.0, 0.03, 0.0, 0.02, 0.01, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.81, 0.68, 0.83, 0.1, 0.14, 0.0, 0.27, 0.0, 0.02, 0.02, 0.07, 0.0, 0.0, 0.0, 0.03, 0.0, 0.02, 0.02, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.39, 0.22, 0.21, 0.07, 0.07, 0.0, 0.05, 0.0, 0.03, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.16, 0.17, 0.11, 0.02, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.26, 0.25, 0.32, 0.03, 0.05, 0.0, 0.04, 0.0, 0.0, 0.01, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.14, 0.06, 0.09, 0.04, 0.04, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.28, 0.13, 0.16, 0.03, 0.08, 0.0, 0.07, 0.0, 0.02, 0.01, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.37, 0.24, 0.4, 0.07, 0.11, 0.0, 0.11, 0.0, 0.04, 0.05, 0.03, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16, 0.08, 0.07, 0.03, 0.0, 0.0, 0.06, 0.0, 0.01, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.07, 0.07, 0.05, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.11, 0.07, 0.16, 0.04, 0.04, 0.0, 0.05, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.01, 0.1, 0.01, 0.05, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11, 0.06, 0.07, 0.04, 0.06, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.18, 0.07, 0.2, 0.04, 0.09, 0.0, 0.05, 0.0, 0.02, 0.01, 0.05, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1, 0.03, 0.03, 0.04, 0.02, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.04, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.03, 0.04, 0.08, 0.0, 0.02, 0.0, 0.05, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.02, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.03, 0.02, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.02, 0.02, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.01, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.02, 0.02, 0.05, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.51, 3.45, 1.12, 1.96, 0.13, 0.2, 0.0, 0.4, 0.0, 0.1, 0.02, 0.09, 0.02, 0.05, 0.0, 0.07, 0.0, 0.0, 0.0, 0.02, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [4.49, 76.33, 15.99, 16.14, 2.63, 5.0, 0.0, 2.48, 0.0, 1.11, 0.67, 0.82, 0.44, 0.63, 0.0, 0.63, 0.0, 0.29, 0.14, 0.13, 0.09, 0.15, 0.0, 0.23, 0.0, 0.17, 0.02, 0.06, 0.03, 0.04, 0.0, 0.07, 0.0, 0.04, 0.04, 0.07, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.23, 16.06, 15.41, 8.3, 1.79, 1.59, 0.0, 1.75, 0.0, 0.44, 0.42, 0.33, 0.29, 0.2, 0.0, 0.32, 0.0, 0.16, 0.11, 0.12, 0.1, 0.09, 0.0, 0.08, 0.0, 0.04, 0.03, 0.03, 0.02, 0.0, 0.0, 0.02, 0.0, 0.01, 0.01, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [2.34, 16.15, 7.2, 28.08, 3.02, 3.22, 0.0, 4.56, 0.0, 0.8, 0.43, 1.18, 0.35, 0.51, 0.0, 0.95, 0.0, 0.32, 0.04, 0.35, 0.12, 0.14, 0.0, 0.46, 0.0, 0.1, 0.04, 0.14, 0.05, 0.09, 0.0, 0.15, 0.0, 0.03, 0.03, 0.03, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.02, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.02], [0.03, 2.62, 1.72, 3.01, 1.54, 0.6, 0.0, 0.8, 0.0, 0.14, 0.08, 0.14, 0.11, 0.05, 0.0, 0.22, 0.0, 0.06, 0.04, 0.05, 0.03, 0.03, 0.0, 0.06, 0.0, 0.02, 0.06, 0.01, 0.05, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05, 4.3, 1.99, 3.14, 0.72, 2.27, 0.0, 1.17, 0.0, 0.19, 0.11, 0.18, 0.14, 0.11, 0.0, 0.22, 0.0, 0.09, 0.04, 0.11, 0.01, 0.02, 0.0, 0.09, 0.0, 0.03, 0.02, 0.03, 0.01, 0.03, 0.0, 0.04, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.24, 2.88, 1.82, 4.52, 0.7, 1.0, 0.0, 3.24, 0.0, 0.16, 0.08, 0.25, 0.04, 0.03, 0.0, 0.5, 0.0, 0.05, 0.01, 0.08, 0.05, 0.03, 0.0, 0.18, 0.0, 0.03, 0.0, 0.03, 0.0, 0.01, 0.0, 0.09, 0.0, 0.0, 0.02, 0.03, 0.0, 0.01, 0.0, 0.06, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.07, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 1.51, 0.31, 0.65, 0.14, 0.13, 0.0, 0.14, 0.0, 0.07, 0.04, 0.07, 0.03, 0.04, 0.0, 0.05, 0.0, 0.01, 0.01, 0.03, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.66, 0.42, 0.4, 0.1, 0.1, 0.0, 0.1, 0.0, 0.01, 0.02, 0.03, 0.03, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06, 0.93, 0.41, 1.04, 0.2, 0.1, 0.0, 0.24, 0.0, 0.03, 0.04, 0.04, 0.05, 0.0, 0.0, 0.05, 0.0, 0.0, 0.02, 0.02, 0.0, 0.01, 0.0, 0.03, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01], [0.05, 0.53, 0.27, 0.28, 0.06, 0.14, 0.0, 0.1, 0.0, 0.01, 0.01, 0.02, 0.01, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.71, 0.21, 0.34, 0.04, 0.11, 0.0, 0.07, 0.0, 0.06, 0.0, 0.04, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09, 0.67, 0.36, 1.1, 0.15, 0.16, 0.0, 0.32, 0.0, 0.03, 0.03, 0.08, 0.01, 0.03, 0.0, 0.05, 0.0, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.38, 0.09, 0.21, 0.07, 0.09, 0.0, 0.05, 0.0, 0.03, 0.0, 0.03, 0.01, 0.01, 0.0, 0.0, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.15, 0.06, 0.07, 0.01, 0.01, 0.01, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.25, 0.13, 0.35, 0.06, 0.04, 0.0, 0.11, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16, 0.03, 0.12, 0.03, 0.05, 0.0, 0.05, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.17, 0.08, 0.15, 0.01, 0.04, 0.0, 0.05, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.25, 0.09, 0.35, 0.06, 0.11, 0.0, 0.26, 0.0, 0.01, 0.01, 0.02, 0.01, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.21, 0.0, 0.09, 0.03, 0.03, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.05, 0.05, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.07, 0.04, 0.17, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.01, 0.01, 0.01, 0.03, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.05, 0.01, 0.05, 0.01, 0.05, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.12, 0.04, 0.16, 0.02, 0.03, 0.0, 0.04, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05, 0.01, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.03, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.05, 0.01, 0.06, 0.01, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.06, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.06, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03, 0.01, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.666321066137007</v>
+        <v>4.893746483012785</v>
       </c>
       <c r="C5" t="n">
-        <v>3.106943835990603</v>
+        <v>2.987239528394066</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5555726685142097</v>
+        <v>0.5336074493483014</v>
       </c>
       <c r="E5" t="n">
-        <v>3.010166108373423</v>
+        <v>7.475051839285129</v>
       </c>
       <c r="F5" t="n">
-        <v>1.151275166934473</v>
+        <v>1.374490520156469</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02168317319951118</v>
+        <v>0.02058251685290213</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1682299319384039</v>
+        <v>0.4155014320071592</v>
       </c>
       <c r="I5" t="n">
-        <v>16.89467371688486</v>
+        <v>96.45323996631735</v>
       </c>
       <c r="J5" t="n">
-        <v>4.938370176485355</v>
+        <v>4.46115455907997</v>
       </c>
       <c r="K5" t="n">
-        <v>1.490045217434693</v>
+        <v>1.531593301108359</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7891561252375857</v>
+        <v>0.700256552986118</v>
       </c>
       <c r="M5" t="n">
-        <v>1.556809875996424</v>
+        <v>1.545941845607395</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[10.81119327364006, 19.14346886016221, 12.76579805574254, 11.15513782971775, 6.011455730519857, 5.6980259739667725, 1.9290152928372544, 4.210415656440585, 1.8165902124584945, 2.2037241206648353, 1.4027116596079183, 0.5219195340279948, 1.5493224325491444, 0.1705872210923199, 0.6514598989960935, 0.32496153618543866, 0.3059411708155671, 0.3605551275463987, 0.09949874371066195, 0.24166091947189117, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[10.906493478657563, 14.122308593144394, 14.257853975967075, 8.107182001164153, 5.664018008445949, 6.529096415278303, 1.4798310714402516, 4.327250859379428, 1.7723148704448655, 1.7658992043715298, 1.3057947771376637, 0.33630343441600447, 1.1038115781237299, 0.19595917942265423, 0.5868560300448487, 0.40049968789001594, 0.21794494717703392, 0.25514701644346155, 0.0, 0.17058722109231983, 0.17058722109231989, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.09949874371066196, 0.17058722109232, 0.09949874371066196, 0.13999999999999985, 0.3278719262150993, 0.19899748742132387, 0.3693237062523878, 0.13999999999999985, 0.7163099887618487, 0.5969924622639711, 0.09949874371066196, 0.3655133376499404, 0.2799999999999997, 0.4974937185533112, 0.19899748742132392, 0.09949874371066193, 0.19899748742132387, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[14.775371399731378, 2.977851574541622, 13.240011329300293, 3.071986328094576, 12.722024210006834, 15.159894458735524, 9.613630947774109, 15.630159947997974, 2.972860575270896, 21.981216981777877, 1.3571661652133822, 17.158586771642934]</t>
+          <t>[28.907134067561948, 29.09675411450562, 28.442396171912105, 30.116606714568615, 30.91251526485672, 32.34127239302745, 23.97969140752233, 31.681281539735725, 24.7445569772425, 30.343979633528622, 28.359850140647787, 26.595223255314107]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[8.106022452473223, 60.73943035623564, 66.05775881756813, 27.356350268264958, 29.060755323976007, 3.8765319552404054, 5.29349600925513, 2.9427877939124327, 5.721887800367987, 1.6118002357612438, 2.530691605075577, 0.9492628719169415, 2.5435998112910756, 0.839702328209229, 2.1148049555455466, 0.8660254037844386, 2.5909650711655674, 0.5211525688318158, 1.4131878855976658, 0.3912799509302768, 0.5491812087098387, 0.09949874371066199, 0.30594117081556693, 0.09949874371066197, 0.4409081537009725, 0.1399999999999999, 0.23748684174075815, 0.09949874371066199, 0.19595917942265412, 0.0, 0.17058722109231975, 0.0]</t>
+          <t>[14.545941014592348, 70.48754428975379, 72.06977452441488, 17.358006798016877, 26.93714721346713, 3.76425291392595, 4.6380599392418365, 2.7513632984395207, 5.198797937985281, 1.4021055595068437, 2.039705861147631, 1.1399999999999997, 2.9273879141651173, 1.1459057552870575, 1.3124023773218327, 0.9152048950918048, 1.711607431626773, 0.5491812087098387, 0.8515280382935135, 0.33630343441600447, 0.7432361670424815, 0.2215851980616033, 0.3192177939902478, 0.19595917942265398, 0.3655133376499406, 0.19595917942265415, 0.17058722109231994, 0.13999999999999987, 0.19595917942265415, 0.09949874371066196, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[9.22559483177101, 84.91205803653564, 61.84082389489972, 52.157220017941896, 19.340866061270372, 16.978268462949927, 0.0, 14.046989001205919, 0.0, 4.286945299394431, 2.352105439813445, 3.0779701103162114, 2.1024747323095228, 1.870267360566397, 0.0, 2.6991850621993314, 0.0, 1.3039938650162426, 0.8623224454924038, 1.3466996695625941, 0.7787168933572719, 1.285729364990938, 0.0, 2.002098898656108, 0.0, 0.9941830817309261, 0.5975784467331463, 0.8655056325639947, 0.6264183905346327, 0.6808817812219683, 0.0, 1.3680643259730145, 0.0, 0.7190966555338718, 0.3059411708155672, 0.943398113205661, 0.2374868417407583, 0.32419130154894643, 0.0, 0.39293765408777054, 0.0, 0.2551470164434616, 0.27129319932501084, 0.35369478367654733, 0.17058722109231977, 0.17058722109231977, 0.0, 0.17058722109231972, 0.0, 0.17058722109232, 0.17058722109231989, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.0, 0.19899748742132392, 0.0, 0.09949874371066199, 0.0, 0.0, 0.5109794516416488]</t>
+          <t>[14.811900620784625, 86.08342232973779, 55.58968519428762, 61.49525103615725, 17.669235976691233, 17.788926330726092, 0.09949874371066195, 25.10613271692795, 0.0, 2.6468660714135126, 2.0712073773526396, 3.4544319359338926, 1.667902874870116, 1.775499929597295, 0.0, 3.5002285639655013, 0.0, 1.3149524706239388, 0.6671581521648369, 1.2368912644206038, 0.7273926037567334, 1.012472221841172, 0.0, 1.8807179480187888, 0.0, 0.7896834808959855, 0.4242640687119283, 0.7123903424387507, 0.40137264480778967, 0.6458327956987013, 0.0, 0.8879189152169246, 0.0, 0.36055512754639873, 0.38157568056677843, 0.5450688029964663, 0.1399999999999999, 0.21794494717703383, 0.0, 0.6581033353509158, 0.0, 0.13999999999999985, 0.17058722109231983, 0.2416609194718912, 0.13999999999999993, 0.17058722109231994, 0.0, 0.6244997998398394, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.1399999999999999, 0.0, 0.0, 0.0, 0.6464518543557588]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[8.43788480603996, 0.5271622141238882, 5.095056427557991, 0.24166091947189117, 2.507807807628008, 1.6788091017146665, 0.34117444218464016, 2.64733828590152, 0.4358898943540672, 4.76339164881495, 0.17058722109231975, 6.005755572781829], [0.2958039891549811, 0.6823488843692797, 0.4955804677345538, 0.4399999999999994, 0.30594117081556693, 0.17058722109231972, 0.45287967496896947, 0.2917190429162959, 0.3278719262151, 0.3059411708155668, 0.22158519806160343, 0.1705872210923198], [5.556941604875833, 0.7263607918933964, 5.994756041741814, 0.3278719262150994, 5.316954015223377, 1.451723114095797, 0.8349251463454667, 1.9014731131414935, 0.21794494717703378, 1.9940912717325658, 0.35369478367654716, 1.8834808201837374], [0.2374868417407581, 0.41665333311999253, 0.3655133376499405, 0.49507575177946195, 0.6307931515164044, 0.4582575694955851, 0.7830070242341378, 0.2598076211353322, 0.2984962311319856, 0.17058722109231964, 0.09949874371066196, 0.09949874371066196], [2.7709023800920867, 0.2917190429162961, 5.742856432125045, 0.6371028174478591, 7.149097845182984, 5.372327242452754, 2.1188676221038434, 4.87241213363566, 0.19595917942265428, 3.0640496079535002, 0.24166091947189117, 1.5185190153567385], [1.0603772913449243, 0.1705872210923198, 1.5329709716755895, 0.6368673331236273, 6.286938841757567, 4.409296996120811, 0.2958039891549806, 2.954928087111428, 0.7575618786607471, 1.0362914647916392, 0.2416609194718912, 0.3605551275463987], [0.7351190379795628, 0.19595917942265417, 1.2304064369142436, 0.2598076211353321, 1.6874537030686179, 0.5744562646538034, 2.7279846040621325, 1.4911740341086952, 0.1989974874213239, 1.0183810681665266, 0.13999999999999987, 0.17058722109231977], [2.5538010885736573, 0.19595917942265392, 2.179449471770337, 0.19595917942265392, 4.452808102759426, 3.2783379935571006, 1.5237781990827948, 7.673695328849066, 0.3872983346207415, 7.14206552756274, 0.09949874371066195, 1.3642213896578503], [0.29580398915498096, 0.0, 0.2598076211353315, 0.2179449471770336, 0.36551333764994137, 0.6276145313805285, 0.13999999999999985, 0.38729833462074154, 0.832526275861609, 0.25514701644346166, 0.353694783676548, 0.32419130154894665], [4.9137663762128545, 0.3241913015489466, 1.7429572570777512, 0.22158519806160287, 3.3641640863667748, 0.9153687781435424, 1.0474254150057667, 7.714110447744445, 0.34336569426778807, 10.092427854584841, 0.13999999999999996, 4.418993097980579], [0.13999999999999999, 0.2598076211353315, 0.2179449471770336, 0.13999999999999987, 0.21794494717703358, 0.17058722109231966, 0.19899748742132398, 0.13999999999999987, 0.27999999999999975, 0.2764054992217045, 0.2215851980616033, 0.13999999999999987], [5.53601842482483, 0.17058722109231997, 1.287012043455694, 0.09949874371066195, 1.209090567327362, 0.43312815655415426, 0.19595917942265428, 2.520238083991273, 0.17058722109231989, 4.961642873081456, 0.19595917942265415, 4.963174387425856]]</t>
+          <t>[[9.446671371440837, 1.4235167719419404, 7.321878174348441, 3.923404134167168, 2.2401785643113348, 2.5014195969488995, 0.3605551275463987, 3.243084951092091, 2.129107794358941, 5.1156524510564605, 6.883102498147179, 2.1204716456486756], [1.925902385896025, 8.723210418188932, 0.9297311439335569, 6.9398198823888775, 4.081409070406933, 1.9175765956018538, 2.222858520014262, 0.421781934179263, 2.3498723369579024, 2.261327044016411, 4.353573245048257, 6.7764592524415], [8.108581873546076, 1.1651609330903605, 8.312015399408255, 1.236891264420605, 6.934233915869869, 4.652784112765169, 2.298934535823061, 2.9685686786732775, 0.2861817604250838, 2.7709926019388784, 1.402283851436649, 3.8473237451506517], [3.9897243012519064, 7.280109889280515, 1.5441502517566081, 9.807262615021587, 5.298112871579843, 7.200444430727869, 4.078774325701288, 1.973423421367042, 2.3288623832249082, 0.3104834939252008, 2.518154085833511, 2.415450268583478], [2.3150809921037308, 3.8353487455510495, 7.746605708308638, 5.082312465797435, 11.567523503326019, 1.5636815532582087, 5.3110733378480095, 4.71528366060834, 2.5834860169933176, 2.9478805945967337, 0.343365694267788, 2.7110698995046216], [2.6444470121369403, 2.1524637046881856, 5.171179749341541, 7.2281325389065785, 1.7646246059714776, 11.18614768363085, 1.9792928029980807, 7.792887783100688, 3.2655168044277447, 2.07374058165432, 2.7670200577516613, 0.3316624790355398], [0.3316624790355398, 2.7867364425076153, 1.963135247505887, 4.771834028966221, 6.485946345754023, 1.8520259177452147, 7.017770301171161, 1.251998402554891, 4.324072154809629, 3.6565557564462217, 1.4545102268461365, 2.200818029733488], [2.746925554142305, 0.19595917942265428, 2.927456233660889, 1.7265862272125294, 4.588202262324535, 8.969258609272009, 1.592827674294992, 10.437164365861062, 1.824582143944196, 7.38820681897847, 4.309292285283051, 2.345442388974839], [1.5904716281656825, 2.381260170581955, 0.13999999999999987, 2.2605309110914633, 2.135321989771097, 3.2712535823442375, 6.064412584908781, 2.3404273114113163, 7.559867723710512, 1.25841169733915, 5.814430324631983, 3.642457961322273], [4.320694388637088, 2.27444498724414, 3.3391615714128, 0.2598076211353318, 2.790895913501614, 1.831147181413879, 4.05979063499585, 8.20104261664333, 1.681517172080024, 9.453591909956767, 1.5443768970040976, 6.738390015426538], [6.769017653987911, 3.792677154728568, 1.4777009169652697, 2.5194443831924547, 0.560713830755048, 2.9382137430758823, 1.390359665698051, 4.457297387431088, 6.402960252883035, 2.1400934559032683, 9.512959581539285, 1.7139428228502842], [1.8947031429751724, 6.910940601683679, 3.366006535941368, 2.3988330496305896, 2.4773170971839686, 0.31921779399024786, 1.8389127222356136, 2.2255561102789585, 3.5693696922566045, 7.689603370785783, 2.4999799999200003, 8.59694713255816]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.6273754856543245, 0.9471536306217695, 1.451068571777365, 5.547711239781684, 0.3433656942677881, 0.4616275555033515, 0.0, 0.8494704232638125, 0.0, 0.1399999999999999, 0.13999999999999987, 0.17058722109231994, 0.13999999999999993, 0.0, 0.0, 0.1705872210923197, 0.0, 0.1399999999999999, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.9407975340103732, 70.94444023318529, 18.50773892186725, 14.175810382479023, 3.057776970284131, 4.274704668161297, 0.0, 2.034182882633712, 0.0, 2.182177811270199, 0.9848857801796104, 1.154945886178223, 0.9214662229295225, 0.9108238029388559, 0.0, 1.0775435026020987, 0.0, 0.7467261881037799, 0.35440090293338716, 0.5291502622129175, 0.2551470164434616, 0.5122499389946283, 0.0, 0.6264183905346328, 0.0, 0.2712931993250109, 0.25980762113533173, 0.2551470164434615, 0.21794494717703383, 0.3433656942677882, 0.0, 0.43943145085439655, 0.0, 0.2598076211353321, 0.0, 0.13999999999999987, 0.09949874371066199, 0.13999999999999985, 0.0, 0.19595917942265428, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197], [0.7372923436466706, 18.43458434573452, 36.36382130634788, 12.106506515093443, 3.9514427744812393, 3.2306500893782966, 0.0, 4.5026547724647985, 0.0, 1.2529964086141678, 0.9526279441628822, 0.8170067319184101, 0.6173329733620255, 0.5881326381013043, 0.0, 0.8175573374387874, 0.0, 0.374699879903904, 0.4409081537009724, 0.5765414122159827, 0.29999999999999977, 0.2861817604250839, 0.0, 0.7168681887209113, 0.0, 0.35440090293338716, 0.19595917942265415, 0.2179449471770336, 0.17058722109231977, 0.19595917942265398, 0.0, 0.5030904491242106, 0.0, 0.25980762113533173, 0.1705872210923196, 0.3536947836765474, 0.0, 0.09949874371066199, 0.0, 0.17058722109231986, 0.0, 0.0, 0.09949874371066196, 0.22158519806160298, 0.09949874371066199, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.25980762113533196], [6.6679532091939615, 13.713511585294267, 11.722627691776282, 35.14228791641206, 5.043203347080108, 3.190611226708764, 0.0, 5.277916255493261, 0.0, 1.0954451150103326, 0.8701149349367586, 1.4191194452899312, 0.5517245689653492, 0.6749814812274476, 0.0, 1.2536347155371843, 0.0, 0.507050293363489, 0.39127995093027684, 0.5491812087098386, 0.2551470164434616, 0.44034077712608, 0.0, 0.7467261881037794, 0.0, 0.24166091947189114, 0.24166091947189114, 0.49759421218498884, 0.2917190429162961, 0.28618176042508386, 0.0, 0.7050531894828933, 0.0, 0.19595917942265423, 0.17058722109232, 0.2598076211353322, 0.13999999999999996, 0.09949874371066197, 0.0, 0.195959179422654, 0.0, 0.13999999999999987, 0.2179449471770337, 0.13999999999999985, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2764054992217046], [0.31288975694324045, 2.6707864010437072, 3.6796738985948196, 4.930912694420781, 7.2300691559624815, 2.8530685235374227, 0.0, 1.642680735870486, 0.0, 0.6383572667401852, 0.2999999999999998, 0.4556314299957806, 0.4836320915737501, 0.2551470164434615, 0.0, 0.6666333324999587, 0.0, 0.2374868417407583, 0.1705872210923198, 0.19595917942265398, 0.21794494717703397, 0.23748684174075815, 0.0, 0.5000000000000002, 0.0, 0.3693237062523879, 0.17058722109231972, 0.13999999999999987, 0.13999999999999987, 0.13999999999999987, 0.0, 0.27129319932501084, 0.0, 0.13999999999999987, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.46593991028886955, 4.149698784249286, 3.1622776601683786, 2.996180902415606, 3.1547424617549993, 5.016722037346698, 0.0, 2.5159491250818267, 0.0, 1.3518505834595762, 0.5806031346797916, 0.6636264009214818, 0.5291502622129179, 0.3648287269390938, 0.0, 0.6689544080129826, 0.0, 0.43943145085439655, 0.13999999999999987, 0.19595917942265412, 0.27999999999999975, 0.3316624790355398, 0.0, 0.4555216789572152, 0.0, 0.2179449471770336, 0.21794494717703364, 0.30594117081556704, 0.17058722109231983, 0.21794494717703375, 0.0, 0.2917190429162965, 0.0, 0.21794494717703378, 0.0, 0.13999999999999993, 0.13999999999999987, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.13999999999999996, 0.0, 0.09949874371066197, 0.09949874371066193, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.5030904491242105, 2.3405982141324473, 3.5730099356145084, 5.165810681780741, 1.6515144564913746, 2.3605931458004363, 0.0, 4.14848164995339, 0.0, 0.7901898506055366, 0.4836320915737501, 0.7437069315261217, 0.4069397989875157, 0.1705872210923198, 0.0, 0.7050531894828921, 0.0, 0.29171904291629647, 0.23748684174075835, 0.4828043081829324, 0.13999999999999996, 0.3241913015489462, 0.0, 0.5929586832149442, 0.0, 0.1705872210923199, 0.13999999999999993, 0.37669616403674744, 0.19595917942265428, 0.17058722109231977, 0.0, 0.29171904291629636, 0.0, 0.09949874371066196, 0.09949874371066199, 0.35369478367654733, 0.09949874371066199, 0.0, 0.0, 0.17058722109231964, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19595917942265415, 2.0024984394500778, 1.1286717857729949, 0.9680392554023828, 0.6337191807101946, 1.1438531374263048, 0.0, 0.5109794516416488, 0.0, 0.39191835884530785, 0.2551470164434615, 0.22158519806160315, 0.2598076211353318, 0.09949874371066199, 0.0, 0.2917190429162964, 0.0, 0.13999999999999985, 0.0, 0.09949874371066199, 0.17058722109231972, 0.1399999999999999, 0.0, 0.17058722109231989, 0.0, 0.1705872210923199, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 1.0961751684835779, 1.1542963224406464, 0.8377947242612599, 0.43301270189221963, 0.43301270189221963, 0.0, 0.374699879903904, 0.0, 0.17058722109231989, 0.0, 0.1705872210923199, 0.13999999999999985, 0.13999999999999987, 0.0, 0.0, 0.0, 0.17058722109231972, 0.0, 0.13999999999999987, 0.13999999999999993, 0.0, 0.0, 0.17058722109231989, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.35369478367654733, 1.4370455803487938, 1.0571660229122017, 1.3103816238027763, 0.34336569426778807, 0.6689544080129826, 0.0, 0.3128897569432405, 0.0, 0.2917190429162963, 0.0, 0.3316624790355398, 0.13999999999999993, 0.13999999999999993, 0.0, 0.23748684174075818, 0.0, 0.0, 0.0, 0.1705872210923198, 0.1399999999999999, 0.1705872210923198, 0.0, 0.09949874371066193, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.9407975340103734, 0.7418894796396571, 0.7533259586659683, 0.48414873747640846, 0.45563142999578077, 0.0, 0.36055512754639885, 0.0, 0.19595917942265423, 0.13999999999999996, 0.09949874371066199, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231983, 0.9217374897442341, 0.6689544080129826, 0.7144228439796707, 0.29580398915498085, 0.5545268253204712, 0.0, 0.2917190429162961, 0.0, 0.1705872210923199, 0.0, 0.17058722109231997, 0.1705872210923198, 0.09949874371066196, 0.0, 0.17058722109231972, 0.0, 0.13999999999999987, 0.09949874371066199, 0.1399999999999999, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 1.2545517127643642, 1.1989995829857496, 1.2965724044572275, 0.33166247903553986, 0.44766058571198786, 0.0, 0.6611353870426234, 0.0, 0.13999999999999987, 0.13999999999999996, 0.29171904291629597, 0.0, 0.0, 0.0, 0.17058722109231958, 0.0, 0.13999999999999985, 0.13999999999999987, 0.13999999999999987, 0.0, 0.1399999999999999, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.8233468284993877, 0.46000000000000035, 0.475289385532646, 0.2551470164434616, 0.2917190429162963, 0.0, 0.2598076211353317, 0.0, 0.1705872210923198, 0.09949874371066193, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.4409081537009724, 0.44844174649557345, 0.31288975694324045, 0.13999999999999987, 0.09949874371066199, 0.0, 0.21794494717703397, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231975, 0.5407402333838304, 0.5361902647381804, 0.6764613810115103, 0.17058722109231994, 0.25980762113533173, 0.0, 0.19595917942265412, 0.0, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.09949874371066193, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.400499687890016, 0.23748684174075815, 0.2861817604250836, 0.1959591794226542, 0.19595917942265412, 0.0, 0.22158519806160312, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1399999999999999, 0.5844655678480982, 0.3912799509302767, 0.3666060555964675, 0.1705872210923198, 0.39191835884530823, 0.0, 0.2917190429162961, 0.0, 0.13999999999999987, 0.09949874371066196, 0.17058722109231977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 0.6878226515607057, 0.5678027826631359, 0.938083151964685, 0.2551470164434616, 0.371348892552543, 0.0, 0.39736632972611063, 0.0, 0.19595917942265428, 0.21794494717703403, 0.17058722109231986, 0.09949874371066196, 0.09949874371066199, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4176122603564221, 0.2712931993250109, 0.32419130154894665, 0.17058722109231989, 0.0, 0.0, 0.27640549922170493, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.29171904291629636, 0.25514701644346144, 0.2179449471770336, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.3128897569432405, 0.2551470164434615, 0.4630334761116096, 0.1959591794226542, 0.19595917942265406, 0.0, 0.2179449471770337, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2764054992217045, 0.09949874371066199, 0.45825756949558494, 0.09949874371066199, 0.25980762113533196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3433656942677881, 0.2374868417407581, 0.2917190429162962, 0.19595917942265428, 0.23748684174075813, 0.0, 0.13999999999999993, 0.0, 0.13999999999999999, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19899748742132392, 0.4770744176750626, 0.3241913015489465, 0.509901951359278, 0.19595917942265417, 0.4023679907746143, 0.0, 0.21794494717703364, 0.0, 0.1399999999999999, 0.09949874371066199, 0.2179449471770336, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3605551275463987, 0.17058722109231983, 0.17058722109232002, 0.19595917942265423, 0.13999999999999993, 0.0, 0.13999999999999996, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999987, 0.0, 0.195959179422654, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2984962311319857, 0.17058722109231958, 0.1959591794226541, 0.391918358845308, 0.0, 0.13999999999999996, 0.0, 0.25980762113533157, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.13999999999999985, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.17058722109231966, 0.13999999999999987, 0.19595917942265428, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.09949874371066196, 0.09949874371066195, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.13999999999999999, 0.1399999999999999, 0.0, 0.13999999999999996, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999985, 0.09949874371066197, 0.17058722109231997, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066197, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999985, 0.13999999999999987, 0.13999999999999987, 0.2179449471770336, 0.09949874371066197, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[2.295626276204382, 6.53356717268599, 1.845426779907563, 7.368744804917585, 0.3912799509302768, 0.5656854249492378, 0.0, 1.2489995996796792, 0.0, 0.33166247903553986, 0.13999999999999987, 0.31921779399024763, 0.13999999999999987, 0.25980762113533207, 0.0, 0.29171904291629597, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066196, 0.13999999999999985, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066197, 0.09949874371066195, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [7.645253429416189, 72.66719411123564, 17.953548395790733, 14.786493837282729, 3.0908089555972227, 5.033885179461287, 0.0, 1.8573098825990233, 0.0, 1.2719669807035094, 1.1318568814121328, 1.0137060717979347, 0.7391887445030535, 0.9762684057163791, 0.0, 0.8325262758616091, 0.0, 0.5881326381013043, 0.40049968789001594, 0.3912799509302769, 0.28618176042508364, 0.47696960070847344, 0.0, 0.5070502933634892, 0.0, 0.44844174649557345, 0.13999999999999993, 0.2374868417407581, 0.17058722109231972, 0.19595917942265415, 0.0, 0.2551470164434616, 0.0, 0.2416609194718912, 0.19595917942265412, 0.29171904291629647, 0.0, 0.17058722109232, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.5975784467331466, 17.940356741157625, 31.080249355499053, 12.728314892396405, 2.7867364425076158, 2.3794747319524108, 0.0, 3.8193585848935423, 0.0, 0.7787168933572716, 0.8388086790204311, 0.8130805618141417, 0.6371028174478589, 0.5099019513592781, 0.0, 0.5979966555090422, 0.0, 0.523832034148352, 0.34336569426778807, 0.4955804677345541, 0.3605551275463988, 0.31921779399024763, 0.0, 0.27129319932501084, 0.0, 0.1959591794226541, 0.17058722109231989, 0.17058722109231972, 0.13999999999999993, 0.0, 0.0, 0.1399999999999999, 0.0, 0.09949874371066195, 0.09949874371066195, 0.13999999999999993, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [8.79342936515669, 13.714499626307916, 11.992497654784012, 45.060332888251054, 5.059604727644244, 4.444277219076236, 0.0, 7.517073898798656, 0.0, 1.1832159566199232, 0.7246378405796923, 2.1041863035387345, 0.6224949798994366, 0.9433451118228139, 0.0, 1.5451537140362448, 0.0, 0.6462197768561405, 0.19595917942265423, 0.7123903424387509, 0.35440090293338716, 0.374699879903904, 0.0, 0.984073168011405, 0.0, 0.33166247903553986, 0.19595917942265412, 0.37469987990390385, 0.21794494717703383, 0.42649736224272194, 0.0, 0.4330127018922199, 0.0, 0.17058722109231994, 0.17058722109231966, 0.22158519806160293, 0.09949874371066196, 0.09949874371066197, 0.0, 0.13999999999999987, 0.0, 0.0, 0.13999999999999985, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999987], [0.17058722109231964, 2.9112883745860727, 2.7895519353473235, 4.974927135144795, 6.867925450964075, 1.3638181696985878, 0.0, 1.9183326093250863, 0.0, 0.4247352116319059, 0.39191835884530823, 0.3746998799039039, 0.371348892552543, 0.21794494717703383, 0.0, 0.609590026165127, 0.0, 0.2374868417407581, 0.19595917942265428, 0.21794494717703367, 0.1705872210923198, 0.17058722109231983, 0.0, 0.2764054992217051, 0.0, 0.13999999999999993, 0.23748684174075832, 0.09949874371066196, 0.25980762113533207, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.21794494717703358, 4.817675788178362, 2.954640418054285, 4.352056984921039, 1.5038616957685977, 6.212656436662182, 0.0, 2.44562875351105, 0.0, 0.5233545643251813, 0.34336569426778807, 0.47707441767506253, 0.4247352116319061, 0.39736632972611063, 0.0, 0.5015974481593783, 0.0, 0.3192177939902473, 0.19595917942265403, 0.343365694267788, 0.09949874371066199, 0.1399999999999999, 0.0, 0.4023679907746144, 0.0, 0.17058722109231964, 0.13999999999999993, 0.1705872210923198, 0.09949874371066199, 0.17058722109231972, 0.0, 0.19595917942265412, 0.0, 0.09949874371066199, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.906862723900369, 2.333580939243377, 3.52811564436315, 7.354563209327938, 1.5394804318340658, 2.3108440016582685, 0.0, 12.562738554948922, 0.0, 0.3666060555964676, 0.27129319932501084, 0.5361902647381804, 0.19595917942265415, 0.17058722109231986, 0.0, 1.9467922333931784, 0.0, 0.21794494717703383, 0.09949874371066197, 0.27129319932501095, 0.21794494717703367, 0.17058722109231975, 0.0, 0.7794870107962036, 0.0, 0.17058722109231994, 0.0, 0.22158519806160326, 0.0, 0.09949874371066197, 0.0, 0.4710626285325549, 0.0, 0.0, 0.13999999999999993, 0.17058722109231972, 0.0, 0.09949874371066199, 0.0, 0.5063595560468862, 0.0, 0.09949874371066199, 0.0, 0.22158519806160343, 0.0, 0.09949874371066197, 0.0, 0.4302324952859788, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.35707142142714227], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999993, 1.5779416972752829, 0.6737210105080588, 1.2196310917650481, 0.46946778377222015, 0.4160528812542943, 0.0, 0.374699879903904, 0.0, 0.29171904291629636, 0.19595917942265412, 0.25514701644346155, 0.17058722109231972, 0.19595917942265423, 0.0, 0.21794494717703367, 0.0, 0.09949874371066195, 0.09949874371066196, 0.17058722109231994, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1399999999999999, 0.9614572273377524, 0.7769169839822014, 0.7745966692414826, 0.38729833462074154, 0.33166247903553986, 0.0, 0.36055512754639873, 0.0, 0.09949874371066199, 0.13999999999999996, 0.1705872210923199, 0.17058722109231986, 0.13999999999999987, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2764054992217048, 1.32102233137824, 0.7758221445666532, 2.340598214132446, 0.6633249580710797, 0.2999999999999998, 0.0, 0.5851495535331119, 0.0, 0.17058722109231997, 0.19595917942265428, 0.19595917942265387, 0.21794494717703367, 0.0, 0.0, 0.21794494717703383, 0.0, 0.0, 0.13999999999999987, 0.13999999999999999, 0.0, 0.09949874371066197, 0.0, 0.17058722109231983, 0.0, 0.13999999999999993, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196], [0.25980762113533185, 0.8538735269347568, 0.5806031346797914, 0.6013318551349165, 0.23748684174075818, 0.37469987990390397, 0.0, 0.2999999999999998, 0.0, 0.09949874371066197, 0.09949874371066197, 0.13999999999999993, 0.09949874371066196, 0.0, 0.0, 0.22158519806160307, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.13999999999999987, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 1.061084351029643, 0.475289385532646, 0.695988505652213, 0.19595917942265412, 0.34336569426778807, 0.0, 0.25514701644346155, 0.0, 0.2374868417407583, 0.0, 0.19595917942265392, 0.17058722109231964, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.19899748742132392, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4264973622427226, 0.9171150418567999, 0.7552483035399687, 1.676305461424021, 0.4974937185533103, 0.5238320341483521, 0.0, 1.1989995829857483, 0.0, 0.17058722109231964, 0.2215851980616029, 0.30594117081556693, 0.09949874371066196, 0.17058722109231989, 0.0, 0.259807621135332, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.66, 0.31921779399024736, 0.5346961754117942, 0.2551470164434616, 0.349141805001922, 0.0, 0.21794494717703397, 0.0, 0.17058722109231986, 0.0, 0.17058722109231986, 0.09949874371066196, 0.09949874371066195, 0.0, 0.0, 0.0, 0.13999999999999993, 0.09949874371066197, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3570714214271429, 0.237486841740758, 0.2917190429162963, 0.09949874371066197, 0.09949874371066196, 0.09949874371066195, 0.24166091947189128, 0.0, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.1399999999999999, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999993, 0.5361902647381804, 0.3912799509302769, 0.726291952316698, 0.2374868417407583, 0.19595917942265423, 0.0, 0.371348892552543, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4176122603564223, 0.17058722109231977, 0.38157568056677843, 0.17058722109231994, 0.21794494717703367, 0.0, 0.21794494717703383, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999985, 0.5666568626602877, 0.27129319932501095, 0.4330127018922198, 0.09949874371066195, 0.19595917942265406, 0.0, 0.2179449471770336, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.49749371855331, 0.2861817604250837, 0.7921489758877438, 0.2374868417407581, 0.39736632972611075, 0.0, 1.0061808982484215, 0.0, 0.09949874371066199, 0.09949874371066197, 0.13999999999999993, 0.09949874371066199, 0.09949874371066196, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5530822723609934, 0.0, 0.28618176042508364, 0.17058722109231964, 0.17058722109231989, 0.0, 0.17058722109231986, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.27129319932501084, 0.21794494717703355, 0.21794494717703405, 0.09949874371066196, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.3536947836765476, 0.19595917942265415, 0.44844174649557345, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2551470164434616, 0.09949874371066197, 0.09949874371066197, 0.09949874371066196, 0.17058722109231986, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.2179449471770336, 0.09949874371066197, 0.3278719262150996, 0.09949874371066196, 0.3278719262150997, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066193, 0.38157568056677843, 0.1959591794226542, 0.4630334761116093, 0.1399999999999999, 0.17058722109232, 0.0, 0.24166091947189114, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.21794494717703408, 0.09949874371066197, 0.13999999999999987, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.1705872210923197, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.21794494717703383, 0.09949874371066197, 0.2764054992217045, 0.09949874371066196, 0.09949874371066199, 0.0, 0.21794494717703367, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.17058722109231989, 0.0, 0.09949874371066197, 0.0, 0.4199999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066193, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.5063595560468862, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.2215851980616029, 0.09949874371066196, 0.0, 0.0, 0.27999999999999975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19899748742132398, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -824,58 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003592068329482615</v>
+        <v>0.001530297045062762</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4570201492471664</v>
+        <v>0.5067903853184014</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007107206980824418</v>
+        <v>0.007317381158683368</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4192129792824002</v>
+        <v>0.8397073907011159</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003973046350181876</v>
+        <v>0.07827945654669549</v>
       </c>
       <c r="G6" t="n">
-        <v>1.012547116951429</v>
+        <v>0.8307570873442367</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006224721138237195</v>
+        <v>0.4908315568857519</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1679709379144444</v>
+        <v>0.008661669231616907</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1013714247635429</v>
+        <v>0.1099704229637168</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005343379098504005</v>
+        <v>0.01818182848713969</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001340422709924132</v>
+        <v>0.001492190590311651</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006029514399875867</v>
+        <v>0.001794499589287742</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1307407439633985</v>
+        <v>0.08411685890383569</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05626653023238871</v>
+        <v>0.02373026366956475</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04305564935408256</v>
+        <v>0.02420961688727124</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01400977910663611</v>
+        <v>0.0133412359965358</v>
       </c>
       <c r="R6" t="n">
-        <v>1.206792013391129</v>
+        <v>0.4245704831762568</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06567263087345154</v>
+        <v>0.05248090522090874</v>
       </c>
     </row>
     <row r="7">
@@ -885,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9673833476059283</v>
+        <v>0.9642357076532947</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6249906542293587</v>
+        <v>0.5401778448498705</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9692558267981292</v>
+        <v>0.9698992150009594</v>
       </c>
       <c r="E7" t="n">
-        <v>0.610329575216361</v>
+        <v>0.4736129296557689</v>
       </c>
       <c r="F7" t="n">
-        <v>0.945056652910238</v>
+        <v>0.9535961788556594</v>
       </c>
       <c r="G7" t="n">
-        <v>0.737209099206193</v>
+        <v>0.7128920590610381</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8529518215948129</v>
+        <v>0.8861125672444607</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5868327485478714</v>
+        <v>0.9406099100489036</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8220922467121253</v>
+        <v>0.8202901771959695</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9631527351819421</v>
+        <v>0.9381744961323707</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9633766452791851</v>
+        <v>0.9655736043052744</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9442273276906734</v>
+        <v>0.9639605245491381</v>
       </c>
       <c r="N7" t="n">
-        <v>0.73917148173574</v>
+        <v>0.7524064767538613</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8302856376717395</v>
+        <v>0.9391182266807131</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9217480391709291</v>
+        <v>0.9360264199079096</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9664247196104807</v>
+        <v>0.9768861407540912</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6793454580365015</v>
+        <v>0.8022264175371725</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9590492084348077</v>
+        <v>0.9609436949034597</v>
       </c>
     </row>
     <row r="8">
@@ -946,58 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007570944026549953</v>
+        <v>0.01880202869221359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03887515617958706</v>
+        <v>0.1972710111896996</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02253002749981804</v>
+        <v>0.0517792321354852</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05777777663264507</v>
+        <v>0.0458070471309578</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007912158651397178</v>
+        <v>0.0349101623693828</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5368534102810084</v>
+        <v>0.2576542255691124</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03867216139413264</v>
+        <v>0.06183450542365636</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0884524694364342</v>
+        <v>1.938353114478832</v>
       </c>
       <c r="J8" t="n">
-        <v>1.501754797778003</v>
+        <v>3.765358684757497</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00842035577356989</v>
+        <v>0.0183998986855561</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1971751490149068</v>
+        <v>0.3400010365368873</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7029165729727394</v>
+        <v>0.1522806560700064</v>
       </c>
       <c r="N8" t="n">
-        <v>2.903483946430302</v>
+        <v>0.3984779922377579</v>
       </c>
       <c r="O8" t="n">
-        <v>2.059480567100904</v>
+        <v>3.005600920117487</v>
       </c>
       <c r="P8" t="n">
-        <v>1.288013048912124</v>
+        <v>1.204061965406106</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4077761756771002</v>
+        <v>0.2566580280403253</v>
       </c>
       <c r="R8" t="n">
-        <v>2.820077681384272</v>
+        <v>4.859396265169067</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3731170967509581</v>
+        <v>0.2402003430496312</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9540608714664528</v>
+        <v>0.957509886407203</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8636416977487422</v>
+        <v>0.6094211007739525</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9573860529015675</v>
+        <v>0.9425916550530462</v>
       </c>
       <c r="E9" t="n">
-        <v>0.808724365506049</v>
+        <v>0.7759069243470375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9333940340448287</v>
+        <v>0.9335678544122856</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7718912977464674</v>
+        <v>0.7628257268463967</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6904442014689913</v>
+        <v>0.7926748541446936</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6104073001295092</v>
+        <v>0.924226697779771</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1574863488123593</v>
+        <v>0.1484236341598329</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9518462123258515</v>
+        <v>0.9498028540964395</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9469434781040197</v>
+        <v>0.8827296173283186</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9408927444322394</v>
+        <v>0.9322088757106602</v>
       </c>
       <c r="N9" t="n">
-        <v>0.461880656433918</v>
+        <v>0.3117882164201929</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7877863223970136</v>
+        <v>0.8832598291879706</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8907522853462693</v>
+        <v>0.8879661089084913</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9376838561833662</v>
+        <v>0.949288592197805</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5485781578937583</v>
+        <v>0.7349333063339398</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9398266308972536</v>
+        <v>0.9576509429846275</v>
       </c>
     </row>
   </sheetData>
